--- a/excel_sheets/Indicator_metadata.xlsx
+++ b/excel_sheets/Indicator_metadata.xlsx
@@ -3304,7 +3304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD296"/>
+  <dimension ref="A1:AD297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5922,44 +5922,48 @@
       <c r="AD73" s="6" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="n"/>
-      <c r="B74" s="8" t="n"/>
-      <c r="C74" s="2" t="n"/>
-      <c r="D74" s="2" t="n"/>
-      <c r="E74" s="2" t="n"/>
-      <c r="F74" s="2" t="n"/>
-      <c r="G74" s="2" t="n"/>
-      <c r="H74" s="2" t="n"/>
-      <c r="I74" s="2" t="n"/>
-      <c r="J74" s="2" t="n"/>
-      <c r="K74" s="2" t="n"/>
-      <c r="L74" s="2" t="n"/>
-      <c r="M74" s="2" t="n"/>
-      <c r="N74" s="2" t="n"/>
-      <c r="O74" s="2" t="n"/>
-      <c r="P74" s="2" t="n"/>
-      <c r="Q74" s="2" t="n"/>
-      <c r="R74" s="2" t="n"/>
-      <c r="S74" s="2" t="n"/>
-      <c r="T74" s="2" t="n"/>
-      <c r="U74" s="2" t="n"/>
-      <c r="V74" s="2" t="n"/>
-      <c r="W74" s="2" t="n"/>
-      <c r="X74" s="2" t="n"/>
-      <c r="Y74" s="2" t="n"/>
-      <c r="Z74" s="2" t="n"/>
-      <c r="AA74" s="2" t="n"/>
-      <c r="AB74" s="2" t="n"/>
-      <c r="AC74" s="2" t="n"/>
-      <c r="AD74" s="2" t="n"/>
+      <c r="A74" s="4" t="inlineStr"/>
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>code_list</t>
+        </is>
+      </c>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>[{"code": null, "label": null, "description": null}]</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="n"/>
+      <c r="E74" s="6" t="n"/>
+      <c r="F74" s="6" t="n"/>
+      <c r="G74" s="6" t="n"/>
+      <c r="H74" s="6" t="n"/>
+      <c r="I74" s="6" t="n"/>
+      <c r="J74" s="6" t="n"/>
+      <c r="K74" s="6" t="n"/>
+      <c r="L74" s="6" t="n"/>
+      <c r="M74" s="6" t="n"/>
+      <c r="N74" s="6" t="n"/>
+      <c r="O74" s="6" t="n"/>
+      <c r="P74" s="6" t="n"/>
+      <c r="Q74" s="6" t="n"/>
+      <c r="R74" s="6" t="n"/>
+      <c r="S74" s="6" t="n"/>
+      <c r="T74" s="6" t="n"/>
+      <c r="U74" s="6" t="n"/>
+      <c r="V74" s="6" t="n"/>
+      <c r="W74" s="6" t="n"/>
+      <c r="X74" s="6" t="n"/>
+      <c r="Y74" s="6" t="n"/>
+      <c r="Z74" s="6" t="n"/>
+      <c r="AA74" s="6" t="n"/>
+      <c r="AB74" s="6" t="n"/>
+      <c r="AC74" s="6" t="n"/>
+      <c r="AD74" s="6" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="10" t="inlineStr">
-        <is>
-          <t>definition_references</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="n"/>
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="8" t="n"/>
       <c r="C75" s="2" t="n"/>
       <c r="D75" s="2" t="n"/>
       <c r="E75" s="2" t="n"/>
@@ -5990,46 +5994,46 @@
       <c r="AD75" s="2" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="inlineStr"/>
-      <c r="B76" s="5" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="C76" s="6" t="n"/>
-      <c r="D76" s="6" t="n"/>
-      <c r="E76" s="6" t="n"/>
-      <c r="F76" s="6" t="n"/>
-      <c r="G76" s="6" t="n"/>
-      <c r="H76" s="6" t="n"/>
-      <c r="I76" s="6" t="n"/>
-      <c r="J76" s="6" t="n"/>
-      <c r="K76" s="6" t="n"/>
-      <c r="L76" s="6" t="n"/>
-      <c r="M76" s="6" t="n"/>
-      <c r="N76" s="6" t="n"/>
-      <c r="O76" s="6" t="n"/>
-      <c r="P76" s="6" t="n"/>
-      <c r="Q76" s="6" t="n"/>
-      <c r="R76" s="6" t="n"/>
-      <c r="S76" s="6" t="n"/>
-      <c r="T76" s="6" t="n"/>
-      <c r="U76" s="6" t="n"/>
-      <c r="V76" s="6" t="n"/>
-      <c r="W76" s="6" t="n"/>
-      <c r="X76" s="6" t="n"/>
-      <c r="Y76" s="6" t="n"/>
-      <c r="Z76" s="6" t="n"/>
-      <c r="AA76" s="6" t="n"/>
-      <c r="AB76" s="6" t="n"/>
-      <c r="AC76" s="6" t="n"/>
-      <c r="AD76" s="6" t="n"/>
+      <c r="A76" s="10" t="inlineStr">
+        <is>
+          <t>definition_references</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n"/>
+      <c r="C76" s="2" t="n"/>
+      <c r="D76" s="2" t="n"/>
+      <c r="E76" s="2" t="n"/>
+      <c r="F76" s="2" t="n"/>
+      <c r="G76" s="2" t="n"/>
+      <c r="H76" s="2" t="n"/>
+      <c r="I76" s="2" t="n"/>
+      <c r="J76" s="2" t="n"/>
+      <c r="K76" s="2" t="n"/>
+      <c r="L76" s="2" t="n"/>
+      <c r="M76" s="2" t="n"/>
+      <c r="N76" s="2" t="n"/>
+      <c r="O76" s="2" t="n"/>
+      <c r="P76" s="2" t="n"/>
+      <c r="Q76" s="2" t="n"/>
+      <c r="R76" s="2" t="n"/>
+      <c r="S76" s="2" t="n"/>
+      <c r="T76" s="2" t="n"/>
+      <c r="U76" s="2" t="n"/>
+      <c r="V76" s="2" t="n"/>
+      <c r="W76" s="2" t="n"/>
+      <c r="X76" s="2" t="n"/>
+      <c r="Y76" s="2" t="n"/>
+      <c r="Z76" s="2" t="n"/>
+      <c r="AA76" s="2" t="n"/>
+      <c r="AB76" s="2" t="n"/>
+      <c r="AC76" s="2" t="n"/>
+      <c r="AD76" s="2" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr"/>
       <c r="B77" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>source</t>
         </is>
       </c>
       <c r="C77" s="6" t="n"/>
@@ -6065,7 +6069,7 @@
       <c r="A78" s="4" t="inlineStr"/>
       <c r="B78" s="5" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>uri</t>
         </is>
       </c>
       <c r="C78" s="6" t="n"/>
@@ -6098,44 +6102,44 @@
       <c r="AD78" s="6" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="n"/>
-      <c r="B79" s="8" t="n"/>
-      <c r="C79" s="2" t="n"/>
-      <c r="D79" s="2" t="n"/>
-      <c r="E79" s="2" t="n"/>
-      <c r="F79" s="2" t="n"/>
-      <c r="G79" s="2" t="n"/>
-      <c r="H79" s="2" t="n"/>
-      <c r="I79" s="2" t="n"/>
-      <c r="J79" s="2" t="n"/>
-      <c r="K79" s="2" t="n"/>
-      <c r="L79" s="2" t="n"/>
-      <c r="M79" s="2" t="n"/>
-      <c r="N79" s="2" t="n"/>
-      <c r="O79" s="2" t="n"/>
-      <c r="P79" s="2" t="n"/>
-      <c r="Q79" s="2" t="n"/>
-      <c r="R79" s="2" t="n"/>
-      <c r="S79" s="2" t="n"/>
-      <c r="T79" s="2" t="n"/>
-      <c r="U79" s="2" t="n"/>
-      <c r="V79" s="2" t="n"/>
-      <c r="W79" s="2" t="n"/>
-      <c r="X79" s="2" t="n"/>
-      <c r="Y79" s="2" t="n"/>
-      <c r="Z79" s="2" t="n"/>
-      <c r="AA79" s="2" t="n"/>
-      <c r="AB79" s="2" t="n"/>
-      <c r="AC79" s="2" t="n"/>
-      <c r="AD79" s="2" t="n"/>
+      <c r="A79" s="4" t="inlineStr"/>
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="n"/>
+      <c r="D79" s="6" t="n"/>
+      <c r="E79" s="6" t="n"/>
+      <c r="F79" s="6" t="n"/>
+      <c r="G79" s="6" t="n"/>
+      <c r="H79" s="6" t="n"/>
+      <c r="I79" s="6" t="n"/>
+      <c r="J79" s="6" t="n"/>
+      <c r="K79" s="6" t="n"/>
+      <c r="L79" s="6" t="n"/>
+      <c r="M79" s="6" t="n"/>
+      <c r="N79" s="6" t="n"/>
+      <c r="O79" s="6" t="n"/>
+      <c r="P79" s="6" t="n"/>
+      <c r="Q79" s="6" t="n"/>
+      <c r="R79" s="6" t="n"/>
+      <c r="S79" s="6" t="n"/>
+      <c r="T79" s="6" t="n"/>
+      <c r="U79" s="6" t="n"/>
+      <c r="V79" s="6" t="n"/>
+      <c r="W79" s="6" t="n"/>
+      <c r="X79" s="6" t="n"/>
+      <c r="Y79" s="6" t="n"/>
+      <c r="Z79" s="6" t="n"/>
+      <c r="AA79" s="6" t="n"/>
+      <c r="AB79" s="6" t="n"/>
+      <c r="AC79" s="6" t="n"/>
+      <c r="AD79" s="6" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="10" t="inlineStr">
-        <is>
-          <t>statistical_concept_references</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="n"/>
+      <c r="A80" s="4" t="n"/>
+      <c r="B80" s="8" t="n"/>
       <c r="C80" s="2" t="n"/>
       <c r="D80" s="2" t="n"/>
       <c r="E80" s="2" t="n"/>
@@ -6166,46 +6170,46 @@
       <c r="AD80" s="2" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="inlineStr"/>
-      <c r="B81" s="5" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="C81" s="6" t="n"/>
-      <c r="D81" s="6" t="n"/>
-      <c r="E81" s="6" t="n"/>
-      <c r="F81" s="6" t="n"/>
-      <c r="G81" s="6" t="n"/>
-      <c r="H81" s="6" t="n"/>
-      <c r="I81" s="6" t="n"/>
-      <c r="J81" s="6" t="n"/>
-      <c r="K81" s="6" t="n"/>
-      <c r="L81" s="6" t="n"/>
-      <c r="M81" s="6" t="n"/>
-      <c r="N81" s="6" t="n"/>
-      <c r="O81" s="6" t="n"/>
-      <c r="P81" s="6" t="n"/>
-      <c r="Q81" s="6" t="n"/>
-      <c r="R81" s="6" t="n"/>
-      <c r="S81" s="6" t="n"/>
-      <c r="T81" s="6" t="n"/>
-      <c r="U81" s="6" t="n"/>
-      <c r="V81" s="6" t="n"/>
-      <c r="W81" s="6" t="n"/>
-      <c r="X81" s="6" t="n"/>
-      <c r="Y81" s="6" t="n"/>
-      <c r="Z81" s="6" t="n"/>
-      <c r="AA81" s="6" t="n"/>
-      <c r="AB81" s="6" t="n"/>
-      <c r="AC81" s="6" t="n"/>
-      <c r="AD81" s="6" t="n"/>
+      <c r="A81" s="10" t="inlineStr">
+        <is>
+          <t>statistical_concept_references</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n"/>
+      <c r="C81" s="2" t="n"/>
+      <c r="D81" s="2" t="n"/>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+      <c r="G81" s="2" t="n"/>
+      <c r="H81" s="2" t="n"/>
+      <c r="I81" s="2" t="n"/>
+      <c r="J81" s="2" t="n"/>
+      <c r="K81" s="2" t="n"/>
+      <c r="L81" s="2" t="n"/>
+      <c r="M81" s="2" t="n"/>
+      <c r="N81" s="2" t="n"/>
+      <c r="O81" s="2" t="n"/>
+      <c r="P81" s="2" t="n"/>
+      <c r="Q81" s="2" t="n"/>
+      <c r="R81" s="2" t="n"/>
+      <c r="S81" s="2" t="n"/>
+      <c r="T81" s="2" t="n"/>
+      <c r="U81" s="2" t="n"/>
+      <c r="V81" s="2" t="n"/>
+      <c r="W81" s="2" t="n"/>
+      <c r="X81" s="2" t="n"/>
+      <c r="Y81" s="2" t="n"/>
+      <c r="Z81" s="2" t="n"/>
+      <c r="AA81" s="2" t="n"/>
+      <c r="AB81" s="2" t="n"/>
+      <c r="AC81" s="2" t="n"/>
+      <c r="AD81" s="2" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr"/>
       <c r="B82" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>source</t>
         </is>
       </c>
       <c r="C82" s="6" t="n"/>
@@ -6241,7 +6245,7 @@
       <c r="A83" s="4" t="inlineStr"/>
       <c r="B83" s="5" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>uri</t>
         </is>
       </c>
       <c r="C83" s="6" t="n"/>
@@ -6274,44 +6278,44 @@
       <c r="AD83" s="6" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="n"/>
-      <c r="B84" s="8" t="n"/>
-      <c r="C84" s="2" t="n"/>
-      <c r="D84" s="2" t="n"/>
-      <c r="E84" s="2" t="n"/>
-      <c r="F84" s="2" t="n"/>
-      <c r="G84" s="2" t="n"/>
-      <c r="H84" s="2" t="n"/>
-      <c r="I84" s="2" t="n"/>
-      <c r="J84" s="2" t="n"/>
-      <c r="K84" s="2" t="n"/>
-      <c r="L84" s="2" t="n"/>
-      <c r="M84" s="2" t="n"/>
-      <c r="N84" s="2" t="n"/>
-      <c r="O84" s="2" t="n"/>
-      <c r="P84" s="2" t="n"/>
-      <c r="Q84" s="2" t="n"/>
-      <c r="R84" s="2" t="n"/>
-      <c r="S84" s="2" t="n"/>
-      <c r="T84" s="2" t="n"/>
-      <c r="U84" s="2" t="n"/>
-      <c r="V84" s="2" t="n"/>
-      <c r="W84" s="2" t="n"/>
-      <c r="X84" s="2" t="n"/>
-      <c r="Y84" s="2" t="n"/>
-      <c r="Z84" s="2" t="n"/>
-      <c r="AA84" s="2" t="n"/>
-      <c r="AB84" s="2" t="n"/>
-      <c r="AC84" s="2" t="n"/>
-      <c r="AD84" s="2" t="n"/>
+      <c r="A84" s="4" t="inlineStr"/>
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="C84" s="6" t="n"/>
+      <c r="D84" s="6" t="n"/>
+      <c r="E84" s="6" t="n"/>
+      <c r="F84" s="6" t="n"/>
+      <c r="G84" s="6" t="n"/>
+      <c r="H84" s="6" t="n"/>
+      <c r="I84" s="6" t="n"/>
+      <c r="J84" s="6" t="n"/>
+      <c r="K84" s="6" t="n"/>
+      <c r="L84" s="6" t="n"/>
+      <c r="M84" s="6" t="n"/>
+      <c r="N84" s="6" t="n"/>
+      <c r="O84" s="6" t="n"/>
+      <c r="P84" s="6" t="n"/>
+      <c r="Q84" s="6" t="n"/>
+      <c r="R84" s="6" t="n"/>
+      <c r="S84" s="6" t="n"/>
+      <c r="T84" s="6" t="n"/>
+      <c r="U84" s="6" t="n"/>
+      <c r="V84" s="6" t="n"/>
+      <c r="W84" s="6" t="n"/>
+      <c r="X84" s="6" t="n"/>
+      <c r="Y84" s="6" t="n"/>
+      <c r="Z84" s="6" t="n"/>
+      <c r="AA84" s="6" t="n"/>
+      <c r="AB84" s="6" t="n"/>
+      <c r="AC84" s="6" t="n"/>
+      <c r="AD84" s="6" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="10" t="inlineStr">
-        <is>
-          <t>concepts</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="n"/>
+      <c r="A85" s="4" t="n"/>
+      <c r="B85" s="8" t="n"/>
       <c r="C85" s="2" t="n"/>
       <c r="D85" s="2" t="n"/>
       <c r="E85" s="2" t="n"/>
@@ -6342,49 +6346,49 @@
       <c r="AD85" s="2" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="inlineStr"/>
-      <c r="B86" s="5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C86" s="6" t="inlineStr"/>
-      <c r="D86" s="6" t="n"/>
-      <c r="E86" s="6" t="n"/>
-      <c r="F86" s="6" t="n"/>
-      <c r="G86" s="6" t="n"/>
-      <c r="H86" s="6" t="n"/>
-      <c r="I86" s="6" t="n"/>
-      <c r="J86" s="6" t="n"/>
-      <c r="K86" s="6" t="n"/>
-      <c r="L86" s="6" t="n"/>
-      <c r="M86" s="6" t="n"/>
-      <c r="N86" s="6" t="n"/>
-      <c r="O86" s="6" t="n"/>
-      <c r="P86" s="6" t="n"/>
-      <c r="Q86" s="6" t="n"/>
-      <c r="R86" s="6" t="n"/>
-      <c r="S86" s="6" t="n"/>
-      <c r="T86" s="6" t="n"/>
-      <c r="U86" s="6" t="n"/>
-      <c r="V86" s="6" t="n"/>
-      <c r="W86" s="6" t="n"/>
-      <c r="X86" s="6" t="n"/>
-      <c r="Y86" s="6" t="n"/>
-      <c r="Z86" s="6" t="n"/>
-      <c r="AA86" s="6" t="n"/>
-      <c r="AB86" s="6" t="n"/>
-      <c r="AC86" s="6" t="n"/>
-      <c r="AD86" s="6" t="n"/>
+      <c r="A86" s="10" t="inlineStr">
+        <is>
+          <t>concepts</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n"/>
+      <c r="C86" s="2" t="n"/>
+      <c r="D86" s="2" t="n"/>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+      <c r="G86" s="2" t="n"/>
+      <c r="H86" s="2" t="n"/>
+      <c r="I86" s="2" t="n"/>
+      <c r="J86" s="2" t="n"/>
+      <c r="K86" s="2" t="n"/>
+      <c r="L86" s="2" t="n"/>
+      <c r="M86" s="2" t="n"/>
+      <c r="N86" s="2" t="n"/>
+      <c r="O86" s="2" t="n"/>
+      <c r="P86" s="2" t="n"/>
+      <c r="Q86" s="2" t="n"/>
+      <c r="R86" s="2" t="n"/>
+      <c r="S86" s="2" t="n"/>
+      <c r="T86" s="2" t="n"/>
+      <c r="U86" s="2" t="n"/>
+      <c r="V86" s="2" t="n"/>
+      <c r="W86" s="2" t="n"/>
+      <c r="X86" s="2" t="n"/>
+      <c r="Y86" s="2" t="n"/>
+      <c r="Z86" s="2" t="n"/>
+      <c r="AA86" s="2" t="n"/>
+      <c r="AB86" s="2" t="n"/>
+      <c r="AC86" s="2" t="n"/>
+      <c r="AD86" s="2" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr"/>
       <c r="B87" s="5" t="inlineStr">
         <is>
-          <t>definition</t>
-        </is>
-      </c>
-      <c r="C87" s="6" t="n"/>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr"/>
       <c r="D87" s="6" t="n"/>
       <c r="E87" s="6" t="n"/>
       <c r="F87" s="6" t="n"/>
@@ -6417,7 +6421,7 @@
       <c r="A88" s="4" t="inlineStr"/>
       <c r="B88" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="C88" s="6" t="n"/>
@@ -6450,44 +6454,44 @@
       <c r="AD88" s="6" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="n"/>
-      <c r="B89" s="8" t="n"/>
-      <c r="C89" s="2" t="n"/>
-      <c r="D89" s="2" t="n"/>
-      <c r="E89" s="2" t="n"/>
-      <c r="F89" s="2" t="n"/>
-      <c r="G89" s="2" t="n"/>
-      <c r="H89" s="2" t="n"/>
-      <c r="I89" s="2" t="n"/>
-      <c r="J89" s="2" t="n"/>
-      <c r="K89" s="2" t="n"/>
-      <c r="L89" s="2" t="n"/>
-      <c r="M89" s="2" t="n"/>
-      <c r="N89" s="2" t="n"/>
-      <c r="O89" s="2" t="n"/>
-      <c r="P89" s="2" t="n"/>
-      <c r="Q89" s="2" t="n"/>
-      <c r="R89" s="2" t="n"/>
-      <c r="S89" s="2" t="n"/>
-      <c r="T89" s="2" t="n"/>
-      <c r="U89" s="2" t="n"/>
-      <c r="V89" s="2" t="n"/>
-      <c r="W89" s="2" t="n"/>
-      <c r="X89" s="2" t="n"/>
-      <c r="Y89" s="2" t="n"/>
-      <c r="Z89" s="2" t="n"/>
-      <c r="AA89" s="2" t="n"/>
-      <c r="AB89" s="2" t="n"/>
-      <c r="AC89" s="2" t="n"/>
-      <c r="AD89" s="2" t="n"/>
+      <c r="A89" s="4" t="inlineStr"/>
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C89" s="6" t="n"/>
+      <c r="D89" s="6" t="n"/>
+      <c r="E89" s="6" t="n"/>
+      <c r="F89" s="6" t="n"/>
+      <c r="G89" s="6" t="n"/>
+      <c r="H89" s="6" t="n"/>
+      <c r="I89" s="6" t="n"/>
+      <c r="J89" s="6" t="n"/>
+      <c r="K89" s="6" t="n"/>
+      <c r="L89" s="6" t="n"/>
+      <c r="M89" s="6" t="n"/>
+      <c r="N89" s="6" t="n"/>
+      <c r="O89" s="6" t="n"/>
+      <c r="P89" s="6" t="n"/>
+      <c r="Q89" s="6" t="n"/>
+      <c r="R89" s="6" t="n"/>
+      <c r="S89" s="6" t="n"/>
+      <c r="T89" s="6" t="n"/>
+      <c r="U89" s="6" t="n"/>
+      <c r="V89" s="6" t="n"/>
+      <c r="W89" s="6" t="n"/>
+      <c r="X89" s="6" t="n"/>
+      <c r="Y89" s="6" t="n"/>
+      <c r="Z89" s="6" t="n"/>
+      <c r="AA89" s="6" t="n"/>
+      <c r="AB89" s="6" t="n"/>
+      <c r="AC89" s="6" t="n"/>
+      <c r="AD89" s="6" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="10" t="inlineStr">
-        <is>
-          <t>data_collection</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="n"/>
+      <c r="A90" s="4" t="n"/>
+      <c r="B90" s="8" t="n"/>
       <c r="C90" s="2" t="n"/>
       <c r="D90" s="2" t="n"/>
       <c r="E90" s="2" t="n"/>
@@ -6518,13 +6522,13 @@
       <c r="AD90" s="2" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="inlineStr"/>
-      <c r="B91" s="5" t="inlineStr">
-        <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="C91" s="6" t="n"/>
+      <c r="A91" s="10" t="inlineStr">
+        <is>
+          <t>data_collection</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n"/>
+      <c r="C91" s="2" t="n"/>
       <c r="D91" s="2" t="n"/>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -6557,7 +6561,7 @@
       <c r="A92" s="4" t="inlineStr"/>
       <c r="B92" s="5" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>data_source</t>
         </is>
       </c>
       <c r="C92" s="6" t="n"/>
@@ -6593,7 +6597,7 @@
       <c r="A93" s="4" t="inlineStr"/>
       <c r="B93" s="5" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>method</t>
         </is>
       </c>
       <c r="C93" s="6" t="n"/>
@@ -6629,7 +6633,7 @@
       <c r="A94" s="4" t="inlineStr"/>
       <c r="B94" s="5" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>period</t>
         </is>
       </c>
       <c r="C94" s="6" t="n"/>
@@ -6665,7 +6669,7 @@
       <c r="A95" s="4" t="inlineStr"/>
       <c r="B95" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>note</t>
         </is>
       </c>
       <c r="C95" s="6" t="n"/>
@@ -6698,9 +6702,13 @@
       <c r="AD95" s="2" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="n"/>
-      <c r="B96" s="8" t="n"/>
-      <c r="C96" s="2" t="n"/>
+      <c r="A96" s="4" t="inlineStr"/>
+      <c r="B96" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C96" s="6" t="n"/>
       <c r="D96" s="2" t="n"/>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -6730,12 +6738,8 @@
       <c r="AD96" s="2" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="10" t="inlineStr">
-        <is>
-          <t>methodology_references</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="n"/>
+      <c r="A97" s="4" t="n"/>
+      <c r="B97" s="8" t="n"/>
       <c r="C97" s="2" t="n"/>
       <c r="D97" s="2" t="n"/>
       <c r="E97" s="2" t="n"/>
@@ -6766,46 +6770,46 @@
       <c r="AD97" s="2" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="inlineStr"/>
-      <c r="B98" s="5" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="C98" s="6" t="n"/>
-      <c r="D98" s="6" t="n"/>
-      <c r="E98" s="6" t="n"/>
-      <c r="F98" s="6" t="n"/>
-      <c r="G98" s="6" t="n"/>
-      <c r="H98" s="6" t="n"/>
-      <c r="I98" s="6" t="n"/>
-      <c r="J98" s="6" t="n"/>
-      <c r="K98" s="6" t="n"/>
-      <c r="L98" s="6" t="n"/>
-      <c r="M98" s="6" t="n"/>
-      <c r="N98" s="6" t="n"/>
-      <c r="O98" s="6" t="n"/>
-      <c r="P98" s="6" t="n"/>
-      <c r="Q98" s="6" t="n"/>
-      <c r="R98" s="6" t="n"/>
-      <c r="S98" s="6" t="n"/>
-      <c r="T98" s="6" t="n"/>
-      <c r="U98" s="6" t="n"/>
-      <c r="V98" s="6" t="n"/>
-      <c r="W98" s="6" t="n"/>
-      <c r="X98" s="6" t="n"/>
-      <c r="Y98" s="6" t="n"/>
-      <c r="Z98" s="6" t="n"/>
-      <c r="AA98" s="6" t="n"/>
-      <c r="AB98" s="6" t="n"/>
-      <c r="AC98" s="6" t="n"/>
-      <c r="AD98" s="6" t="n"/>
+      <c r="A98" s="10" t="inlineStr">
+        <is>
+          <t>methodology_references</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n"/>
+      <c r="C98" s="2" t="n"/>
+      <c r="D98" s="2" t="n"/>
+      <c r="E98" s="2" t="n"/>
+      <c r="F98" s="2" t="n"/>
+      <c r="G98" s="2" t="n"/>
+      <c r="H98" s="2" t="n"/>
+      <c r="I98" s="2" t="n"/>
+      <c r="J98" s="2" t="n"/>
+      <c r="K98" s="2" t="n"/>
+      <c r="L98" s="2" t="n"/>
+      <c r="M98" s="2" t="n"/>
+      <c r="N98" s="2" t="n"/>
+      <c r="O98" s="2" t="n"/>
+      <c r="P98" s="2" t="n"/>
+      <c r="Q98" s="2" t="n"/>
+      <c r="R98" s="2" t="n"/>
+      <c r="S98" s="2" t="n"/>
+      <c r="T98" s="2" t="n"/>
+      <c r="U98" s="2" t="n"/>
+      <c r="V98" s="2" t="n"/>
+      <c r="W98" s="2" t="n"/>
+      <c r="X98" s="2" t="n"/>
+      <c r="Y98" s="2" t="n"/>
+      <c r="Z98" s="2" t="n"/>
+      <c r="AA98" s="2" t="n"/>
+      <c r="AB98" s="2" t="n"/>
+      <c r="AC98" s="2" t="n"/>
+      <c r="AD98" s="2" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr"/>
       <c r="B99" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>source</t>
         </is>
       </c>
       <c r="C99" s="6" t="n"/>
@@ -6841,7 +6845,7 @@
       <c r="A100" s="4" t="inlineStr"/>
       <c r="B100" s="5" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>uri</t>
         </is>
       </c>
       <c r="C100" s="6" t="n"/>
@@ -6874,44 +6878,44 @@
       <c r="AD100" s="6" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="4" t="n"/>
-      <c r="B101" s="8" t="n"/>
-      <c r="C101" s="2" t="n"/>
-      <c r="D101" s="2" t="n"/>
-      <c r="E101" s="2" t="n"/>
-      <c r="F101" s="2" t="n"/>
-      <c r="G101" s="2" t="n"/>
-      <c r="H101" s="2" t="n"/>
-      <c r="I101" s="2" t="n"/>
-      <c r="J101" s="2" t="n"/>
-      <c r="K101" s="2" t="n"/>
-      <c r="L101" s="2" t="n"/>
-      <c r="M101" s="2" t="n"/>
-      <c r="N101" s="2" t="n"/>
-      <c r="O101" s="2" t="n"/>
-      <c r="P101" s="2" t="n"/>
-      <c r="Q101" s="2" t="n"/>
-      <c r="R101" s="2" t="n"/>
-      <c r="S101" s="2" t="n"/>
-      <c r="T101" s="2" t="n"/>
-      <c r="U101" s="2" t="n"/>
-      <c r="V101" s="2" t="n"/>
-      <c r="W101" s="2" t="n"/>
-      <c r="X101" s="2" t="n"/>
-      <c r="Y101" s="2" t="n"/>
-      <c r="Z101" s="2" t="n"/>
-      <c r="AA101" s="2" t="n"/>
-      <c r="AB101" s="2" t="n"/>
-      <c r="AC101" s="2" t="n"/>
-      <c r="AD101" s="2" t="n"/>
+      <c r="A101" s="4" t="inlineStr"/>
+      <c r="B101" s="5" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="C101" s="6" t="n"/>
+      <c r="D101" s="6" t="n"/>
+      <c r="E101" s="6" t="n"/>
+      <c r="F101" s="6" t="n"/>
+      <c r="G101" s="6" t="n"/>
+      <c r="H101" s="6" t="n"/>
+      <c r="I101" s="6" t="n"/>
+      <c r="J101" s="6" t="n"/>
+      <c r="K101" s="6" t="n"/>
+      <c r="L101" s="6" t="n"/>
+      <c r="M101" s="6" t="n"/>
+      <c r="N101" s="6" t="n"/>
+      <c r="O101" s="6" t="n"/>
+      <c r="P101" s="6" t="n"/>
+      <c r="Q101" s="6" t="n"/>
+      <c r="R101" s="6" t="n"/>
+      <c r="S101" s="6" t="n"/>
+      <c r="T101" s="6" t="n"/>
+      <c r="U101" s="6" t="n"/>
+      <c r="V101" s="6" t="n"/>
+      <c r="W101" s="6" t="n"/>
+      <c r="X101" s="6" t="n"/>
+      <c r="Y101" s="6" t="n"/>
+      <c r="Z101" s="6" t="n"/>
+      <c r="AA101" s="6" t="n"/>
+      <c r="AB101" s="6" t="n"/>
+      <c r="AC101" s="6" t="n"/>
+      <c r="AD101" s="6" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="10" t="inlineStr">
-        <is>
-          <t>derivation_references</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="n"/>
+      <c r="A102" s="4" t="n"/>
+      <c r="B102" s="8" t="n"/>
       <c r="C102" s="2" t="n"/>
       <c r="D102" s="2" t="n"/>
       <c r="E102" s="2" t="n"/>
@@ -6942,46 +6946,46 @@
       <c r="AD102" s="2" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="4" t="inlineStr"/>
-      <c r="B103" s="5" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="C103" s="6" t="n"/>
-      <c r="D103" s="6" t="n"/>
-      <c r="E103" s="6" t="n"/>
-      <c r="F103" s="6" t="n"/>
-      <c r="G103" s="6" t="n"/>
-      <c r="H103" s="6" t="n"/>
-      <c r="I103" s="6" t="n"/>
-      <c r="J103" s="6" t="n"/>
-      <c r="K103" s="6" t="n"/>
-      <c r="L103" s="6" t="n"/>
-      <c r="M103" s="6" t="n"/>
-      <c r="N103" s="6" t="n"/>
-      <c r="O103" s="6" t="n"/>
-      <c r="P103" s="6" t="n"/>
-      <c r="Q103" s="6" t="n"/>
-      <c r="R103" s="6" t="n"/>
-      <c r="S103" s="6" t="n"/>
-      <c r="T103" s="6" t="n"/>
-      <c r="U103" s="6" t="n"/>
-      <c r="V103" s="6" t="n"/>
-      <c r="W103" s="6" t="n"/>
-      <c r="X103" s="6" t="n"/>
-      <c r="Y103" s="6" t="n"/>
-      <c r="Z103" s="6" t="n"/>
-      <c r="AA103" s="6" t="n"/>
-      <c r="AB103" s="6" t="n"/>
-      <c r="AC103" s="6" t="n"/>
-      <c r="AD103" s="6" t="n"/>
+      <c r="A103" s="10" t="inlineStr">
+        <is>
+          <t>derivation_references</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n"/>
+      <c r="C103" s="2" t="n"/>
+      <c r="D103" s="2" t="n"/>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+      <c r="H103" s="2" t="n"/>
+      <c r="I103" s="2" t="n"/>
+      <c r="J103" s="2" t="n"/>
+      <c r="K103" s="2" t="n"/>
+      <c r="L103" s="2" t="n"/>
+      <c r="M103" s="2" t="n"/>
+      <c r="N103" s="2" t="n"/>
+      <c r="O103" s="2" t="n"/>
+      <c r="P103" s="2" t="n"/>
+      <c r="Q103" s="2" t="n"/>
+      <c r="R103" s="2" t="n"/>
+      <c r="S103" s="2" t="n"/>
+      <c r="T103" s="2" t="n"/>
+      <c r="U103" s="2" t="n"/>
+      <c r="V103" s="2" t="n"/>
+      <c r="W103" s="2" t="n"/>
+      <c r="X103" s="2" t="n"/>
+      <c r="Y103" s="2" t="n"/>
+      <c r="Z103" s="2" t="n"/>
+      <c r="AA103" s="2" t="n"/>
+      <c r="AB103" s="2" t="n"/>
+      <c r="AC103" s="2" t="n"/>
+      <c r="AD103" s="2" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr"/>
       <c r="B104" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>source</t>
         </is>
       </c>
       <c r="C104" s="6" t="n"/>
@@ -7017,7 +7021,7 @@
       <c r="A105" s="4" t="inlineStr"/>
       <c r="B105" s="5" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>uri</t>
         </is>
       </c>
       <c r="C105" s="6" t="n"/>
@@ -7050,44 +7054,44 @@
       <c r="AD105" s="6" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="4" t="n"/>
-      <c r="B106" s="8" t="n"/>
-      <c r="C106" s="2" t="n"/>
-      <c r="D106" s="2" t="n"/>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-      <c r="H106" s="2" t="n"/>
-      <c r="I106" s="2" t="n"/>
-      <c r="J106" s="2" t="n"/>
-      <c r="K106" s="2" t="n"/>
-      <c r="L106" s="2" t="n"/>
-      <c r="M106" s="2" t="n"/>
-      <c r="N106" s="2" t="n"/>
-      <c r="O106" s="2" t="n"/>
-      <c r="P106" s="2" t="n"/>
-      <c r="Q106" s="2" t="n"/>
-      <c r="R106" s="2" t="n"/>
-      <c r="S106" s="2" t="n"/>
-      <c r="T106" s="2" t="n"/>
-      <c r="U106" s="2" t="n"/>
-      <c r="V106" s="2" t="n"/>
-      <c r="W106" s="2" t="n"/>
-      <c r="X106" s="2" t="n"/>
-      <c r="Y106" s="2" t="n"/>
-      <c r="Z106" s="2" t="n"/>
-      <c r="AA106" s="2" t="n"/>
-      <c r="AB106" s="2" t="n"/>
-      <c r="AC106" s="2" t="n"/>
-      <c r="AD106" s="2" t="n"/>
+      <c r="A106" s="4" t="inlineStr"/>
+      <c r="B106" s="5" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="C106" s="6" t="n"/>
+      <c r="D106" s="6" t="n"/>
+      <c r="E106" s="6" t="n"/>
+      <c r="F106" s="6" t="n"/>
+      <c r="G106" s="6" t="n"/>
+      <c r="H106" s="6" t="n"/>
+      <c r="I106" s="6" t="n"/>
+      <c r="J106" s="6" t="n"/>
+      <c r="K106" s="6" t="n"/>
+      <c r="L106" s="6" t="n"/>
+      <c r="M106" s="6" t="n"/>
+      <c r="N106" s="6" t="n"/>
+      <c r="O106" s="6" t="n"/>
+      <c r="P106" s="6" t="n"/>
+      <c r="Q106" s="6" t="n"/>
+      <c r="R106" s="6" t="n"/>
+      <c r="S106" s="6" t="n"/>
+      <c r="T106" s="6" t="n"/>
+      <c r="U106" s="6" t="n"/>
+      <c r="V106" s="6" t="n"/>
+      <c r="W106" s="6" t="n"/>
+      <c r="X106" s="6" t="n"/>
+      <c r="Y106" s="6" t="n"/>
+      <c r="Z106" s="6" t="n"/>
+      <c r="AA106" s="6" t="n"/>
+      <c r="AB106" s="6" t="n"/>
+      <c r="AC106" s="6" t="n"/>
+      <c r="AD106" s="6" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="10" t="inlineStr">
-        <is>
-          <t>imputation_references</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="n"/>
+      <c r="A107" s="4" t="n"/>
+      <c r="B107" s="8" t="n"/>
       <c r="C107" s="2" t="n"/>
       <c r="D107" s="2" t="n"/>
       <c r="E107" s="2" t="n"/>
@@ -7118,46 +7122,46 @@
       <c r="AD107" s="2" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="4" t="inlineStr"/>
-      <c r="B108" s="5" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="C108" s="6" t="n"/>
-      <c r="D108" s="6" t="n"/>
-      <c r="E108" s="6" t="n"/>
-      <c r="F108" s="6" t="n"/>
-      <c r="G108" s="6" t="n"/>
-      <c r="H108" s="6" t="n"/>
-      <c r="I108" s="6" t="n"/>
-      <c r="J108" s="6" t="n"/>
-      <c r="K108" s="6" t="n"/>
-      <c r="L108" s="6" t="n"/>
-      <c r="M108" s="6" t="n"/>
-      <c r="N108" s="6" t="n"/>
-      <c r="O108" s="6" t="n"/>
-      <c r="P108" s="6" t="n"/>
-      <c r="Q108" s="6" t="n"/>
-      <c r="R108" s="6" t="n"/>
-      <c r="S108" s="6" t="n"/>
-      <c r="T108" s="6" t="n"/>
-      <c r="U108" s="6" t="n"/>
-      <c r="V108" s="6" t="n"/>
-      <c r="W108" s="6" t="n"/>
-      <c r="X108" s="6" t="n"/>
-      <c r="Y108" s="6" t="n"/>
-      <c r="Z108" s="6" t="n"/>
-      <c r="AA108" s="6" t="n"/>
-      <c r="AB108" s="6" t="n"/>
-      <c r="AC108" s="6" t="n"/>
-      <c r="AD108" s="6" t="n"/>
+      <c r="A108" s="10" t="inlineStr">
+        <is>
+          <t>imputation_references</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n"/>
+      <c r="C108" s="2" t="n"/>
+      <c r="D108" s="2" t="n"/>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+      <c r="H108" s="2" t="n"/>
+      <c r="I108" s="2" t="n"/>
+      <c r="J108" s="2" t="n"/>
+      <c r="K108" s="2" t="n"/>
+      <c r="L108" s="2" t="n"/>
+      <c r="M108" s="2" t="n"/>
+      <c r="N108" s="2" t="n"/>
+      <c r="O108" s="2" t="n"/>
+      <c r="P108" s="2" t="n"/>
+      <c r="Q108" s="2" t="n"/>
+      <c r="R108" s="2" t="n"/>
+      <c r="S108" s="2" t="n"/>
+      <c r="T108" s="2" t="n"/>
+      <c r="U108" s="2" t="n"/>
+      <c r="V108" s="2" t="n"/>
+      <c r="W108" s="2" t="n"/>
+      <c r="X108" s="2" t="n"/>
+      <c r="Y108" s="2" t="n"/>
+      <c r="Z108" s="2" t="n"/>
+      <c r="AA108" s="2" t="n"/>
+      <c r="AB108" s="2" t="n"/>
+      <c r="AC108" s="2" t="n"/>
+      <c r="AD108" s="2" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr"/>
       <c r="B109" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>source</t>
         </is>
       </c>
       <c r="C109" s="6" t="n"/>
@@ -7193,7 +7197,7 @@
       <c r="A110" s="4" t="inlineStr"/>
       <c r="B110" s="5" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>uri</t>
         </is>
       </c>
       <c r="C110" s="6" t="n"/>
@@ -7226,44 +7230,44 @@
       <c r="AD110" s="6" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="4" t="n"/>
-      <c r="B111" s="8" t="n"/>
-      <c r="C111" s="2" t="n"/>
-      <c r="D111" s="2" t="n"/>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-      <c r="H111" s="2" t="n"/>
-      <c r="I111" s="2" t="n"/>
-      <c r="J111" s="2" t="n"/>
-      <c r="K111" s="2" t="n"/>
-      <c r="L111" s="2" t="n"/>
-      <c r="M111" s="2" t="n"/>
-      <c r="N111" s="2" t="n"/>
-      <c r="O111" s="2" t="n"/>
-      <c r="P111" s="2" t="n"/>
-      <c r="Q111" s="2" t="n"/>
-      <c r="R111" s="2" t="n"/>
-      <c r="S111" s="2" t="n"/>
-      <c r="T111" s="2" t="n"/>
-      <c r="U111" s="2" t="n"/>
-      <c r="V111" s="2" t="n"/>
-      <c r="W111" s="2" t="n"/>
-      <c r="X111" s="2" t="n"/>
-      <c r="Y111" s="2" t="n"/>
-      <c r="Z111" s="2" t="n"/>
-      <c r="AA111" s="2" t="n"/>
-      <c r="AB111" s="2" t="n"/>
-      <c r="AC111" s="2" t="n"/>
-      <c r="AD111" s="2" t="n"/>
+      <c r="A111" s="4" t="inlineStr"/>
+      <c r="B111" s="5" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="C111" s="6" t="n"/>
+      <c r="D111" s="6" t="n"/>
+      <c r="E111" s="6" t="n"/>
+      <c r="F111" s="6" t="n"/>
+      <c r="G111" s="6" t="n"/>
+      <c r="H111" s="6" t="n"/>
+      <c r="I111" s="6" t="n"/>
+      <c r="J111" s="6" t="n"/>
+      <c r="K111" s="6" t="n"/>
+      <c r="L111" s="6" t="n"/>
+      <c r="M111" s="6" t="n"/>
+      <c r="N111" s="6" t="n"/>
+      <c r="O111" s="6" t="n"/>
+      <c r="P111" s="6" t="n"/>
+      <c r="Q111" s="6" t="n"/>
+      <c r="R111" s="6" t="n"/>
+      <c r="S111" s="6" t="n"/>
+      <c r="T111" s="6" t="n"/>
+      <c r="U111" s="6" t="n"/>
+      <c r="V111" s="6" t="n"/>
+      <c r="W111" s="6" t="n"/>
+      <c r="X111" s="6" t="n"/>
+      <c r="Y111" s="6" t="n"/>
+      <c r="Z111" s="6" t="n"/>
+      <c r="AA111" s="6" t="n"/>
+      <c r="AB111" s="6" t="n"/>
+      <c r="AC111" s="6" t="n"/>
+      <c r="AD111" s="6" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="10" t="inlineStr">
-        <is>
-          <t>themes</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="n"/>
+      <c r="A112" s="4" t="n"/>
+      <c r="B112" s="8" t="n"/>
       <c r="C112" s="2" t="n"/>
       <c r="D112" s="2" t="n"/>
       <c r="E112" s="2" t="n"/>
@@ -7294,49 +7298,49 @@
       <c r="AD112" s="2" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="4" t="inlineStr"/>
-      <c r="B113" s="5" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C113" s="6" t="n"/>
-      <c r="D113" s="6" t="n"/>
-      <c r="E113" s="6" t="n"/>
-      <c r="F113" s="6" t="n"/>
-      <c r="G113" s="6" t="n"/>
-      <c r="H113" s="6" t="n"/>
-      <c r="I113" s="6" t="n"/>
-      <c r="J113" s="6" t="n"/>
-      <c r="K113" s="6" t="n"/>
-      <c r="L113" s="6" t="n"/>
-      <c r="M113" s="6" t="n"/>
-      <c r="N113" s="6" t="n"/>
-      <c r="O113" s="6" t="n"/>
-      <c r="P113" s="6" t="n"/>
-      <c r="Q113" s="6" t="n"/>
-      <c r="R113" s="6" t="n"/>
-      <c r="S113" s="6" t="n"/>
-      <c r="T113" s="6" t="n"/>
-      <c r="U113" s="6" t="n"/>
-      <c r="V113" s="6" t="n"/>
-      <c r="W113" s="6" t="n"/>
-      <c r="X113" s="6" t="n"/>
-      <c r="Y113" s="6" t="n"/>
-      <c r="Z113" s="6" t="n"/>
-      <c r="AA113" s="6" t="n"/>
-      <c r="AB113" s="6" t="n"/>
-      <c r="AC113" s="6" t="n"/>
-      <c r="AD113" s="6" t="n"/>
+      <c r="A113" s="10" t="inlineStr">
+        <is>
+          <t>themes</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n"/>
+      <c r="C113" s="2" t="n"/>
+      <c r="D113" s="2" t="n"/>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+      <c r="H113" s="2" t="n"/>
+      <c r="I113" s="2" t="n"/>
+      <c r="J113" s="2" t="n"/>
+      <c r="K113" s="2" t="n"/>
+      <c r="L113" s="2" t="n"/>
+      <c r="M113" s="2" t="n"/>
+      <c r="N113" s="2" t="n"/>
+      <c r="O113" s="2" t="n"/>
+      <c r="P113" s="2" t="n"/>
+      <c r="Q113" s="2" t="n"/>
+      <c r="R113" s="2" t="n"/>
+      <c r="S113" s="2" t="n"/>
+      <c r="T113" s="2" t="n"/>
+      <c r="U113" s="2" t="n"/>
+      <c r="V113" s="2" t="n"/>
+      <c r="W113" s="2" t="n"/>
+      <c r="X113" s="2" t="n"/>
+      <c r="Y113" s="2" t="n"/>
+      <c r="Z113" s="2" t="n"/>
+      <c r="AA113" s="2" t="n"/>
+      <c r="AB113" s="2" t="n"/>
+      <c r="AC113" s="2" t="n"/>
+      <c r="AD113" s="2" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="4" t="inlineStr"/>
       <c r="B114" s="5" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C114" s="6" t="inlineStr"/>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C114" s="6" t="n"/>
       <c r="D114" s="6" t="n"/>
       <c r="E114" s="6" t="n"/>
       <c r="F114" s="6" t="n"/>
@@ -7369,10 +7373,10 @@
       <c r="A115" s="4" t="inlineStr"/>
       <c r="B115" s="5" t="inlineStr">
         <is>
-          <t>parent_id</t>
-        </is>
-      </c>
-      <c r="C115" s="6" t="n"/>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C115" s="6" t="inlineStr"/>
       <c r="D115" s="6" t="n"/>
       <c r="E115" s="6" t="n"/>
       <c r="F115" s="6" t="n"/>
@@ -7405,7 +7409,7 @@
       <c r="A116" s="4" t="inlineStr"/>
       <c r="B116" s="5" t="inlineStr">
         <is>
-          <t>vocabulary</t>
+          <t>parent_id</t>
         </is>
       </c>
       <c r="C116" s="6" t="n"/>
@@ -7441,7 +7445,7 @@
       <c r="A117" s="4" t="inlineStr"/>
       <c r="B117" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>vocabulary</t>
         </is>
       </c>
       <c r="C117" s="6" t="n"/>
@@ -7474,44 +7478,44 @@
       <c r="AD117" s="6" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="4" t="n"/>
-      <c r="B118" s="8" t="n"/>
-      <c r="C118" s="2" t="n"/>
-      <c r="D118" s="2" t="n"/>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-      <c r="H118" s="2" t="n"/>
-      <c r="I118" s="2" t="n"/>
-      <c r="J118" s="2" t="n"/>
-      <c r="K118" s="2" t="n"/>
-      <c r="L118" s="2" t="n"/>
-      <c r="M118" s="2" t="n"/>
-      <c r="N118" s="2" t="n"/>
-      <c r="O118" s="2" t="n"/>
-      <c r="P118" s="2" t="n"/>
-      <c r="Q118" s="2" t="n"/>
-      <c r="R118" s="2" t="n"/>
-      <c r="S118" s="2" t="n"/>
-      <c r="T118" s="2" t="n"/>
-      <c r="U118" s="2" t="n"/>
-      <c r="V118" s="2" t="n"/>
-      <c r="W118" s="2" t="n"/>
-      <c r="X118" s="2" t="n"/>
-      <c r="Y118" s="2" t="n"/>
-      <c r="Z118" s="2" t="n"/>
-      <c r="AA118" s="2" t="n"/>
-      <c r="AB118" s="2" t="n"/>
-      <c r="AC118" s="2" t="n"/>
-      <c r="AD118" s="2" t="n"/>
+      <c r="A118" s="4" t="inlineStr"/>
+      <c r="B118" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C118" s="6" t="n"/>
+      <c r="D118" s="6" t="n"/>
+      <c r="E118" s="6" t="n"/>
+      <c r="F118" s="6" t="n"/>
+      <c r="G118" s="6" t="n"/>
+      <c r="H118" s="6" t="n"/>
+      <c r="I118" s="6" t="n"/>
+      <c r="J118" s="6" t="n"/>
+      <c r="K118" s="6" t="n"/>
+      <c r="L118" s="6" t="n"/>
+      <c r="M118" s="6" t="n"/>
+      <c r="N118" s="6" t="n"/>
+      <c r="O118" s="6" t="n"/>
+      <c r="P118" s="6" t="n"/>
+      <c r="Q118" s="6" t="n"/>
+      <c r="R118" s="6" t="n"/>
+      <c r="S118" s="6" t="n"/>
+      <c r="T118" s="6" t="n"/>
+      <c r="U118" s="6" t="n"/>
+      <c r="V118" s="6" t="n"/>
+      <c r="W118" s="6" t="n"/>
+      <c r="X118" s="6" t="n"/>
+      <c r="Y118" s="6" t="n"/>
+      <c r="Z118" s="6" t="n"/>
+      <c r="AA118" s="6" t="n"/>
+      <c r="AB118" s="6" t="n"/>
+      <c r="AC118" s="6" t="n"/>
+      <c r="AD118" s="6" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="10" t="inlineStr">
-        <is>
-          <t>topics</t>
-        </is>
-      </c>
-      <c r="B119" s="2" t="n"/>
+      <c r="A119" s="4" t="n"/>
+      <c r="B119" s="8" t="n"/>
       <c r="C119" s="2" t="n"/>
       <c r="D119" s="2" t="n"/>
       <c r="E119" s="2" t="n"/>
@@ -7542,49 +7546,49 @@
       <c r="AD119" s="2" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="inlineStr"/>
-      <c r="B120" s="5" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C120" s="6" t="n"/>
-      <c r="D120" s="6" t="n"/>
-      <c r="E120" s="6" t="n"/>
-      <c r="F120" s="6" t="n"/>
-      <c r="G120" s="6" t="n"/>
-      <c r="H120" s="6" t="n"/>
-      <c r="I120" s="6" t="n"/>
-      <c r="J120" s="6" t="n"/>
-      <c r="K120" s="6" t="n"/>
-      <c r="L120" s="6" t="n"/>
-      <c r="M120" s="6" t="n"/>
-      <c r="N120" s="6" t="n"/>
-      <c r="O120" s="6" t="n"/>
-      <c r="P120" s="6" t="n"/>
-      <c r="Q120" s="6" t="n"/>
-      <c r="R120" s="6" t="n"/>
-      <c r="S120" s="6" t="n"/>
-      <c r="T120" s="6" t="n"/>
-      <c r="U120" s="6" t="n"/>
-      <c r="V120" s="6" t="n"/>
-      <c r="W120" s="6" t="n"/>
-      <c r="X120" s="6" t="n"/>
-      <c r="Y120" s="6" t="n"/>
-      <c r="Z120" s="6" t="n"/>
-      <c r="AA120" s="6" t="n"/>
-      <c r="AB120" s="6" t="n"/>
-      <c r="AC120" s="6" t="n"/>
-      <c r="AD120" s="6" t="n"/>
+      <c r="A120" s="10" t="inlineStr">
+        <is>
+          <t>topics</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n"/>
+      <c r="C120" s="2" t="n"/>
+      <c r="D120" s="2" t="n"/>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+      <c r="H120" s="2" t="n"/>
+      <c r="I120" s="2" t="n"/>
+      <c r="J120" s="2" t="n"/>
+      <c r="K120" s="2" t="n"/>
+      <c r="L120" s="2" t="n"/>
+      <c r="M120" s="2" t="n"/>
+      <c r="N120" s="2" t="n"/>
+      <c r="O120" s="2" t="n"/>
+      <c r="P120" s="2" t="n"/>
+      <c r="Q120" s="2" t="n"/>
+      <c r="R120" s="2" t="n"/>
+      <c r="S120" s="2" t="n"/>
+      <c r="T120" s="2" t="n"/>
+      <c r="U120" s="2" t="n"/>
+      <c r="V120" s="2" t="n"/>
+      <c r="W120" s="2" t="n"/>
+      <c r="X120" s="2" t="n"/>
+      <c r="Y120" s="2" t="n"/>
+      <c r="Z120" s="2" t="n"/>
+      <c r="AA120" s="2" t="n"/>
+      <c r="AB120" s="2" t="n"/>
+      <c r="AC120" s="2" t="n"/>
+      <c r="AD120" s="2" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr"/>
       <c r="B121" s="5" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C121" s="6" t="inlineStr"/>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C121" s="6" t="n"/>
       <c r="D121" s="6" t="n"/>
       <c r="E121" s="6" t="n"/>
       <c r="F121" s="6" t="n"/>
@@ -7617,10 +7621,10 @@
       <c r="A122" s="4" t="inlineStr"/>
       <c r="B122" s="5" t="inlineStr">
         <is>
-          <t>parent_id</t>
-        </is>
-      </c>
-      <c r="C122" s="6" t="n"/>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C122" s="6" t="inlineStr"/>
       <c r="D122" s="6" t="n"/>
       <c r="E122" s="6" t="n"/>
       <c r="F122" s="6" t="n"/>
@@ -7653,7 +7657,7 @@
       <c r="A123" s="4" t="inlineStr"/>
       <c r="B123" s="5" t="inlineStr">
         <is>
-          <t>vocabulary</t>
+          <t>parent_id</t>
         </is>
       </c>
       <c r="C123" s="6" t="n"/>
@@ -7689,7 +7693,7 @@
       <c r="A124" s="4" t="inlineStr"/>
       <c r="B124" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>vocabulary</t>
         </is>
       </c>
       <c r="C124" s="6" t="n"/>
@@ -7722,44 +7726,44 @@
       <c r="AD124" s="6" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" s="4" t="n"/>
-      <c r="B125" s="8" t="n"/>
-      <c r="C125" s="2" t="n"/>
-      <c r="D125" s="2" t="n"/>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-      <c r="H125" s="2" t="n"/>
-      <c r="I125" s="2" t="n"/>
-      <c r="J125" s="2" t="n"/>
-      <c r="K125" s="2" t="n"/>
-      <c r="L125" s="2" t="n"/>
-      <c r="M125" s="2" t="n"/>
-      <c r="N125" s="2" t="n"/>
-      <c r="O125" s="2" t="n"/>
-      <c r="P125" s="2" t="n"/>
-      <c r="Q125" s="2" t="n"/>
-      <c r="R125" s="2" t="n"/>
-      <c r="S125" s="2" t="n"/>
-      <c r="T125" s="2" t="n"/>
-      <c r="U125" s="2" t="n"/>
-      <c r="V125" s="2" t="n"/>
-      <c r="W125" s="2" t="n"/>
-      <c r="X125" s="2" t="n"/>
-      <c r="Y125" s="2" t="n"/>
-      <c r="Z125" s="2" t="n"/>
-      <c r="AA125" s="2" t="n"/>
-      <c r="AB125" s="2" t="n"/>
-      <c r="AC125" s="2" t="n"/>
-      <c r="AD125" s="2" t="n"/>
+      <c r="A125" s="4" t="inlineStr"/>
+      <c r="B125" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C125" s="6" t="n"/>
+      <c r="D125" s="6" t="n"/>
+      <c r="E125" s="6" t="n"/>
+      <c r="F125" s="6" t="n"/>
+      <c r="G125" s="6" t="n"/>
+      <c r="H125" s="6" t="n"/>
+      <c r="I125" s="6" t="n"/>
+      <c r="J125" s="6" t="n"/>
+      <c r="K125" s="6" t="n"/>
+      <c r="L125" s="6" t="n"/>
+      <c r="M125" s="6" t="n"/>
+      <c r="N125" s="6" t="n"/>
+      <c r="O125" s="6" t="n"/>
+      <c r="P125" s="6" t="n"/>
+      <c r="Q125" s="6" t="n"/>
+      <c r="R125" s="6" t="n"/>
+      <c r="S125" s="6" t="n"/>
+      <c r="T125" s="6" t="n"/>
+      <c r="U125" s="6" t="n"/>
+      <c r="V125" s="6" t="n"/>
+      <c r="W125" s="6" t="n"/>
+      <c r="X125" s="6" t="n"/>
+      <c r="Y125" s="6" t="n"/>
+      <c r="Z125" s="6" t="n"/>
+      <c r="AA125" s="6" t="n"/>
+      <c r="AB125" s="6" t="n"/>
+      <c r="AC125" s="6" t="n"/>
+      <c r="AD125" s="6" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="10" t="inlineStr">
-        <is>
-          <t>disciplines</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="n"/>
+      <c r="A126" s="4" t="n"/>
+      <c r="B126" s="8" t="n"/>
       <c r="C126" s="2" t="n"/>
       <c r="D126" s="2" t="n"/>
       <c r="E126" s="2" t="n"/>
@@ -7790,49 +7794,49 @@
       <c r="AD126" s="2" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" s="4" t="inlineStr"/>
-      <c r="B127" s="5" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C127" s="6" t="n"/>
-      <c r="D127" s="6" t="n"/>
-      <c r="E127" s="6" t="n"/>
-      <c r="F127" s="6" t="n"/>
-      <c r="G127" s="6" t="n"/>
-      <c r="H127" s="6" t="n"/>
-      <c r="I127" s="6" t="n"/>
-      <c r="J127" s="6" t="n"/>
-      <c r="K127" s="6" t="n"/>
-      <c r="L127" s="6" t="n"/>
-      <c r="M127" s="6" t="n"/>
-      <c r="N127" s="6" t="n"/>
-      <c r="O127" s="6" t="n"/>
-      <c r="P127" s="6" t="n"/>
-      <c r="Q127" s="6" t="n"/>
-      <c r="R127" s="6" t="n"/>
-      <c r="S127" s="6" t="n"/>
-      <c r="T127" s="6" t="n"/>
-      <c r="U127" s="6" t="n"/>
-      <c r="V127" s="6" t="n"/>
-      <c r="W127" s="6" t="n"/>
-      <c r="X127" s="6" t="n"/>
-      <c r="Y127" s="6" t="n"/>
-      <c r="Z127" s="6" t="n"/>
-      <c r="AA127" s="6" t="n"/>
-      <c r="AB127" s="6" t="n"/>
-      <c r="AC127" s="6" t="n"/>
-      <c r="AD127" s="6" t="n"/>
+      <c r="A127" s="10" t="inlineStr">
+        <is>
+          <t>disciplines</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n"/>
+      <c r="C127" s="2" t="n"/>
+      <c r="D127" s="2" t="n"/>
+      <c r="E127" s="2" t="n"/>
+      <c r="F127" s="2" t="n"/>
+      <c r="G127" s="2" t="n"/>
+      <c r="H127" s="2" t="n"/>
+      <c r="I127" s="2" t="n"/>
+      <c r="J127" s="2" t="n"/>
+      <c r="K127" s="2" t="n"/>
+      <c r="L127" s="2" t="n"/>
+      <c r="M127" s="2" t="n"/>
+      <c r="N127" s="2" t="n"/>
+      <c r="O127" s="2" t="n"/>
+      <c r="P127" s="2" t="n"/>
+      <c r="Q127" s="2" t="n"/>
+      <c r="R127" s="2" t="n"/>
+      <c r="S127" s="2" t="n"/>
+      <c r="T127" s="2" t="n"/>
+      <c r="U127" s="2" t="n"/>
+      <c r="V127" s="2" t="n"/>
+      <c r="W127" s="2" t="n"/>
+      <c r="X127" s="2" t="n"/>
+      <c r="Y127" s="2" t="n"/>
+      <c r="Z127" s="2" t="n"/>
+      <c r="AA127" s="2" t="n"/>
+      <c r="AB127" s="2" t="n"/>
+      <c r="AC127" s="2" t="n"/>
+      <c r="AD127" s="2" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="inlineStr"/>
       <c r="B128" s="5" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C128" s="6" t="inlineStr"/>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C128" s="6" t="n"/>
       <c r="D128" s="6" t="n"/>
       <c r="E128" s="6" t="n"/>
       <c r="F128" s="6" t="n"/>
@@ -7865,10 +7869,10 @@
       <c r="A129" s="4" t="inlineStr"/>
       <c r="B129" s="5" t="inlineStr">
         <is>
-          <t>parent_id</t>
-        </is>
-      </c>
-      <c r="C129" s="6" t="n"/>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C129" s="6" t="inlineStr"/>
       <c r="D129" s="6" t="n"/>
       <c r="E129" s="6" t="n"/>
       <c r="F129" s="6" t="n"/>
@@ -7901,7 +7905,7 @@
       <c r="A130" s="4" t="inlineStr"/>
       <c r="B130" s="5" t="inlineStr">
         <is>
-          <t>vocabulary</t>
+          <t>parent_id</t>
         </is>
       </c>
       <c r="C130" s="6" t="n"/>
@@ -7937,7 +7941,7 @@
       <c r="A131" s="4" t="inlineStr"/>
       <c r="B131" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>vocabulary</t>
         </is>
       </c>
       <c r="C131" s="6" t="n"/>
@@ -7970,44 +7974,44 @@
       <c r="AD131" s="6" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="4" t="n"/>
-      <c r="B132" s="8" t="n"/>
-      <c r="C132" s="2" t="n"/>
-      <c r="D132" s="2" t="n"/>
-      <c r="E132" s="2" t="n"/>
-      <c r="F132" s="2" t="n"/>
-      <c r="G132" s="2" t="n"/>
-      <c r="H132" s="2" t="n"/>
-      <c r="I132" s="2" t="n"/>
-      <c r="J132" s="2" t="n"/>
-      <c r="K132" s="2" t="n"/>
-      <c r="L132" s="2" t="n"/>
-      <c r="M132" s="2" t="n"/>
-      <c r="N132" s="2" t="n"/>
-      <c r="O132" s="2" t="n"/>
-      <c r="P132" s="2" t="n"/>
-      <c r="Q132" s="2" t="n"/>
-      <c r="R132" s="2" t="n"/>
-      <c r="S132" s="2" t="n"/>
-      <c r="T132" s="2" t="n"/>
-      <c r="U132" s="2" t="n"/>
-      <c r="V132" s="2" t="n"/>
-      <c r="W132" s="2" t="n"/>
-      <c r="X132" s="2" t="n"/>
-      <c r="Y132" s="2" t="n"/>
-      <c r="Z132" s="2" t="n"/>
-      <c r="AA132" s="2" t="n"/>
-      <c r="AB132" s="2" t="n"/>
-      <c r="AC132" s="2" t="n"/>
-      <c r="AD132" s="2" t="n"/>
+      <c r="A132" s="4" t="inlineStr"/>
+      <c r="B132" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C132" s="6" t="n"/>
+      <c r="D132" s="6" t="n"/>
+      <c r="E132" s="6" t="n"/>
+      <c r="F132" s="6" t="n"/>
+      <c r="G132" s="6" t="n"/>
+      <c r="H132" s="6" t="n"/>
+      <c r="I132" s="6" t="n"/>
+      <c r="J132" s="6" t="n"/>
+      <c r="K132" s="6" t="n"/>
+      <c r="L132" s="6" t="n"/>
+      <c r="M132" s="6" t="n"/>
+      <c r="N132" s="6" t="n"/>
+      <c r="O132" s="6" t="n"/>
+      <c r="P132" s="6" t="n"/>
+      <c r="Q132" s="6" t="n"/>
+      <c r="R132" s="6" t="n"/>
+      <c r="S132" s="6" t="n"/>
+      <c r="T132" s="6" t="n"/>
+      <c r="U132" s="6" t="n"/>
+      <c r="V132" s="6" t="n"/>
+      <c r="W132" s="6" t="n"/>
+      <c r="X132" s="6" t="n"/>
+      <c r="Y132" s="6" t="n"/>
+      <c r="Z132" s="6" t="n"/>
+      <c r="AA132" s="6" t="n"/>
+      <c r="AB132" s="6" t="n"/>
+      <c r="AC132" s="6" t="n"/>
+      <c r="AD132" s="6" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="10" t="inlineStr">
-        <is>
-          <t>mandate</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="n"/>
+      <c r="A133" s="4" t="n"/>
+      <c r="B133" s="8" t="n"/>
       <c r="C133" s="2" t="n"/>
       <c r="D133" s="2" t="n"/>
       <c r="E133" s="2" t="n"/>
@@ -8038,13 +8042,13 @@
       <c r="AD133" s="2" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="4" t="inlineStr"/>
-      <c r="B134" s="5" t="inlineStr">
+      <c r="A134" s="10" t="inlineStr">
         <is>
           <t>mandate</t>
         </is>
       </c>
-      <c r="C134" s="6" t="n"/>
+      <c r="B134" s="2" t="n"/>
+      <c r="C134" s="2" t="n"/>
       <c r="D134" s="2" t="n"/>
       <c r="E134" s="2" t="n"/>
       <c r="F134" s="2" t="n"/>
@@ -8077,7 +8081,7 @@
       <c r="A135" s="4" t="inlineStr"/>
       <c r="B135" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>mandate</t>
         </is>
       </c>
       <c r="C135" s="6" t="n"/>
@@ -8110,9 +8114,13 @@
       <c r="AD135" s="2" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="4" t="n"/>
-      <c r="B136" s="8" t="n"/>
-      <c r="C136" s="2" t="n"/>
+      <c r="A136" s="4" t="inlineStr"/>
+      <c r="B136" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C136" s="6" t="n"/>
       <c r="D136" s="2" t="n"/>
       <c r="E136" s="2" t="n"/>
       <c r="F136" s="2" t="n"/>
@@ -8142,12 +8150,8 @@
       <c r="AD136" s="2" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="10" t="inlineStr">
-        <is>
-          <t>time_periods</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="n"/>
+      <c r="A137" s="4" t="n"/>
+      <c r="B137" s="8" t="n"/>
       <c r="C137" s="2" t="n"/>
       <c r="D137" s="2" t="n"/>
       <c r="E137" s="2" t="n"/>
@@ -8178,46 +8182,46 @@
       <c r="AD137" s="2" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="4" t="inlineStr"/>
-      <c r="B138" s="5" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C138" s="6" t="n"/>
-      <c r="D138" s="6" t="n"/>
-      <c r="E138" s="6" t="n"/>
-      <c r="F138" s="6" t="n"/>
-      <c r="G138" s="6" t="n"/>
-      <c r="H138" s="6" t="n"/>
-      <c r="I138" s="6" t="n"/>
-      <c r="J138" s="6" t="n"/>
-      <c r="K138" s="6" t="n"/>
-      <c r="L138" s="6" t="n"/>
-      <c r="M138" s="6" t="n"/>
-      <c r="N138" s="6" t="n"/>
-      <c r="O138" s="6" t="n"/>
-      <c r="P138" s="6" t="n"/>
-      <c r="Q138" s="6" t="n"/>
-      <c r="R138" s="6" t="n"/>
-      <c r="S138" s="6" t="n"/>
-      <c r="T138" s="6" t="n"/>
-      <c r="U138" s="6" t="n"/>
-      <c r="V138" s="6" t="n"/>
-      <c r="W138" s="6" t="n"/>
-      <c r="X138" s="6" t="n"/>
-      <c r="Y138" s="6" t="n"/>
-      <c r="Z138" s="6" t="n"/>
-      <c r="AA138" s="6" t="n"/>
-      <c r="AB138" s="6" t="n"/>
-      <c r="AC138" s="6" t="n"/>
-      <c r="AD138" s="6" t="n"/>
+      <c r="A138" s="10" t="inlineStr">
+        <is>
+          <t>time_periods</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n"/>
+      <c r="C138" s="2" t="n"/>
+      <c r="D138" s="2" t="n"/>
+      <c r="E138" s="2" t="n"/>
+      <c r="F138" s="2" t="n"/>
+      <c r="G138" s="2" t="n"/>
+      <c r="H138" s="2" t="n"/>
+      <c r="I138" s="2" t="n"/>
+      <c r="J138" s="2" t="n"/>
+      <c r="K138" s="2" t="n"/>
+      <c r="L138" s="2" t="n"/>
+      <c r="M138" s="2" t="n"/>
+      <c r="N138" s="2" t="n"/>
+      <c r="O138" s="2" t="n"/>
+      <c r="P138" s="2" t="n"/>
+      <c r="Q138" s="2" t="n"/>
+      <c r="R138" s="2" t="n"/>
+      <c r="S138" s="2" t="n"/>
+      <c r="T138" s="2" t="n"/>
+      <c r="U138" s="2" t="n"/>
+      <c r="V138" s="2" t="n"/>
+      <c r="W138" s="2" t="n"/>
+      <c r="X138" s="2" t="n"/>
+      <c r="Y138" s="2" t="n"/>
+      <c r="Z138" s="2" t="n"/>
+      <c r="AA138" s="2" t="n"/>
+      <c r="AB138" s="2" t="n"/>
+      <c r="AC138" s="2" t="n"/>
+      <c r="AD138" s="2" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr"/>
       <c r="B139" s="5" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>start</t>
         </is>
       </c>
       <c r="C139" s="6" t="n"/>
@@ -8253,7 +8257,7 @@
       <c r="A140" s="4" t="inlineStr"/>
       <c r="B140" s="5" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>end</t>
         </is>
       </c>
       <c r="C140" s="6" t="n"/>
@@ -8286,44 +8290,44 @@
       <c r="AD140" s="6" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="4" t="n"/>
-      <c r="B141" s="8" t="n"/>
-      <c r="C141" s="2" t="n"/>
-      <c r="D141" s="2" t="n"/>
-      <c r="E141" s="2" t="n"/>
-      <c r="F141" s="2" t="n"/>
-      <c r="G141" s="2" t="n"/>
-      <c r="H141" s="2" t="n"/>
-      <c r="I141" s="2" t="n"/>
-      <c r="J141" s="2" t="n"/>
-      <c r="K141" s="2" t="n"/>
-      <c r="L141" s="2" t="n"/>
-      <c r="M141" s="2" t="n"/>
-      <c r="N141" s="2" t="n"/>
-      <c r="O141" s="2" t="n"/>
-      <c r="P141" s="2" t="n"/>
-      <c r="Q141" s="2" t="n"/>
-      <c r="R141" s="2" t="n"/>
-      <c r="S141" s="2" t="n"/>
-      <c r="T141" s="2" t="n"/>
-      <c r="U141" s="2" t="n"/>
-      <c r="V141" s="2" t="n"/>
-      <c r="W141" s="2" t="n"/>
-      <c r="X141" s="2" t="n"/>
-      <c r="Y141" s="2" t="n"/>
-      <c r="Z141" s="2" t="n"/>
-      <c r="AA141" s="2" t="n"/>
-      <c r="AB141" s="2" t="n"/>
-      <c r="AC141" s="2" t="n"/>
-      <c r="AD141" s="2" t="n"/>
+      <c r="A141" s="4" t="inlineStr"/>
+      <c r="B141" s="5" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="C141" s="6" t="n"/>
+      <c r="D141" s="6" t="n"/>
+      <c r="E141" s="6" t="n"/>
+      <c r="F141" s="6" t="n"/>
+      <c r="G141" s="6" t="n"/>
+      <c r="H141" s="6" t="n"/>
+      <c r="I141" s="6" t="n"/>
+      <c r="J141" s="6" t="n"/>
+      <c r="K141" s="6" t="n"/>
+      <c r="L141" s="6" t="n"/>
+      <c r="M141" s="6" t="n"/>
+      <c r="N141" s="6" t="n"/>
+      <c r="O141" s="6" t="n"/>
+      <c r="P141" s="6" t="n"/>
+      <c r="Q141" s="6" t="n"/>
+      <c r="R141" s="6" t="n"/>
+      <c r="S141" s="6" t="n"/>
+      <c r="T141" s="6" t="n"/>
+      <c r="U141" s="6" t="n"/>
+      <c r="V141" s="6" t="n"/>
+      <c r="W141" s="6" t="n"/>
+      <c r="X141" s="6" t="n"/>
+      <c r="Y141" s="6" t="n"/>
+      <c r="Z141" s="6" t="n"/>
+      <c r="AA141" s="6" t="n"/>
+      <c r="AB141" s="6" t="n"/>
+      <c r="AC141" s="6" t="n"/>
+      <c r="AD141" s="6" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="10" t="inlineStr">
-        <is>
-          <t>ref_country</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="n"/>
+      <c r="A142" s="4" t="n"/>
+      <c r="B142" s="8" t="n"/>
       <c r="C142" s="2" t="n"/>
       <c r="D142" s="2" t="n"/>
       <c r="E142" s="2" t="n"/>
@@ -8354,46 +8358,46 @@
       <c r="AD142" s="2" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="4" t="inlineStr"/>
-      <c r="B143" s="5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C143" s="6" t="n"/>
-      <c r="D143" s="6" t="n"/>
-      <c r="E143" s="6" t="n"/>
-      <c r="F143" s="6" t="n"/>
-      <c r="G143" s="6" t="n"/>
-      <c r="H143" s="6" t="n"/>
-      <c r="I143" s="6" t="n"/>
-      <c r="J143" s="6" t="n"/>
-      <c r="K143" s="6" t="n"/>
-      <c r="L143" s="6" t="n"/>
-      <c r="M143" s="6" t="n"/>
-      <c r="N143" s="6" t="n"/>
-      <c r="O143" s="6" t="n"/>
-      <c r="P143" s="6" t="n"/>
-      <c r="Q143" s="6" t="n"/>
-      <c r="R143" s="6" t="n"/>
-      <c r="S143" s="6" t="n"/>
-      <c r="T143" s="6" t="n"/>
-      <c r="U143" s="6" t="n"/>
-      <c r="V143" s="6" t="n"/>
-      <c r="W143" s="6" t="n"/>
-      <c r="X143" s="6" t="n"/>
-      <c r="Y143" s="6" t="n"/>
-      <c r="Z143" s="6" t="n"/>
-      <c r="AA143" s="6" t="n"/>
-      <c r="AB143" s="6" t="n"/>
-      <c r="AC143" s="6" t="n"/>
-      <c r="AD143" s="6" t="n"/>
+      <c r="A143" s="10" t="inlineStr">
+        <is>
+          <t>ref_country</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n"/>
+      <c r="C143" s="2" t="n"/>
+      <c r="D143" s="2" t="n"/>
+      <c r="E143" s="2" t="n"/>
+      <c r="F143" s="2" t="n"/>
+      <c r="G143" s="2" t="n"/>
+      <c r="H143" s="2" t="n"/>
+      <c r="I143" s="2" t="n"/>
+      <c r="J143" s="2" t="n"/>
+      <c r="K143" s="2" t="n"/>
+      <c r="L143" s="2" t="n"/>
+      <c r="M143" s="2" t="n"/>
+      <c r="N143" s="2" t="n"/>
+      <c r="O143" s="2" t="n"/>
+      <c r="P143" s="2" t="n"/>
+      <c r="Q143" s="2" t="n"/>
+      <c r="R143" s="2" t="n"/>
+      <c r="S143" s="2" t="n"/>
+      <c r="T143" s="2" t="n"/>
+      <c r="U143" s="2" t="n"/>
+      <c r="V143" s="2" t="n"/>
+      <c r="W143" s="2" t="n"/>
+      <c r="X143" s="2" t="n"/>
+      <c r="Y143" s="2" t="n"/>
+      <c r="Z143" s="2" t="n"/>
+      <c r="AA143" s="2" t="n"/>
+      <c r="AB143" s="2" t="n"/>
+      <c r="AC143" s="2" t="n"/>
+      <c r="AD143" s="2" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="inlineStr"/>
       <c r="B144" s="5" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C144" s="6" t="n"/>
@@ -8426,44 +8430,44 @@
       <c r="AD144" s="6" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="4" t="n"/>
-      <c r="B145" s="8" t="n"/>
-      <c r="C145" s="2" t="n"/>
-      <c r="D145" s="2" t="n"/>
-      <c r="E145" s="2" t="n"/>
-      <c r="F145" s="2" t="n"/>
-      <c r="G145" s="2" t="n"/>
-      <c r="H145" s="2" t="n"/>
-      <c r="I145" s="2" t="n"/>
-      <c r="J145" s="2" t="n"/>
-      <c r="K145" s="2" t="n"/>
-      <c r="L145" s="2" t="n"/>
-      <c r="M145" s="2" t="n"/>
-      <c r="N145" s="2" t="n"/>
-      <c r="O145" s="2" t="n"/>
-      <c r="P145" s="2" t="n"/>
-      <c r="Q145" s="2" t="n"/>
-      <c r="R145" s="2" t="n"/>
-      <c r="S145" s="2" t="n"/>
-      <c r="T145" s="2" t="n"/>
-      <c r="U145" s="2" t="n"/>
-      <c r="V145" s="2" t="n"/>
-      <c r="W145" s="2" t="n"/>
-      <c r="X145" s="2" t="n"/>
-      <c r="Y145" s="2" t="n"/>
-      <c r="Z145" s="2" t="n"/>
-      <c r="AA145" s="2" t="n"/>
-      <c r="AB145" s="2" t="n"/>
-      <c r="AC145" s="2" t="n"/>
-      <c r="AD145" s="2" t="n"/>
+      <c r="A145" s="4" t="inlineStr"/>
+      <c r="B145" s="5" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="C145" s="6" t="n"/>
+      <c r="D145" s="6" t="n"/>
+      <c r="E145" s="6" t="n"/>
+      <c r="F145" s="6" t="n"/>
+      <c r="G145" s="6" t="n"/>
+      <c r="H145" s="6" t="n"/>
+      <c r="I145" s="6" t="n"/>
+      <c r="J145" s="6" t="n"/>
+      <c r="K145" s="6" t="n"/>
+      <c r="L145" s="6" t="n"/>
+      <c r="M145" s="6" t="n"/>
+      <c r="N145" s="6" t="n"/>
+      <c r="O145" s="6" t="n"/>
+      <c r="P145" s="6" t="n"/>
+      <c r="Q145" s="6" t="n"/>
+      <c r="R145" s="6" t="n"/>
+      <c r="S145" s="6" t="n"/>
+      <c r="T145" s="6" t="n"/>
+      <c r="U145" s="6" t="n"/>
+      <c r="V145" s="6" t="n"/>
+      <c r="W145" s="6" t="n"/>
+      <c r="X145" s="6" t="n"/>
+      <c r="Y145" s="6" t="n"/>
+      <c r="Z145" s="6" t="n"/>
+      <c r="AA145" s="6" t="n"/>
+      <c r="AB145" s="6" t="n"/>
+      <c r="AC145" s="6" t="n"/>
+      <c r="AD145" s="6" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="10" t="inlineStr">
-        <is>
-          <t>geographic_units</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="n"/>
+      <c r="A146" s="4" t="n"/>
+      <c r="B146" s="8" t="n"/>
       <c r="C146" s="2" t="n"/>
       <c r="D146" s="2" t="n"/>
       <c r="E146" s="2" t="n"/>
@@ -8494,49 +8498,49 @@
       <c r="AD146" s="2" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" s="4" t="inlineStr"/>
-      <c r="B147" s="5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C147" s="6" t="inlineStr"/>
-      <c r="D147" s="6" t="n"/>
-      <c r="E147" s="6" t="n"/>
-      <c r="F147" s="6" t="n"/>
-      <c r="G147" s="6" t="n"/>
-      <c r="H147" s="6" t="n"/>
-      <c r="I147" s="6" t="n"/>
-      <c r="J147" s="6" t="n"/>
-      <c r="K147" s="6" t="n"/>
-      <c r="L147" s="6" t="n"/>
-      <c r="M147" s="6" t="n"/>
-      <c r="N147" s="6" t="n"/>
-      <c r="O147" s="6" t="n"/>
-      <c r="P147" s="6" t="n"/>
-      <c r="Q147" s="6" t="n"/>
-      <c r="R147" s="6" t="n"/>
-      <c r="S147" s="6" t="n"/>
-      <c r="T147" s="6" t="n"/>
-      <c r="U147" s="6" t="n"/>
-      <c r="V147" s="6" t="n"/>
-      <c r="W147" s="6" t="n"/>
-      <c r="X147" s="6" t="n"/>
-      <c r="Y147" s="6" t="n"/>
-      <c r="Z147" s="6" t="n"/>
-      <c r="AA147" s="6" t="n"/>
-      <c r="AB147" s="6" t="n"/>
-      <c r="AC147" s="6" t="n"/>
-      <c r="AD147" s="6" t="n"/>
+      <c r="A147" s="10" t="inlineStr">
+        <is>
+          <t>geographic_units</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n"/>
+      <c r="C147" s="2" t="n"/>
+      <c r="D147" s="2" t="n"/>
+      <c r="E147" s="2" t="n"/>
+      <c r="F147" s="2" t="n"/>
+      <c r="G147" s="2" t="n"/>
+      <c r="H147" s="2" t="n"/>
+      <c r="I147" s="2" t="n"/>
+      <c r="J147" s="2" t="n"/>
+      <c r="K147" s="2" t="n"/>
+      <c r="L147" s="2" t="n"/>
+      <c r="M147" s="2" t="n"/>
+      <c r="N147" s="2" t="n"/>
+      <c r="O147" s="2" t="n"/>
+      <c r="P147" s="2" t="n"/>
+      <c r="Q147" s="2" t="n"/>
+      <c r="R147" s="2" t="n"/>
+      <c r="S147" s="2" t="n"/>
+      <c r="T147" s="2" t="n"/>
+      <c r="U147" s="2" t="n"/>
+      <c r="V147" s="2" t="n"/>
+      <c r="W147" s="2" t="n"/>
+      <c r="X147" s="2" t="n"/>
+      <c r="Y147" s="2" t="n"/>
+      <c r="Z147" s="2" t="n"/>
+      <c r="AA147" s="2" t="n"/>
+      <c r="AB147" s="2" t="n"/>
+      <c r="AC147" s="2" t="n"/>
+      <c r="AD147" s="2" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="4" t="inlineStr"/>
       <c r="B148" s="5" t="inlineStr">
         <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="C148" s="6" t="n"/>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C148" s="6" t="inlineStr"/>
       <c r="D148" s="6" t="n"/>
       <c r="E148" s="6" t="n"/>
       <c r="F148" s="6" t="n"/>
@@ -8569,7 +8573,7 @@
       <c r="A149" s="4" t="inlineStr"/>
       <c r="B149" s="5" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>code</t>
         </is>
       </c>
       <c r="C149" s="6" t="n"/>
@@ -8602,44 +8606,44 @@
       <c r="AD149" s="6" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="4" t="n"/>
-      <c r="B150" s="8" t="n"/>
-      <c r="C150" s="2" t="n"/>
-      <c r="D150" s="2" t="n"/>
-      <c r="E150" s="2" t="n"/>
-      <c r="F150" s="2" t="n"/>
-      <c r="G150" s="2" t="n"/>
-      <c r="H150" s="2" t="n"/>
-      <c r="I150" s="2" t="n"/>
-      <c r="J150" s="2" t="n"/>
-      <c r="K150" s="2" t="n"/>
-      <c r="L150" s="2" t="n"/>
-      <c r="M150" s="2" t="n"/>
-      <c r="N150" s="2" t="n"/>
-      <c r="O150" s="2" t="n"/>
-      <c r="P150" s="2" t="n"/>
-      <c r="Q150" s="2" t="n"/>
-      <c r="R150" s="2" t="n"/>
-      <c r="S150" s="2" t="n"/>
-      <c r="T150" s="2" t="n"/>
-      <c r="U150" s="2" t="n"/>
-      <c r="V150" s="2" t="n"/>
-      <c r="W150" s="2" t="n"/>
-      <c r="X150" s="2" t="n"/>
-      <c r="Y150" s="2" t="n"/>
-      <c r="Z150" s="2" t="n"/>
-      <c r="AA150" s="2" t="n"/>
-      <c r="AB150" s="2" t="n"/>
-      <c r="AC150" s="2" t="n"/>
-      <c r="AD150" s="2" t="n"/>
+      <c r="A150" s="4" t="inlineStr"/>
+      <c r="B150" s="5" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C150" s="6" t="n"/>
+      <c r="D150" s="6" t="n"/>
+      <c r="E150" s="6" t="n"/>
+      <c r="F150" s="6" t="n"/>
+      <c r="G150" s="6" t="n"/>
+      <c r="H150" s="6" t="n"/>
+      <c r="I150" s="6" t="n"/>
+      <c r="J150" s="6" t="n"/>
+      <c r="K150" s="6" t="n"/>
+      <c r="L150" s="6" t="n"/>
+      <c r="M150" s="6" t="n"/>
+      <c r="N150" s="6" t="n"/>
+      <c r="O150" s="6" t="n"/>
+      <c r="P150" s="6" t="n"/>
+      <c r="Q150" s="6" t="n"/>
+      <c r="R150" s="6" t="n"/>
+      <c r="S150" s="6" t="n"/>
+      <c r="T150" s="6" t="n"/>
+      <c r="U150" s="6" t="n"/>
+      <c r="V150" s="6" t="n"/>
+      <c r="W150" s="6" t="n"/>
+      <c r="X150" s="6" t="n"/>
+      <c r="Y150" s="6" t="n"/>
+      <c r="Z150" s="6" t="n"/>
+      <c r="AA150" s="6" t="n"/>
+      <c r="AB150" s="6" t="n"/>
+      <c r="AC150" s="6" t="n"/>
+      <c r="AD150" s="6" t="n"/>
     </row>
     <row r="151">
-      <c r="A151" s="10" t="inlineStr">
-        <is>
-          <t>bbox</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="n"/>
+      <c r="A151" s="4" t="n"/>
+      <c r="B151" s="8" t="n"/>
       <c r="C151" s="2" t="n"/>
       <c r="D151" s="2" t="n"/>
       <c r="E151" s="2" t="n"/>
@@ -8670,46 +8674,46 @@
       <c r="AD151" s="2" t="n"/>
     </row>
     <row r="152">
-      <c r="A152" s="4" t="inlineStr"/>
-      <c r="B152" s="5" t="inlineStr">
-        <is>
-          <t>west</t>
-        </is>
-      </c>
-      <c r="C152" s="6" t="n"/>
-      <c r="D152" s="6" t="n"/>
-      <c r="E152" s="6" t="n"/>
-      <c r="F152" s="6" t="n"/>
-      <c r="G152" s="6" t="n"/>
-      <c r="H152" s="6" t="n"/>
-      <c r="I152" s="6" t="n"/>
-      <c r="J152" s="6" t="n"/>
-      <c r="K152" s="6" t="n"/>
-      <c r="L152" s="6" t="n"/>
-      <c r="M152" s="6" t="n"/>
-      <c r="N152" s="6" t="n"/>
-      <c r="O152" s="6" t="n"/>
-      <c r="P152" s="6" t="n"/>
-      <c r="Q152" s="6" t="n"/>
-      <c r="R152" s="6" t="n"/>
-      <c r="S152" s="6" t="n"/>
-      <c r="T152" s="6" t="n"/>
-      <c r="U152" s="6" t="n"/>
-      <c r="V152" s="6" t="n"/>
-      <c r="W152" s="6" t="n"/>
-      <c r="X152" s="6" t="n"/>
-      <c r="Y152" s="6" t="n"/>
-      <c r="Z152" s="6" t="n"/>
-      <c r="AA152" s="6" t="n"/>
-      <c r="AB152" s="6" t="n"/>
-      <c r="AC152" s="6" t="n"/>
-      <c r="AD152" s="6" t="n"/>
+      <c r="A152" s="10" t="inlineStr">
+        <is>
+          <t>bbox</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n"/>
+      <c r="C152" s="2" t="n"/>
+      <c r="D152" s="2" t="n"/>
+      <c r="E152" s="2" t="n"/>
+      <c r="F152" s="2" t="n"/>
+      <c r="G152" s="2" t="n"/>
+      <c r="H152" s="2" t="n"/>
+      <c r="I152" s="2" t="n"/>
+      <c r="J152" s="2" t="n"/>
+      <c r="K152" s="2" t="n"/>
+      <c r="L152" s="2" t="n"/>
+      <c r="M152" s="2" t="n"/>
+      <c r="N152" s="2" t="n"/>
+      <c r="O152" s="2" t="n"/>
+      <c r="P152" s="2" t="n"/>
+      <c r="Q152" s="2" t="n"/>
+      <c r="R152" s="2" t="n"/>
+      <c r="S152" s="2" t="n"/>
+      <c r="T152" s="2" t="n"/>
+      <c r="U152" s="2" t="n"/>
+      <c r="V152" s="2" t="n"/>
+      <c r="W152" s="2" t="n"/>
+      <c r="X152" s="2" t="n"/>
+      <c r="Y152" s="2" t="n"/>
+      <c r="Z152" s="2" t="n"/>
+      <c r="AA152" s="2" t="n"/>
+      <c r="AB152" s="2" t="n"/>
+      <c r="AC152" s="2" t="n"/>
+      <c r="AD152" s="2" t="n"/>
     </row>
     <row r="153">
       <c r="A153" s="4" t="inlineStr"/>
       <c r="B153" s="5" t="inlineStr">
         <is>
-          <t>east</t>
+          <t>west</t>
         </is>
       </c>
       <c r="C153" s="6" t="n"/>
@@ -8745,7 +8749,7 @@
       <c r="A154" s="4" t="inlineStr"/>
       <c r="B154" s="5" t="inlineStr">
         <is>
-          <t>south</t>
+          <t>east</t>
         </is>
       </c>
       <c r="C154" s="6" t="n"/>
@@ -8781,7 +8785,7 @@
       <c r="A155" s="4" t="inlineStr"/>
       <c r="B155" s="5" t="inlineStr">
         <is>
-          <t>north</t>
+          <t>south</t>
         </is>
       </c>
       <c r="C155" s="6" t="n"/>
@@ -8814,44 +8818,44 @@
       <c r="AD155" s="6" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="4" t="n"/>
-      <c r="B156" s="8" t="n"/>
-      <c r="C156" s="2" t="n"/>
-      <c r="D156" s="2" t="n"/>
-      <c r="E156" s="2" t="n"/>
-      <c r="F156" s="2" t="n"/>
-      <c r="G156" s="2" t="n"/>
-      <c r="H156" s="2" t="n"/>
-      <c r="I156" s="2" t="n"/>
-      <c r="J156" s="2" t="n"/>
-      <c r="K156" s="2" t="n"/>
-      <c r="L156" s="2" t="n"/>
-      <c r="M156" s="2" t="n"/>
-      <c r="N156" s="2" t="n"/>
-      <c r="O156" s="2" t="n"/>
-      <c r="P156" s="2" t="n"/>
-      <c r="Q156" s="2" t="n"/>
-      <c r="R156" s="2" t="n"/>
-      <c r="S156" s="2" t="n"/>
-      <c r="T156" s="2" t="n"/>
-      <c r="U156" s="2" t="n"/>
-      <c r="V156" s="2" t="n"/>
-      <c r="W156" s="2" t="n"/>
-      <c r="X156" s="2" t="n"/>
-      <c r="Y156" s="2" t="n"/>
-      <c r="Z156" s="2" t="n"/>
-      <c r="AA156" s="2" t="n"/>
-      <c r="AB156" s="2" t="n"/>
-      <c r="AC156" s="2" t="n"/>
-      <c r="AD156" s="2" t="n"/>
+      <c r="A156" s="4" t="inlineStr"/>
+      <c r="B156" s="5" t="inlineStr">
+        <is>
+          <t>north</t>
+        </is>
+      </c>
+      <c r="C156" s="6" t="n"/>
+      <c r="D156" s="6" t="n"/>
+      <c r="E156" s="6" t="n"/>
+      <c r="F156" s="6" t="n"/>
+      <c r="G156" s="6" t="n"/>
+      <c r="H156" s="6" t="n"/>
+      <c r="I156" s="6" t="n"/>
+      <c r="J156" s="6" t="n"/>
+      <c r="K156" s="6" t="n"/>
+      <c r="L156" s="6" t="n"/>
+      <c r="M156" s="6" t="n"/>
+      <c r="N156" s="6" t="n"/>
+      <c r="O156" s="6" t="n"/>
+      <c r="P156" s="6" t="n"/>
+      <c r="Q156" s="6" t="n"/>
+      <c r="R156" s="6" t="n"/>
+      <c r="S156" s="6" t="n"/>
+      <c r="T156" s="6" t="n"/>
+      <c r="U156" s="6" t="n"/>
+      <c r="V156" s="6" t="n"/>
+      <c r="W156" s="6" t="n"/>
+      <c r="X156" s="6" t="n"/>
+      <c r="Y156" s="6" t="n"/>
+      <c r="Z156" s="6" t="n"/>
+      <c r="AA156" s="6" t="n"/>
+      <c r="AB156" s="6" t="n"/>
+      <c r="AC156" s="6" t="n"/>
+      <c r="AD156" s="6" t="n"/>
     </row>
     <row r="157">
-      <c r="A157" s="10" t="inlineStr">
-        <is>
-          <t>aggregation_method_references</t>
-        </is>
-      </c>
-      <c r="B157" s="2" t="n"/>
+      <c r="A157" s="4" t="n"/>
+      <c r="B157" s="8" t="n"/>
       <c r="C157" s="2" t="n"/>
       <c r="D157" s="2" t="n"/>
       <c r="E157" s="2" t="n"/>
@@ -8882,46 +8886,46 @@
       <c r="AD157" s="2" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" s="4" t="inlineStr"/>
-      <c r="B158" s="5" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="C158" s="6" t="n"/>
-      <c r="D158" s="6" t="n"/>
-      <c r="E158" s="6" t="n"/>
-      <c r="F158" s="6" t="n"/>
-      <c r="G158" s="6" t="n"/>
-      <c r="H158" s="6" t="n"/>
-      <c r="I158" s="6" t="n"/>
-      <c r="J158" s="6" t="n"/>
-      <c r="K158" s="6" t="n"/>
-      <c r="L158" s="6" t="n"/>
-      <c r="M158" s="6" t="n"/>
-      <c r="N158" s="6" t="n"/>
-      <c r="O158" s="6" t="n"/>
-      <c r="P158" s="6" t="n"/>
-      <c r="Q158" s="6" t="n"/>
-      <c r="R158" s="6" t="n"/>
-      <c r="S158" s="6" t="n"/>
-      <c r="T158" s="6" t="n"/>
-      <c r="U158" s="6" t="n"/>
-      <c r="V158" s="6" t="n"/>
-      <c r="W158" s="6" t="n"/>
-      <c r="X158" s="6" t="n"/>
-      <c r="Y158" s="6" t="n"/>
-      <c r="Z158" s="6" t="n"/>
-      <c r="AA158" s="6" t="n"/>
-      <c r="AB158" s="6" t="n"/>
-      <c r="AC158" s="6" t="n"/>
-      <c r="AD158" s="6" t="n"/>
+      <c r="A158" s="10" t="inlineStr">
+        <is>
+          <t>aggregation_method_references</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n"/>
+      <c r="C158" s="2" t="n"/>
+      <c r="D158" s="2" t="n"/>
+      <c r="E158" s="2" t="n"/>
+      <c r="F158" s="2" t="n"/>
+      <c r="G158" s="2" t="n"/>
+      <c r="H158" s="2" t="n"/>
+      <c r="I158" s="2" t="n"/>
+      <c r="J158" s="2" t="n"/>
+      <c r="K158" s="2" t="n"/>
+      <c r="L158" s="2" t="n"/>
+      <c r="M158" s="2" t="n"/>
+      <c r="N158" s="2" t="n"/>
+      <c r="O158" s="2" t="n"/>
+      <c r="P158" s="2" t="n"/>
+      <c r="Q158" s="2" t="n"/>
+      <c r="R158" s="2" t="n"/>
+      <c r="S158" s="2" t="n"/>
+      <c r="T158" s="2" t="n"/>
+      <c r="U158" s="2" t="n"/>
+      <c r="V158" s="2" t="n"/>
+      <c r="W158" s="2" t="n"/>
+      <c r="X158" s="2" t="n"/>
+      <c r="Y158" s="2" t="n"/>
+      <c r="Z158" s="2" t="n"/>
+      <c r="AA158" s="2" t="n"/>
+      <c r="AB158" s="2" t="n"/>
+      <c r="AC158" s="2" t="n"/>
+      <c r="AD158" s="2" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr"/>
       <c r="B159" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>source</t>
         </is>
       </c>
       <c r="C159" s="6" t="n"/>
@@ -8957,7 +8961,7 @@
       <c r="A160" s="4" t="inlineStr"/>
       <c r="B160" s="5" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>uri</t>
         </is>
       </c>
       <c r="C160" s="6" t="n"/>
@@ -8990,44 +8994,44 @@
       <c r="AD160" s="6" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="4" t="n"/>
-      <c r="B161" s="8" t="n"/>
-      <c r="C161" s="2" t="n"/>
-      <c r="D161" s="2" t="n"/>
-      <c r="E161" s="2" t="n"/>
-      <c r="F161" s="2" t="n"/>
-      <c r="G161" s="2" t="n"/>
-      <c r="H161" s="2" t="n"/>
-      <c r="I161" s="2" t="n"/>
-      <c r="J161" s="2" t="n"/>
-      <c r="K161" s="2" t="n"/>
-      <c r="L161" s="2" t="n"/>
-      <c r="M161" s="2" t="n"/>
-      <c r="N161" s="2" t="n"/>
-      <c r="O161" s="2" t="n"/>
-      <c r="P161" s="2" t="n"/>
-      <c r="Q161" s="2" t="n"/>
-      <c r="R161" s="2" t="n"/>
-      <c r="S161" s="2" t="n"/>
-      <c r="T161" s="2" t="n"/>
-      <c r="U161" s="2" t="n"/>
-      <c r="V161" s="2" t="n"/>
-      <c r="W161" s="2" t="n"/>
-      <c r="X161" s="2" t="n"/>
-      <c r="Y161" s="2" t="n"/>
-      <c r="Z161" s="2" t="n"/>
-      <c r="AA161" s="2" t="n"/>
-      <c r="AB161" s="2" t="n"/>
-      <c r="AC161" s="2" t="n"/>
-      <c r="AD161" s="2" t="n"/>
+      <c r="A161" s="4" t="inlineStr"/>
+      <c r="B161" s="5" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="C161" s="6" t="n"/>
+      <c r="D161" s="6" t="n"/>
+      <c r="E161" s="6" t="n"/>
+      <c r="F161" s="6" t="n"/>
+      <c r="G161" s="6" t="n"/>
+      <c r="H161" s="6" t="n"/>
+      <c r="I161" s="6" t="n"/>
+      <c r="J161" s="6" t="n"/>
+      <c r="K161" s="6" t="n"/>
+      <c r="L161" s="6" t="n"/>
+      <c r="M161" s="6" t="n"/>
+      <c r="N161" s="6" t="n"/>
+      <c r="O161" s="6" t="n"/>
+      <c r="P161" s="6" t="n"/>
+      <c r="Q161" s="6" t="n"/>
+      <c r="R161" s="6" t="n"/>
+      <c r="S161" s="6" t="n"/>
+      <c r="T161" s="6" t="n"/>
+      <c r="U161" s="6" t="n"/>
+      <c r="V161" s="6" t="n"/>
+      <c r="W161" s="6" t="n"/>
+      <c r="X161" s="6" t="n"/>
+      <c r="Y161" s="6" t="n"/>
+      <c r="Z161" s="6" t="n"/>
+      <c r="AA161" s="6" t="n"/>
+      <c r="AB161" s="6" t="n"/>
+      <c r="AC161" s="6" t="n"/>
+      <c r="AD161" s="6" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="10" t="inlineStr">
-        <is>
-          <t>license</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="n"/>
+      <c r="A162" s="4" t="n"/>
+      <c r="B162" s="8" t="n"/>
       <c r="C162" s="2" t="n"/>
       <c r="D162" s="2" t="n"/>
       <c r="E162" s="2" t="n"/>
@@ -9058,46 +9062,46 @@
       <c r="AD162" s="2" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="4" t="inlineStr"/>
-      <c r="B163" s="5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C163" s="6" t="n"/>
-      <c r="D163" s="6" t="n"/>
-      <c r="E163" s="6" t="n"/>
-      <c r="F163" s="6" t="n"/>
-      <c r="G163" s="6" t="n"/>
-      <c r="H163" s="6" t="n"/>
-      <c r="I163" s="6" t="n"/>
-      <c r="J163" s="6" t="n"/>
-      <c r="K163" s="6" t="n"/>
-      <c r="L163" s="6" t="n"/>
-      <c r="M163" s="6" t="n"/>
-      <c r="N163" s="6" t="n"/>
-      <c r="O163" s="6" t="n"/>
-      <c r="P163" s="6" t="n"/>
-      <c r="Q163" s="6" t="n"/>
-      <c r="R163" s="6" t="n"/>
-      <c r="S163" s="6" t="n"/>
-      <c r="T163" s="6" t="n"/>
-      <c r="U163" s="6" t="n"/>
-      <c r="V163" s="6" t="n"/>
-      <c r="W163" s="6" t="n"/>
-      <c r="X163" s="6" t="n"/>
-      <c r="Y163" s="6" t="n"/>
-      <c r="Z163" s="6" t="n"/>
-      <c r="AA163" s="6" t="n"/>
-      <c r="AB163" s="6" t="n"/>
-      <c r="AC163" s="6" t="n"/>
-      <c r="AD163" s="6" t="n"/>
+      <c r="A163" s="10" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n"/>
+      <c r="C163" s="2" t="n"/>
+      <c r="D163" s="2" t="n"/>
+      <c r="E163" s="2" t="n"/>
+      <c r="F163" s="2" t="n"/>
+      <c r="G163" s="2" t="n"/>
+      <c r="H163" s="2" t="n"/>
+      <c r="I163" s="2" t="n"/>
+      <c r="J163" s="2" t="n"/>
+      <c r="K163" s="2" t="n"/>
+      <c r="L163" s="2" t="n"/>
+      <c r="M163" s="2" t="n"/>
+      <c r="N163" s="2" t="n"/>
+      <c r="O163" s="2" t="n"/>
+      <c r="P163" s="2" t="n"/>
+      <c r="Q163" s="2" t="n"/>
+      <c r="R163" s="2" t="n"/>
+      <c r="S163" s="2" t="n"/>
+      <c r="T163" s="2" t="n"/>
+      <c r="U163" s="2" t="n"/>
+      <c r="V163" s="2" t="n"/>
+      <c r="W163" s="2" t="n"/>
+      <c r="X163" s="2" t="n"/>
+      <c r="Y163" s="2" t="n"/>
+      <c r="Z163" s="2" t="n"/>
+      <c r="AA163" s="2" t="n"/>
+      <c r="AB163" s="2" t="n"/>
+      <c r="AC163" s="2" t="n"/>
+      <c r="AD163" s="2" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="4" t="inlineStr"/>
       <c r="B164" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C164" s="6" t="n"/>
@@ -9133,7 +9137,7 @@
       <c r="A165" s="4" t="inlineStr"/>
       <c r="B165" s="5" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>uri</t>
         </is>
       </c>
       <c r="C165" s="6" t="n"/>
@@ -9166,44 +9170,44 @@
       <c r="AD165" s="6" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" s="4" t="n"/>
-      <c r="B166" s="8" t="n"/>
-      <c r="C166" s="2" t="n"/>
-      <c r="D166" s="2" t="n"/>
-      <c r="E166" s="2" t="n"/>
-      <c r="F166" s="2" t="n"/>
-      <c r="G166" s="2" t="n"/>
-      <c r="H166" s="2" t="n"/>
-      <c r="I166" s="2" t="n"/>
-      <c r="J166" s="2" t="n"/>
-      <c r="K166" s="2" t="n"/>
-      <c r="L166" s="2" t="n"/>
-      <c r="M166" s="2" t="n"/>
-      <c r="N166" s="2" t="n"/>
-      <c r="O166" s="2" t="n"/>
-      <c r="P166" s="2" t="n"/>
-      <c r="Q166" s="2" t="n"/>
-      <c r="R166" s="2" t="n"/>
-      <c r="S166" s="2" t="n"/>
-      <c r="T166" s="2" t="n"/>
-      <c r="U166" s="2" t="n"/>
-      <c r="V166" s="2" t="n"/>
-      <c r="W166" s="2" t="n"/>
-      <c r="X166" s="2" t="n"/>
-      <c r="Y166" s="2" t="n"/>
-      <c r="Z166" s="2" t="n"/>
-      <c r="AA166" s="2" t="n"/>
-      <c r="AB166" s="2" t="n"/>
-      <c r="AC166" s="2" t="n"/>
-      <c r="AD166" s="2" t="n"/>
+      <c r="A166" s="4" t="inlineStr"/>
+      <c r="B166" s="5" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="C166" s="6" t="n"/>
+      <c r="D166" s="6" t="n"/>
+      <c r="E166" s="6" t="n"/>
+      <c r="F166" s="6" t="n"/>
+      <c r="G166" s="6" t="n"/>
+      <c r="H166" s="6" t="n"/>
+      <c r="I166" s="6" t="n"/>
+      <c r="J166" s="6" t="n"/>
+      <c r="K166" s="6" t="n"/>
+      <c r="L166" s="6" t="n"/>
+      <c r="M166" s="6" t="n"/>
+      <c r="N166" s="6" t="n"/>
+      <c r="O166" s="6" t="n"/>
+      <c r="P166" s="6" t="n"/>
+      <c r="Q166" s="6" t="n"/>
+      <c r="R166" s="6" t="n"/>
+      <c r="S166" s="6" t="n"/>
+      <c r="T166" s="6" t="n"/>
+      <c r="U166" s="6" t="n"/>
+      <c r="V166" s="6" t="n"/>
+      <c r="W166" s="6" t="n"/>
+      <c r="X166" s="6" t="n"/>
+      <c r="Y166" s="6" t="n"/>
+      <c r="Z166" s="6" t="n"/>
+      <c r="AA166" s="6" t="n"/>
+      <c r="AB166" s="6" t="n"/>
+      <c r="AC166" s="6" t="n"/>
+      <c r="AD166" s="6" t="n"/>
     </row>
     <row r="167">
-      <c r="A167" s="10" t="inlineStr">
-        <is>
-          <t>links</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="n"/>
+      <c r="A167" s="4" t="n"/>
+      <c r="B167" s="8" t="n"/>
       <c r="C167" s="2" t="n"/>
       <c r="D167" s="2" t="n"/>
       <c r="E167" s="2" t="n"/>
@@ -9234,46 +9238,46 @@
       <c r="AD167" s="2" t="n"/>
     </row>
     <row r="168">
-      <c r="A168" s="4" t="inlineStr"/>
-      <c r="B168" s="5" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="C168" s="6" t="n"/>
-      <c r="D168" s="6" t="n"/>
-      <c r="E168" s="6" t="n"/>
-      <c r="F168" s="6" t="n"/>
-      <c r="G168" s="6" t="n"/>
-      <c r="H168" s="6" t="n"/>
-      <c r="I168" s="6" t="n"/>
-      <c r="J168" s="6" t="n"/>
-      <c r="K168" s="6" t="n"/>
-      <c r="L168" s="6" t="n"/>
-      <c r="M168" s="6" t="n"/>
-      <c r="N168" s="6" t="n"/>
-      <c r="O168" s="6" t="n"/>
-      <c r="P168" s="6" t="n"/>
-      <c r="Q168" s="6" t="n"/>
-      <c r="R168" s="6" t="n"/>
-      <c r="S168" s="6" t="n"/>
-      <c r="T168" s="6" t="n"/>
-      <c r="U168" s="6" t="n"/>
-      <c r="V168" s="6" t="n"/>
-      <c r="W168" s="6" t="n"/>
-      <c r="X168" s="6" t="n"/>
-      <c r="Y168" s="6" t="n"/>
-      <c r="Z168" s="6" t="n"/>
-      <c r="AA168" s="6" t="n"/>
-      <c r="AB168" s="6" t="n"/>
-      <c r="AC168" s="6" t="n"/>
-      <c r="AD168" s="6" t="n"/>
+      <c r="A168" s="10" t="inlineStr">
+        <is>
+          <t>links</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n"/>
+      <c r="C168" s="2" t="n"/>
+      <c r="D168" s="2" t="n"/>
+      <c r="E168" s="2" t="n"/>
+      <c r="F168" s="2" t="n"/>
+      <c r="G168" s="2" t="n"/>
+      <c r="H168" s="2" t="n"/>
+      <c r="I168" s="2" t="n"/>
+      <c r="J168" s="2" t="n"/>
+      <c r="K168" s="2" t="n"/>
+      <c r="L168" s="2" t="n"/>
+      <c r="M168" s="2" t="n"/>
+      <c r="N168" s="2" t="n"/>
+      <c r="O168" s="2" t="n"/>
+      <c r="P168" s="2" t="n"/>
+      <c r="Q168" s="2" t="n"/>
+      <c r="R168" s="2" t="n"/>
+      <c r="S168" s="2" t="n"/>
+      <c r="T168" s="2" t="n"/>
+      <c r="U168" s="2" t="n"/>
+      <c r="V168" s="2" t="n"/>
+      <c r="W168" s="2" t="n"/>
+      <c r="X168" s="2" t="n"/>
+      <c r="Y168" s="2" t="n"/>
+      <c r="Z168" s="2" t="n"/>
+      <c r="AA168" s="2" t="n"/>
+      <c r="AB168" s="2" t="n"/>
+      <c r="AC168" s="2" t="n"/>
+      <c r="AD168" s="2" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="4" t="inlineStr"/>
       <c r="B169" s="5" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>type</t>
         </is>
       </c>
       <c r="C169" s="6" t="n"/>
@@ -9309,7 +9313,7 @@
       <c r="A170" s="4" t="inlineStr"/>
       <c r="B170" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C170" s="6" t="n"/>
@@ -9342,44 +9346,44 @@
       <c r="AD170" s="6" t="n"/>
     </row>
     <row r="171">
-      <c r="A171" s="4" t="n"/>
-      <c r="B171" s="8" t="n"/>
-      <c r="C171" s="2" t="n"/>
-      <c r="D171" s="2" t="n"/>
-      <c r="E171" s="2" t="n"/>
-      <c r="F171" s="2" t="n"/>
-      <c r="G171" s="2" t="n"/>
-      <c r="H171" s="2" t="n"/>
-      <c r="I171" s="2" t="n"/>
-      <c r="J171" s="2" t="n"/>
-      <c r="K171" s="2" t="n"/>
-      <c r="L171" s="2" t="n"/>
-      <c r="M171" s="2" t="n"/>
-      <c r="N171" s="2" t="n"/>
-      <c r="O171" s="2" t="n"/>
-      <c r="P171" s="2" t="n"/>
-      <c r="Q171" s="2" t="n"/>
-      <c r="R171" s="2" t="n"/>
-      <c r="S171" s="2" t="n"/>
-      <c r="T171" s="2" t="n"/>
-      <c r="U171" s="2" t="n"/>
-      <c r="V171" s="2" t="n"/>
-      <c r="W171" s="2" t="n"/>
-      <c r="X171" s="2" t="n"/>
-      <c r="Y171" s="2" t="n"/>
-      <c r="Z171" s="2" t="n"/>
-      <c r="AA171" s="2" t="n"/>
-      <c r="AB171" s="2" t="n"/>
-      <c r="AC171" s="2" t="n"/>
-      <c r="AD171" s="2" t="n"/>
+      <c r="A171" s="4" t="inlineStr"/>
+      <c r="B171" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C171" s="6" t="n"/>
+      <c r="D171" s="6" t="n"/>
+      <c r="E171" s="6" t="n"/>
+      <c r="F171" s="6" t="n"/>
+      <c r="G171" s="6" t="n"/>
+      <c r="H171" s="6" t="n"/>
+      <c r="I171" s="6" t="n"/>
+      <c r="J171" s="6" t="n"/>
+      <c r="K171" s="6" t="n"/>
+      <c r="L171" s="6" t="n"/>
+      <c r="M171" s="6" t="n"/>
+      <c r="N171" s="6" t="n"/>
+      <c r="O171" s="6" t="n"/>
+      <c r="P171" s="6" t="n"/>
+      <c r="Q171" s="6" t="n"/>
+      <c r="R171" s="6" t="n"/>
+      <c r="S171" s="6" t="n"/>
+      <c r="T171" s="6" t="n"/>
+      <c r="U171" s="6" t="n"/>
+      <c r="V171" s="6" t="n"/>
+      <c r="W171" s="6" t="n"/>
+      <c r="X171" s="6" t="n"/>
+      <c r="Y171" s="6" t="n"/>
+      <c r="Z171" s="6" t="n"/>
+      <c r="AA171" s="6" t="n"/>
+      <c r="AB171" s="6" t="n"/>
+      <c r="AC171" s="6" t="n"/>
+      <c r="AD171" s="6" t="n"/>
     </row>
     <row r="172">
-      <c r="A172" s="10" t="inlineStr">
-        <is>
-          <t>api_documentation</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="n"/>
+      <c r="A172" s="4" t="n"/>
+      <c r="B172" s="8" t="n"/>
       <c r="C172" s="2" t="n"/>
       <c r="D172" s="2" t="n"/>
       <c r="E172" s="2" t="n"/>
@@ -9410,46 +9414,46 @@
       <c r="AD172" s="2" t="n"/>
     </row>
     <row r="173">
-      <c r="A173" s="4" t="inlineStr"/>
-      <c r="B173" s="5" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C173" s="6" t="n"/>
-      <c r="D173" s="6" t="n"/>
-      <c r="E173" s="6" t="n"/>
-      <c r="F173" s="6" t="n"/>
-      <c r="G173" s="6" t="n"/>
-      <c r="H173" s="6" t="n"/>
-      <c r="I173" s="6" t="n"/>
-      <c r="J173" s="6" t="n"/>
-      <c r="K173" s="6" t="n"/>
-      <c r="L173" s="6" t="n"/>
-      <c r="M173" s="6" t="n"/>
-      <c r="N173" s="6" t="n"/>
-      <c r="O173" s="6" t="n"/>
-      <c r="P173" s="6" t="n"/>
-      <c r="Q173" s="6" t="n"/>
-      <c r="R173" s="6" t="n"/>
-      <c r="S173" s="6" t="n"/>
-      <c r="T173" s="6" t="n"/>
-      <c r="U173" s="6" t="n"/>
-      <c r="V173" s="6" t="n"/>
-      <c r="W173" s="6" t="n"/>
-      <c r="X173" s="6" t="n"/>
-      <c r="Y173" s="6" t="n"/>
-      <c r="Z173" s="6" t="n"/>
-      <c r="AA173" s="6" t="n"/>
-      <c r="AB173" s="6" t="n"/>
-      <c r="AC173" s="6" t="n"/>
-      <c r="AD173" s="6" t="n"/>
+      <c r="A173" s="10" t="inlineStr">
+        <is>
+          <t>api_documentation</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n"/>
+      <c r="C173" s="2" t="n"/>
+      <c r="D173" s="2" t="n"/>
+      <c r="E173" s="2" t="n"/>
+      <c r="F173" s="2" t="n"/>
+      <c r="G173" s="2" t="n"/>
+      <c r="H173" s="2" t="n"/>
+      <c r="I173" s="2" t="n"/>
+      <c r="J173" s="2" t="n"/>
+      <c r="K173" s="2" t="n"/>
+      <c r="L173" s="2" t="n"/>
+      <c r="M173" s="2" t="n"/>
+      <c r="N173" s="2" t="n"/>
+      <c r="O173" s="2" t="n"/>
+      <c r="P173" s="2" t="n"/>
+      <c r="Q173" s="2" t="n"/>
+      <c r="R173" s="2" t="n"/>
+      <c r="S173" s="2" t="n"/>
+      <c r="T173" s="2" t="n"/>
+      <c r="U173" s="2" t="n"/>
+      <c r="V173" s="2" t="n"/>
+      <c r="W173" s="2" t="n"/>
+      <c r="X173" s="2" t="n"/>
+      <c r="Y173" s="2" t="n"/>
+      <c r="Z173" s="2" t="n"/>
+      <c r="AA173" s="2" t="n"/>
+      <c r="AB173" s="2" t="n"/>
+      <c r="AC173" s="2" t="n"/>
+      <c r="AD173" s="2" t="n"/>
     </row>
     <row r="174">
       <c r="A174" s="4" t="inlineStr"/>
       <c r="B174" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C174" s="6" t="n"/>
@@ -9482,44 +9486,44 @@
       <c r="AD174" s="6" t="n"/>
     </row>
     <row r="175">
-      <c r="A175" s="4" t="n"/>
-      <c r="B175" s="8" t="n"/>
-      <c r="C175" s="2" t="n"/>
-      <c r="D175" s="2" t="n"/>
-      <c r="E175" s="2" t="n"/>
-      <c r="F175" s="2" t="n"/>
-      <c r="G175" s="2" t="n"/>
-      <c r="H175" s="2" t="n"/>
-      <c r="I175" s="2" t="n"/>
-      <c r="J175" s="2" t="n"/>
-      <c r="K175" s="2" t="n"/>
-      <c r="L175" s="2" t="n"/>
-      <c r="M175" s="2" t="n"/>
-      <c r="N175" s="2" t="n"/>
-      <c r="O175" s="2" t="n"/>
-      <c r="P175" s="2" t="n"/>
-      <c r="Q175" s="2" t="n"/>
-      <c r="R175" s="2" t="n"/>
-      <c r="S175" s="2" t="n"/>
-      <c r="T175" s="2" t="n"/>
-      <c r="U175" s="2" t="n"/>
-      <c r="V175" s="2" t="n"/>
-      <c r="W175" s="2" t="n"/>
-      <c r="X175" s="2" t="n"/>
-      <c r="Y175" s="2" t="n"/>
-      <c r="Z175" s="2" t="n"/>
-      <c r="AA175" s="2" t="n"/>
-      <c r="AB175" s="2" t="n"/>
-      <c r="AC175" s="2" t="n"/>
-      <c r="AD175" s="2" t="n"/>
+      <c r="A175" s="4" t="inlineStr"/>
+      <c r="B175" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C175" s="6" t="n"/>
+      <c r="D175" s="6" t="n"/>
+      <c r="E175" s="6" t="n"/>
+      <c r="F175" s="6" t="n"/>
+      <c r="G175" s="6" t="n"/>
+      <c r="H175" s="6" t="n"/>
+      <c r="I175" s="6" t="n"/>
+      <c r="J175" s="6" t="n"/>
+      <c r="K175" s="6" t="n"/>
+      <c r="L175" s="6" t="n"/>
+      <c r="M175" s="6" t="n"/>
+      <c r="N175" s="6" t="n"/>
+      <c r="O175" s="6" t="n"/>
+      <c r="P175" s="6" t="n"/>
+      <c r="Q175" s="6" t="n"/>
+      <c r="R175" s="6" t="n"/>
+      <c r="S175" s="6" t="n"/>
+      <c r="T175" s="6" t="n"/>
+      <c r="U175" s="6" t="n"/>
+      <c r="V175" s="6" t="n"/>
+      <c r="W175" s="6" t="n"/>
+      <c r="X175" s="6" t="n"/>
+      <c r="Y175" s="6" t="n"/>
+      <c r="Z175" s="6" t="n"/>
+      <c r="AA175" s="6" t="n"/>
+      <c r="AB175" s="6" t="n"/>
+      <c r="AC175" s="6" t="n"/>
+      <c r="AD175" s="6" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="10" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="n"/>
+      <c r="A176" s="4" t="n"/>
+      <c r="B176" s="8" t="n"/>
       <c r="C176" s="2" t="n"/>
       <c r="D176" s="2" t="n"/>
       <c r="E176" s="2" t="n"/>
@@ -9550,53 +9554,49 @@
       <c r="AD176" s="2" t="n"/>
     </row>
     <row r="177">
-      <c r="A177" s="4" t="inlineStr"/>
-      <c r="B177" s="5" t="inlineStr">
-        <is>
-          <t>idno</t>
-        </is>
-      </c>
-      <c r="C177" s="6" t="n"/>
-      <c r="D177" s="6" t="n"/>
-      <c r="E177" s="6" t="n"/>
-      <c r="F177" s="6" t="n"/>
-      <c r="G177" s="6" t="n"/>
-      <c r="H177" s="6" t="n"/>
-      <c r="I177" s="6" t="n"/>
-      <c r="J177" s="6" t="n"/>
-      <c r="K177" s="6" t="n"/>
-      <c r="L177" s="6" t="n"/>
-      <c r="M177" s="6" t="n"/>
-      <c r="N177" s="6" t="n"/>
-      <c r="O177" s="6" t="n"/>
-      <c r="P177" s="6" t="n"/>
-      <c r="Q177" s="6" t="n"/>
-      <c r="R177" s="6" t="n"/>
-      <c r="S177" s="6" t="n"/>
-      <c r="T177" s="6" t="n"/>
-      <c r="U177" s="6" t="n"/>
-      <c r="V177" s="6" t="n"/>
-      <c r="W177" s="6" t="n"/>
-      <c r="X177" s="6" t="n"/>
-      <c r="Y177" s="6" t="n"/>
-      <c r="Z177" s="6" t="n"/>
-      <c r="AA177" s="6" t="n"/>
-      <c r="AB177" s="6" t="n"/>
-      <c r="AC177" s="6" t="n"/>
-      <c r="AD177" s="6" t="n"/>
+      <c r="A177" s="10" t="inlineStr">
+        <is>
+          <t>sources</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n"/>
+      <c r="C177" s="2" t="n"/>
+      <c r="D177" s="2" t="n"/>
+      <c r="E177" s="2" t="n"/>
+      <c r="F177" s="2" t="n"/>
+      <c r="G177" s="2" t="n"/>
+      <c r="H177" s="2" t="n"/>
+      <c r="I177" s="2" t="n"/>
+      <c r="J177" s="2" t="n"/>
+      <c r="K177" s="2" t="n"/>
+      <c r="L177" s="2" t="n"/>
+      <c r="M177" s="2" t="n"/>
+      <c r="N177" s="2" t="n"/>
+      <c r="O177" s="2" t="n"/>
+      <c r="P177" s="2" t="n"/>
+      <c r="Q177" s="2" t="n"/>
+      <c r="R177" s="2" t="n"/>
+      <c r="S177" s="2" t="n"/>
+      <c r="T177" s="2" t="n"/>
+      <c r="U177" s="2" t="n"/>
+      <c r="V177" s="2" t="n"/>
+      <c r="W177" s="2" t="n"/>
+      <c r="X177" s="2" t="n"/>
+      <c r="Y177" s="2" t="n"/>
+      <c r="Z177" s="2" t="n"/>
+      <c r="AA177" s="2" t="n"/>
+      <c r="AB177" s="2" t="n"/>
+      <c r="AC177" s="2" t="n"/>
+      <c r="AD177" s="2" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="inlineStr"/>
       <c r="B178" s="5" t="inlineStr">
         <is>
-          <t>other_identifiers</t>
-        </is>
-      </c>
-      <c r="C178" s="6" t="inlineStr">
-        <is>
-          <t>[{"type": null, "identifier": null}]</t>
-        </is>
-      </c>
+          <t>idno</t>
+        </is>
+      </c>
+      <c r="C178" s="6" t="n"/>
       <c r="D178" s="6" t="n"/>
       <c r="E178" s="6" t="n"/>
       <c r="F178" s="6" t="n"/>
@@ -9629,10 +9629,14 @@
       <c r="A179" s="4" t="inlineStr"/>
       <c r="B179" s="5" t="inlineStr">
         <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="C179" s="6" t="n"/>
+          <t>other_identifiers</t>
+        </is>
+      </c>
+      <c r="C179" s="6" t="inlineStr">
+        <is>
+          <t>[{"type": null, "identifier": null}]</t>
+        </is>
+      </c>
       <c r="D179" s="6" t="n"/>
       <c r="E179" s="6" t="n"/>
       <c r="F179" s="6" t="n"/>
@@ -9665,10 +9669,10 @@
       <c r="A180" s="4" t="inlineStr"/>
       <c r="B180" s="5" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C180" s="6" t="inlineStr"/>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C180" s="6" t="n"/>
       <c r="D180" s="6" t="n"/>
       <c r="E180" s="6" t="n"/>
       <c r="F180" s="6" t="n"/>
@@ -9701,10 +9705,10 @@
       <c r="A181" s="4" t="inlineStr"/>
       <c r="B181" s="5" t="inlineStr">
         <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="C181" s="6" t="n"/>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C181" s="6" t="inlineStr"/>
       <c r="D181" s="6" t="n"/>
       <c r="E181" s="6" t="n"/>
       <c r="F181" s="6" t="n"/>
@@ -9737,14 +9741,10 @@
       <c r="A182" s="4" t="inlineStr"/>
       <c r="B182" s="5" t="inlineStr">
         <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="C182" s="6" t="inlineStr">
-        <is>
-          <t>[{"first_name": null, "initial": null, "last_name": null, "affiliation": null, "author_id": [{"type": null, "id": null}], "full_name": null}]</t>
-        </is>
-      </c>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="C182" s="6" t="n"/>
       <c r="D182" s="6" t="n"/>
       <c r="E182" s="6" t="n"/>
       <c r="F182" s="6" t="n"/>
@@ -9777,12 +9777,12 @@
       <c r="A183" s="4" t="inlineStr"/>
       <c r="B183" s="5" t="inlineStr">
         <is>
-          <t>datasets</t>
+          <t>authors</t>
         </is>
       </c>
       <c r="C183" s="6" t="inlineStr">
         <is>
-          <t>[{"idno": null, "title": null, "uri": null}]</t>
+          <t>[{"first_name": null, "initial": null, "last_name": null, "affiliation": null, "author_id": [{"type": null, "id": null}], "full_name": null}]</t>
         </is>
       </c>
       <c r="D183" s="6" t="n"/>
@@ -9817,10 +9817,14 @@
       <c r="A184" s="4" t="inlineStr"/>
       <c r="B184" s="5" t="inlineStr">
         <is>
-          <t>publisher</t>
-        </is>
-      </c>
-      <c r="C184" s="6" t="n"/>
+          <t>datasets</t>
+        </is>
+      </c>
+      <c r="C184" s="6" t="inlineStr">
+        <is>
+          <t>[{"idno": null, "title": null, "uri": null}]</t>
+        </is>
+      </c>
       <c r="D184" s="6" t="n"/>
       <c r="E184" s="6" t="n"/>
       <c r="F184" s="6" t="n"/>
@@ -9853,7 +9857,7 @@
       <c r="A185" s="4" t="inlineStr"/>
       <c r="B185" s="5" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="C185" s="6" t="n"/>
@@ -9889,7 +9893,7 @@
       <c r="A186" s="4" t="inlineStr"/>
       <c r="B186" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="C186" s="6" t="n"/>
@@ -9925,7 +9929,7 @@
       <c r="A187" s="4" t="inlineStr"/>
       <c r="B187" s="5" t="inlineStr">
         <is>
-          <t>access_date</t>
+          <t>uri</t>
         </is>
       </c>
       <c r="C187" s="6" t="n"/>
@@ -9961,7 +9965,7 @@
       <c r="A188" s="4" t="inlineStr"/>
       <c r="B188" s="5" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>access_date</t>
         </is>
       </c>
       <c r="C188" s="6" t="n"/>
@@ -9994,44 +9998,44 @@
       <c r="AD188" s="6" t="n"/>
     </row>
     <row r="189">
-      <c r="A189" s="4" t="n"/>
-      <c r="B189" s="8" t="n"/>
-      <c r="C189" s="2" t="n"/>
-      <c r="D189" s="2" t="n"/>
-      <c r="E189" s="2" t="n"/>
-      <c r="F189" s="2" t="n"/>
-      <c r="G189" s="2" t="n"/>
-      <c r="H189" s="2" t="n"/>
-      <c r="I189" s="2" t="n"/>
-      <c r="J189" s="2" t="n"/>
-      <c r="K189" s="2" t="n"/>
-      <c r="L189" s="2" t="n"/>
-      <c r="M189" s="2" t="n"/>
-      <c r="N189" s="2" t="n"/>
-      <c r="O189" s="2" t="n"/>
-      <c r="P189" s="2" t="n"/>
-      <c r="Q189" s="2" t="n"/>
-      <c r="R189" s="2" t="n"/>
-      <c r="S189" s="2" t="n"/>
-      <c r="T189" s="2" t="n"/>
-      <c r="U189" s="2" t="n"/>
-      <c r="V189" s="2" t="n"/>
-      <c r="W189" s="2" t="n"/>
-      <c r="X189" s="2" t="n"/>
-      <c r="Y189" s="2" t="n"/>
-      <c r="Z189" s="2" t="n"/>
-      <c r="AA189" s="2" t="n"/>
-      <c r="AB189" s="2" t="n"/>
-      <c r="AC189" s="2" t="n"/>
-      <c r="AD189" s="2" t="n"/>
+      <c r="A189" s="4" t="inlineStr"/>
+      <c r="B189" s="5" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="C189" s="6" t="n"/>
+      <c r="D189" s="6" t="n"/>
+      <c r="E189" s="6" t="n"/>
+      <c r="F189" s="6" t="n"/>
+      <c r="G189" s="6" t="n"/>
+      <c r="H189" s="6" t="n"/>
+      <c r="I189" s="6" t="n"/>
+      <c r="J189" s="6" t="n"/>
+      <c r="K189" s="6" t="n"/>
+      <c r="L189" s="6" t="n"/>
+      <c r="M189" s="6" t="n"/>
+      <c r="N189" s="6" t="n"/>
+      <c r="O189" s="6" t="n"/>
+      <c r="P189" s="6" t="n"/>
+      <c r="Q189" s="6" t="n"/>
+      <c r="R189" s="6" t="n"/>
+      <c r="S189" s="6" t="n"/>
+      <c r="T189" s="6" t="n"/>
+      <c r="U189" s="6" t="n"/>
+      <c r="V189" s="6" t="n"/>
+      <c r="W189" s="6" t="n"/>
+      <c r="X189" s="6" t="n"/>
+      <c r="Y189" s="6" t="n"/>
+      <c r="Z189" s="6" t="n"/>
+      <c r="AA189" s="6" t="n"/>
+      <c r="AB189" s="6" t="n"/>
+      <c r="AC189" s="6" t="n"/>
+      <c r="AD189" s="6" t="n"/>
     </row>
     <row r="190">
-      <c r="A190" s="10" t="inlineStr">
-        <is>
-          <t>direct_sources</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="n"/>
+      <c r="A190" s="4" t="n"/>
+      <c r="B190" s="8" t="n"/>
       <c r="C190" s="2" t="n"/>
       <c r="D190" s="2" t="n"/>
       <c r="E190" s="2" t="n"/>
@@ -10062,46 +10066,46 @@
       <c r="AD190" s="2" t="n"/>
     </row>
     <row r="191">
-      <c r="A191" s="4" t="inlineStr"/>
-      <c r="B191" s="5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C191" s="6" t="n"/>
-      <c r="D191" s="6" t="n"/>
-      <c r="E191" s="6" t="n"/>
-      <c r="F191" s="6" t="n"/>
-      <c r="G191" s="6" t="n"/>
-      <c r="H191" s="6" t="n"/>
-      <c r="I191" s="6" t="n"/>
-      <c r="J191" s="6" t="n"/>
-      <c r="K191" s="6" t="n"/>
-      <c r="L191" s="6" t="n"/>
-      <c r="M191" s="6" t="n"/>
-      <c r="N191" s="6" t="n"/>
-      <c r="O191" s="6" t="n"/>
-      <c r="P191" s="6" t="n"/>
-      <c r="Q191" s="6" t="n"/>
-      <c r="R191" s="6" t="n"/>
-      <c r="S191" s="6" t="n"/>
-      <c r="T191" s="6" t="n"/>
-      <c r="U191" s="6" t="n"/>
-      <c r="V191" s="6" t="n"/>
-      <c r="W191" s="6" t="n"/>
-      <c r="X191" s="6" t="n"/>
-      <c r="Y191" s="6" t="n"/>
-      <c r="Z191" s="6" t="n"/>
-      <c r="AA191" s="6" t="n"/>
-      <c r="AB191" s="6" t="n"/>
-      <c r="AC191" s="6" t="n"/>
-      <c r="AD191" s="6" t="n"/>
+      <c r="A191" s="10" t="inlineStr">
+        <is>
+          <t>direct_sources</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n"/>
+      <c r="C191" s="2" t="n"/>
+      <c r="D191" s="2" t="n"/>
+      <c r="E191" s="2" t="n"/>
+      <c r="F191" s="2" t="n"/>
+      <c r="G191" s="2" t="n"/>
+      <c r="H191" s="2" t="n"/>
+      <c r="I191" s="2" t="n"/>
+      <c r="J191" s="2" t="n"/>
+      <c r="K191" s="2" t="n"/>
+      <c r="L191" s="2" t="n"/>
+      <c r="M191" s="2" t="n"/>
+      <c r="N191" s="2" t="n"/>
+      <c r="O191" s="2" t="n"/>
+      <c r="P191" s="2" t="n"/>
+      <c r="Q191" s="2" t="n"/>
+      <c r="R191" s="2" t="n"/>
+      <c r="S191" s="2" t="n"/>
+      <c r="T191" s="2" t="n"/>
+      <c r="U191" s="2" t="n"/>
+      <c r="V191" s="2" t="n"/>
+      <c r="W191" s="2" t="n"/>
+      <c r="X191" s="2" t="n"/>
+      <c r="Y191" s="2" t="n"/>
+      <c r="Z191" s="2" t="n"/>
+      <c r="AA191" s="2" t="n"/>
+      <c r="AB191" s="2" t="n"/>
+      <c r="AC191" s="2" t="n"/>
+      <c r="AD191" s="2" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="4" t="inlineStr"/>
       <c r="B192" s="5" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C192" s="6" t="n"/>
@@ -10137,7 +10141,7 @@
       <c r="A193" s="4" t="inlineStr"/>
       <c r="B193" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="C193" s="6" t="n"/>
@@ -10173,7 +10177,7 @@
       <c r="A194" s="4" t="inlineStr"/>
       <c r="B194" s="5" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>uri</t>
         </is>
       </c>
       <c r="C194" s="6" t="n"/>
@@ -10206,44 +10210,44 @@
       <c r="AD194" s="6" t="n"/>
     </row>
     <row r="195">
-      <c r="A195" s="4" t="n"/>
-      <c r="B195" s="8" t="n"/>
-      <c r="C195" s="2" t="n"/>
-      <c r="D195" s="2" t="n"/>
-      <c r="E195" s="2" t="n"/>
-      <c r="F195" s="2" t="n"/>
-      <c r="G195" s="2" t="n"/>
-      <c r="H195" s="2" t="n"/>
-      <c r="I195" s="2" t="n"/>
-      <c r="J195" s="2" t="n"/>
-      <c r="K195" s="2" t="n"/>
-      <c r="L195" s="2" t="n"/>
-      <c r="M195" s="2" t="n"/>
-      <c r="N195" s="2" t="n"/>
-      <c r="O195" s="2" t="n"/>
-      <c r="P195" s="2" t="n"/>
-      <c r="Q195" s="2" t="n"/>
-      <c r="R195" s="2" t="n"/>
-      <c r="S195" s="2" t="n"/>
-      <c r="T195" s="2" t="n"/>
-      <c r="U195" s="2" t="n"/>
-      <c r="V195" s="2" t="n"/>
-      <c r="W195" s="2" t="n"/>
-      <c r="X195" s="2" t="n"/>
-      <c r="Y195" s="2" t="n"/>
-      <c r="Z195" s="2" t="n"/>
-      <c r="AA195" s="2" t="n"/>
-      <c r="AB195" s="2" t="n"/>
-      <c r="AC195" s="2" t="n"/>
-      <c r="AD195" s="2" t="n"/>
+      <c r="A195" s="4" t="inlineStr"/>
+      <c r="B195" s="5" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="C195" s="6" t="n"/>
+      <c r="D195" s="6" t="n"/>
+      <c r="E195" s="6" t="n"/>
+      <c r="F195" s="6" t="n"/>
+      <c r="G195" s="6" t="n"/>
+      <c r="H195" s="6" t="n"/>
+      <c r="I195" s="6" t="n"/>
+      <c r="J195" s="6" t="n"/>
+      <c r="K195" s="6" t="n"/>
+      <c r="L195" s="6" t="n"/>
+      <c r="M195" s="6" t="n"/>
+      <c r="N195" s="6" t="n"/>
+      <c r="O195" s="6" t="n"/>
+      <c r="P195" s="6" t="n"/>
+      <c r="Q195" s="6" t="n"/>
+      <c r="R195" s="6" t="n"/>
+      <c r="S195" s="6" t="n"/>
+      <c r="T195" s="6" t="n"/>
+      <c r="U195" s="6" t="n"/>
+      <c r="V195" s="6" t="n"/>
+      <c r="W195" s="6" t="n"/>
+      <c r="X195" s="6" t="n"/>
+      <c r="Y195" s="6" t="n"/>
+      <c r="Z195" s="6" t="n"/>
+      <c r="AA195" s="6" t="n"/>
+      <c r="AB195" s="6" t="n"/>
+      <c r="AC195" s="6" t="n"/>
+      <c r="AD195" s="6" t="n"/>
     </row>
     <row r="196">
-      <c r="A196" s="10" t="inlineStr">
-        <is>
-          <t>keywords</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="n"/>
+      <c r="A196" s="4" t="n"/>
+      <c r="B196" s="8" t="n"/>
       <c r="C196" s="2" t="n"/>
       <c r="D196" s="2" t="n"/>
       <c r="E196" s="2" t="n"/>
@@ -10274,49 +10278,49 @@
       <c r="AD196" s="2" t="n"/>
     </row>
     <row r="197">
-      <c r="A197" s="4" t="inlineStr"/>
-      <c r="B197" s="5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C197" s="6" t="inlineStr"/>
-      <c r="D197" s="6" t="n"/>
-      <c r="E197" s="6" t="n"/>
-      <c r="F197" s="6" t="n"/>
-      <c r="G197" s="6" t="n"/>
-      <c r="H197" s="6" t="n"/>
-      <c r="I197" s="6" t="n"/>
-      <c r="J197" s="6" t="n"/>
-      <c r="K197" s="6" t="n"/>
-      <c r="L197" s="6" t="n"/>
-      <c r="M197" s="6" t="n"/>
-      <c r="N197" s="6" t="n"/>
-      <c r="O197" s="6" t="n"/>
-      <c r="P197" s="6" t="n"/>
-      <c r="Q197" s="6" t="n"/>
-      <c r="R197" s="6" t="n"/>
-      <c r="S197" s="6" t="n"/>
-      <c r="T197" s="6" t="n"/>
-      <c r="U197" s="6" t="n"/>
-      <c r="V197" s="6" t="n"/>
-      <c r="W197" s="6" t="n"/>
-      <c r="X197" s="6" t="n"/>
-      <c r="Y197" s="6" t="n"/>
-      <c r="Z197" s="6" t="n"/>
-      <c r="AA197" s="6" t="n"/>
-      <c r="AB197" s="6" t="n"/>
-      <c r="AC197" s="6" t="n"/>
-      <c r="AD197" s="6" t="n"/>
+      <c r="A197" s="10" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n"/>
+      <c r="C197" s="2" t="n"/>
+      <c r="D197" s="2" t="n"/>
+      <c r="E197" s="2" t="n"/>
+      <c r="F197" s="2" t="n"/>
+      <c r="G197" s="2" t="n"/>
+      <c r="H197" s="2" t="n"/>
+      <c r="I197" s="2" t="n"/>
+      <c r="J197" s="2" t="n"/>
+      <c r="K197" s="2" t="n"/>
+      <c r="L197" s="2" t="n"/>
+      <c r="M197" s="2" t="n"/>
+      <c r="N197" s="2" t="n"/>
+      <c r="O197" s="2" t="n"/>
+      <c r="P197" s="2" t="n"/>
+      <c r="Q197" s="2" t="n"/>
+      <c r="R197" s="2" t="n"/>
+      <c r="S197" s="2" t="n"/>
+      <c r="T197" s="2" t="n"/>
+      <c r="U197" s="2" t="n"/>
+      <c r="V197" s="2" t="n"/>
+      <c r="W197" s="2" t="n"/>
+      <c r="X197" s="2" t="n"/>
+      <c r="Y197" s="2" t="n"/>
+      <c r="Z197" s="2" t="n"/>
+      <c r="AA197" s="2" t="n"/>
+      <c r="AB197" s="2" t="n"/>
+      <c r="AC197" s="2" t="n"/>
+      <c r="AD197" s="2" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="4" t="inlineStr"/>
       <c r="B198" s="5" t="inlineStr">
         <is>
-          <t>vocabulary</t>
-        </is>
-      </c>
-      <c r="C198" s="6" t="n"/>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C198" s="6" t="inlineStr"/>
       <c r="D198" s="6" t="n"/>
       <c r="E198" s="6" t="n"/>
       <c r="F198" s="6" t="n"/>
@@ -10349,7 +10353,7 @@
       <c r="A199" s="4" t="inlineStr"/>
       <c r="B199" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>vocabulary</t>
         </is>
       </c>
       <c r="C199" s="6" t="n"/>
@@ -10382,44 +10386,44 @@
       <c r="AD199" s="6" t="n"/>
     </row>
     <row r="200">
-      <c r="A200" s="4" t="n"/>
-      <c r="B200" s="8" t="n"/>
-      <c r="C200" s="2" t="n"/>
-      <c r="D200" s="2" t="n"/>
-      <c r="E200" s="2" t="n"/>
-      <c r="F200" s="2" t="n"/>
-      <c r="G200" s="2" t="n"/>
-      <c r="H200" s="2" t="n"/>
-      <c r="I200" s="2" t="n"/>
-      <c r="J200" s="2" t="n"/>
-      <c r="K200" s="2" t="n"/>
-      <c r="L200" s="2" t="n"/>
-      <c r="M200" s="2" t="n"/>
-      <c r="N200" s="2" t="n"/>
-      <c r="O200" s="2" t="n"/>
-      <c r="P200" s="2" t="n"/>
-      <c r="Q200" s="2" t="n"/>
-      <c r="R200" s="2" t="n"/>
-      <c r="S200" s="2" t="n"/>
-      <c r="T200" s="2" t="n"/>
-      <c r="U200" s="2" t="n"/>
-      <c r="V200" s="2" t="n"/>
-      <c r="W200" s="2" t="n"/>
-      <c r="X200" s="2" t="n"/>
-      <c r="Y200" s="2" t="n"/>
-      <c r="Z200" s="2" t="n"/>
-      <c r="AA200" s="2" t="n"/>
-      <c r="AB200" s="2" t="n"/>
-      <c r="AC200" s="2" t="n"/>
-      <c r="AD200" s="2" t="n"/>
+      <c r="A200" s="4" t="inlineStr"/>
+      <c r="B200" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C200" s="6" t="n"/>
+      <c r="D200" s="6" t="n"/>
+      <c r="E200" s="6" t="n"/>
+      <c r="F200" s="6" t="n"/>
+      <c r="G200" s="6" t="n"/>
+      <c r="H200" s="6" t="n"/>
+      <c r="I200" s="6" t="n"/>
+      <c r="J200" s="6" t="n"/>
+      <c r="K200" s="6" t="n"/>
+      <c r="L200" s="6" t="n"/>
+      <c r="M200" s="6" t="n"/>
+      <c r="N200" s="6" t="n"/>
+      <c r="O200" s="6" t="n"/>
+      <c r="P200" s="6" t="n"/>
+      <c r="Q200" s="6" t="n"/>
+      <c r="R200" s="6" t="n"/>
+      <c r="S200" s="6" t="n"/>
+      <c r="T200" s="6" t="n"/>
+      <c r="U200" s="6" t="n"/>
+      <c r="V200" s="6" t="n"/>
+      <c r="W200" s="6" t="n"/>
+      <c r="X200" s="6" t="n"/>
+      <c r="Y200" s="6" t="n"/>
+      <c r="Z200" s="6" t="n"/>
+      <c r="AA200" s="6" t="n"/>
+      <c r="AB200" s="6" t="n"/>
+      <c r="AC200" s="6" t="n"/>
+      <c r="AD200" s="6" t="n"/>
     </row>
     <row r="201">
-      <c r="A201" s="10" t="inlineStr">
-        <is>
-          <t>acronyms</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="n"/>
+      <c r="A201" s="4" t="n"/>
+      <c r="B201" s="8" t="n"/>
       <c r="C201" s="2" t="n"/>
       <c r="D201" s="2" t="n"/>
       <c r="E201" s="2" t="n"/>
@@ -10450,46 +10454,46 @@
       <c r="AD201" s="2" t="n"/>
     </row>
     <row r="202">
-      <c r="A202" s="4" t="inlineStr"/>
-      <c r="B202" s="5" t="inlineStr">
-        <is>
-          <t>acronym</t>
-        </is>
-      </c>
-      <c r="C202" s="6" t="inlineStr"/>
-      <c r="D202" s="6" t="n"/>
-      <c r="E202" s="6" t="n"/>
-      <c r="F202" s="6" t="n"/>
-      <c r="G202" s="6" t="n"/>
-      <c r="H202" s="6" t="n"/>
-      <c r="I202" s="6" t="n"/>
-      <c r="J202" s="6" t="n"/>
-      <c r="K202" s="6" t="n"/>
-      <c r="L202" s="6" t="n"/>
-      <c r="M202" s="6" t="n"/>
-      <c r="N202" s="6" t="n"/>
-      <c r="O202" s="6" t="n"/>
-      <c r="P202" s="6" t="n"/>
-      <c r="Q202" s="6" t="n"/>
-      <c r="R202" s="6" t="n"/>
-      <c r="S202" s="6" t="n"/>
-      <c r="T202" s="6" t="n"/>
-      <c r="U202" s="6" t="n"/>
-      <c r="V202" s="6" t="n"/>
-      <c r="W202" s="6" t="n"/>
-      <c r="X202" s="6" t="n"/>
-      <c r="Y202" s="6" t="n"/>
-      <c r="Z202" s="6" t="n"/>
-      <c r="AA202" s="6" t="n"/>
-      <c r="AB202" s="6" t="n"/>
-      <c r="AC202" s="6" t="n"/>
-      <c r="AD202" s="6" t="n"/>
+      <c r="A202" s="10" t="inlineStr">
+        <is>
+          <t>acronyms</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n"/>
+      <c r="C202" s="2" t="n"/>
+      <c r="D202" s="2" t="n"/>
+      <c r="E202" s="2" t="n"/>
+      <c r="F202" s="2" t="n"/>
+      <c r="G202" s="2" t="n"/>
+      <c r="H202" s="2" t="n"/>
+      <c r="I202" s="2" t="n"/>
+      <c r="J202" s="2" t="n"/>
+      <c r="K202" s="2" t="n"/>
+      <c r="L202" s="2" t="n"/>
+      <c r="M202" s="2" t="n"/>
+      <c r="N202" s="2" t="n"/>
+      <c r="O202" s="2" t="n"/>
+      <c r="P202" s="2" t="n"/>
+      <c r="Q202" s="2" t="n"/>
+      <c r="R202" s="2" t="n"/>
+      <c r="S202" s="2" t="n"/>
+      <c r="T202" s="2" t="n"/>
+      <c r="U202" s="2" t="n"/>
+      <c r="V202" s="2" t="n"/>
+      <c r="W202" s="2" t="n"/>
+      <c r="X202" s="2" t="n"/>
+      <c r="Y202" s="2" t="n"/>
+      <c r="Z202" s="2" t="n"/>
+      <c r="AA202" s="2" t="n"/>
+      <c r="AB202" s="2" t="n"/>
+      <c r="AC202" s="2" t="n"/>
+      <c r="AD202" s="2" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="4" t="inlineStr"/>
       <c r="B203" s="5" t="inlineStr">
         <is>
-          <t>expansion</t>
+          <t>acronym</t>
         </is>
       </c>
       <c r="C203" s="6" t="inlineStr"/>
@@ -10525,10 +10529,10 @@
       <c r="A204" s="4" t="inlineStr"/>
       <c r="B204" s="5" t="inlineStr">
         <is>
-          <t>occurrence</t>
-        </is>
-      </c>
-      <c r="C204" s="6" t="n"/>
+          <t>expansion</t>
+        </is>
+      </c>
+      <c r="C204" s="6" t="inlineStr"/>
       <c r="D204" s="6" t="n"/>
       <c r="E204" s="6" t="n"/>
       <c r="F204" s="6" t="n"/>
@@ -10558,44 +10562,44 @@
       <c r="AD204" s="6" t="n"/>
     </row>
     <row r="205">
-      <c r="A205" s="4" t="n"/>
-      <c r="B205" s="8" t="n"/>
-      <c r="C205" s="2" t="n"/>
-      <c r="D205" s="2" t="n"/>
-      <c r="E205" s="2" t="n"/>
-      <c r="F205" s="2" t="n"/>
-      <c r="G205" s="2" t="n"/>
-      <c r="H205" s="2" t="n"/>
-      <c r="I205" s="2" t="n"/>
-      <c r="J205" s="2" t="n"/>
-      <c r="K205" s="2" t="n"/>
-      <c r="L205" s="2" t="n"/>
-      <c r="M205" s="2" t="n"/>
-      <c r="N205" s="2" t="n"/>
-      <c r="O205" s="2" t="n"/>
-      <c r="P205" s="2" t="n"/>
-      <c r="Q205" s="2" t="n"/>
-      <c r="R205" s="2" t="n"/>
-      <c r="S205" s="2" t="n"/>
-      <c r="T205" s="2" t="n"/>
-      <c r="U205" s="2" t="n"/>
-      <c r="V205" s="2" t="n"/>
-      <c r="W205" s="2" t="n"/>
-      <c r="X205" s="2" t="n"/>
-      <c r="Y205" s="2" t="n"/>
-      <c r="Z205" s="2" t="n"/>
-      <c r="AA205" s="2" t="n"/>
-      <c r="AB205" s="2" t="n"/>
-      <c r="AC205" s="2" t="n"/>
-      <c r="AD205" s="2" t="n"/>
+      <c r="A205" s="4" t="inlineStr"/>
+      <c r="B205" s="5" t="inlineStr">
+        <is>
+          <t>occurrence</t>
+        </is>
+      </c>
+      <c r="C205" s="6" t="n"/>
+      <c r="D205" s="6" t="n"/>
+      <c r="E205" s="6" t="n"/>
+      <c r="F205" s="6" t="n"/>
+      <c r="G205" s="6" t="n"/>
+      <c r="H205" s="6" t="n"/>
+      <c r="I205" s="6" t="n"/>
+      <c r="J205" s="6" t="n"/>
+      <c r="K205" s="6" t="n"/>
+      <c r="L205" s="6" t="n"/>
+      <c r="M205" s="6" t="n"/>
+      <c r="N205" s="6" t="n"/>
+      <c r="O205" s="6" t="n"/>
+      <c r="P205" s="6" t="n"/>
+      <c r="Q205" s="6" t="n"/>
+      <c r="R205" s="6" t="n"/>
+      <c r="S205" s="6" t="n"/>
+      <c r="T205" s="6" t="n"/>
+      <c r="U205" s="6" t="n"/>
+      <c r="V205" s="6" t="n"/>
+      <c r="W205" s="6" t="n"/>
+      <c r="X205" s="6" t="n"/>
+      <c r="Y205" s="6" t="n"/>
+      <c r="Z205" s="6" t="n"/>
+      <c r="AA205" s="6" t="n"/>
+      <c r="AB205" s="6" t="n"/>
+      <c r="AC205" s="6" t="n"/>
+      <c r="AD205" s="6" t="n"/>
     </row>
     <row r="206">
-      <c r="A206" s="10" t="inlineStr">
-        <is>
-          <t>errata</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="n"/>
+      <c r="A206" s="4" t="n"/>
+      <c r="B206" s="8" t="n"/>
       <c r="C206" s="2" t="n"/>
       <c r="D206" s="2" t="n"/>
       <c r="E206" s="2" t="n"/>
@@ -10626,46 +10630,46 @@
       <c r="AD206" s="2" t="n"/>
     </row>
     <row r="207">
-      <c r="A207" s="4" t="inlineStr"/>
-      <c r="B207" s="5" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C207" s="6" t="n"/>
-      <c r="D207" s="6" t="n"/>
-      <c r="E207" s="6" t="n"/>
-      <c r="F207" s="6" t="n"/>
-      <c r="G207" s="6" t="n"/>
-      <c r="H207" s="6" t="n"/>
-      <c r="I207" s="6" t="n"/>
-      <c r="J207" s="6" t="n"/>
-      <c r="K207" s="6" t="n"/>
-      <c r="L207" s="6" t="n"/>
-      <c r="M207" s="6" t="n"/>
-      <c r="N207" s="6" t="n"/>
-      <c r="O207" s="6" t="n"/>
-      <c r="P207" s="6" t="n"/>
-      <c r="Q207" s="6" t="n"/>
-      <c r="R207" s="6" t="n"/>
-      <c r="S207" s="6" t="n"/>
-      <c r="T207" s="6" t="n"/>
-      <c r="U207" s="6" t="n"/>
-      <c r="V207" s="6" t="n"/>
-      <c r="W207" s="6" t="n"/>
-      <c r="X207" s="6" t="n"/>
-      <c r="Y207" s="6" t="n"/>
-      <c r="Z207" s="6" t="n"/>
-      <c r="AA207" s="6" t="n"/>
-      <c r="AB207" s="6" t="n"/>
-      <c r="AC207" s="6" t="n"/>
-      <c r="AD207" s="6" t="n"/>
+      <c r="A207" s="10" t="inlineStr">
+        <is>
+          <t>errata</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n"/>
+      <c r="C207" s="2" t="n"/>
+      <c r="D207" s="2" t="n"/>
+      <c r="E207" s="2" t="n"/>
+      <c r="F207" s="2" t="n"/>
+      <c r="G207" s="2" t="n"/>
+      <c r="H207" s="2" t="n"/>
+      <c r="I207" s="2" t="n"/>
+      <c r="J207" s="2" t="n"/>
+      <c r="K207" s="2" t="n"/>
+      <c r="L207" s="2" t="n"/>
+      <c r="M207" s="2" t="n"/>
+      <c r="N207" s="2" t="n"/>
+      <c r="O207" s="2" t="n"/>
+      <c r="P207" s="2" t="n"/>
+      <c r="Q207" s="2" t="n"/>
+      <c r="R207" s="2" t="n"/>
+      <c r="S207" s="2" t="n"/>
+      <c r="T207" s="2" t="n"/>
+      <c r="U207" s="2" t="n"/>
+      <c r="V207" s="2" t="n"/>
+      <c r="W207" s="2" t="n"/>
+      <c r="X207" s="2" t="n"/>
+      <c r="Y207" s="2" t="n"/>
+      <c r="Z207" s="2" t="n"/>
+      <c r="AA207" s="2" t="n"/>
+      <c r="AB207" s="2" t="n"/>
+      <c r="AC207" s="2" t="n"/>
+      <c r="AD207" s="2" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="4" t="inlineStr"/>
       <c r="B208" s="5" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>date</t>
         </is>
       </c>
       <c r="C208" s="6" t="n"/>
@@ -10701,7 +10705,7 @@
       <c r="A209" s="4" t="inlineStr"/>
       <c r="B209" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C209" s="6" t="n"/>
@@ -10734,44 +10738,44 @@
       <c r="AD209" s="6" t="n"/>
     </row>
     <row r="210">
-      <c r="A210" s="4" t="n"/>
-      <c r="B210" s="8" t="n"/>
-      <c r="C210" s="2" t="n"/>
-      <c r="D210" s="2" t="n"/>
-      <c r="E210" s="2" t="n"/>
-      <c r="F210" s="2" t="n"/>
-      <c r="G210" s="2" t="n"/>
-      <c r="H210" s="2" t="n"/>
-      <c r="I210" s="2" t="n"/>
-      <c r="J210" s="2" t="n"/>
-      <c r="K210" s="2" t="n"/>
-      <c r="L210" s="2" t="n"/>
-      <c r="M210" s="2" t="n"/>
-      <c r="N210" s="2" t="n"/>
-      <c r="O210" s="2" t="n"/>
-      <c r="P210" s="2" t="n"/>
-      <c r="Q210" s="2" t="n"/>
-      <c r="R210" s="2" t="n"/>
-      <c r="S210" s="2" t="n"/>
-      <c r="T210" s="2" t="n"/>
-      <c r="U210" s="2" t="n"/>
-      <c r="V210" s="2" t="n"/>
-      <c r="W210" s="2" t="n"/>
-      <c r="X210" s="2" t="n"/>
-      <c r="Y210" s="2" t="n"/>
-      <c r="Z210" s="2" t="n"/>
-      <c r="AA210" s="2" t="n"/>
-      <c r="AB210" s="2" t="n"/>
-      <c r="AC210" s="2" t="n"/>
-      <c r="AD210" s="2" t="n"/>
+      <c r="A210" s="4" t="inlineStr"/>
+      <c r="B210" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C210" s="6" t="n"/>
+      <c r="D210" s="6" t="n"/>
+      <c r="E210" s="6" t="n"/>
+      <c r="F210" s="6" t="n"/>
+      <c r="G210" s="6" t="n"/>
+      <c r="H210" s="6" t="n"/>
+      <c r="I210" s="6" t="n"/>
+      <c r="J210" s="6" t="n"/>
+      <c r="K210" s="6" t="n"/>
+      <c r="L210" s="6" t="n"/>
+      <c r="M210" s="6" t="n"/>
+      <c r="N210" s="6" t="n"/>
+      <c r="O210" s="6" t="n"/>
+      <c r="P210" s="6" t="n"/>
+      <c r="Q210" s="6" t="n"/>
+      <c r="R210" s="6" t="n"/>
+      <c r="S210" s="6" t="n"/>
+      <c r="T210" s="6" t="n"/>
+      <c r="U210" s="6" t="n"/>
+      <c r="V210" s="6" t="n"/>
+      <c r="W210" s="6" t="n"/>
+      <c r="X210" s="6" t="n"/>
+      <c r="Y210" s="6" t="n"/>
+      <c r="Z210" s="6" t="n"/>
+      <c r="AA210" s="6" t="n"/>
+      <c r="AB210" s="6" t="n"/>
+      <c r="AC210" s="6" t="n"/>
+      <c r="AD210" s="6" t="n"/>
     </row>
     <row r="211">
-      <c r="A211" s="10" t="inlineStr">
-        <is>
-          <t>acknowledgements</t>
-        </is>
-      </c>
-      <c r="B211" s="2" t="n"/>
+      <c r="A211" s="4" t="n"/>
+      <c r="B211" s="8" t="n"/>
       <c r="C211" s="2" t="n"/>
       <c r="D211" s="2" t="n"/>
       <c r="E211" s="2" t="n"/>
@@ -10802,46 +10806,46 @@
       <c r="AD211" s="2" t="n"/>
     </row>
     <row r="212">
-      <c r="A212" s="4" t="inlineStr"/>
-      <c r="B212" s="5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C212" s="6" t="n"/>
-      <c r="D212" s="6" t="n"/>
-      <c r="E212" s="6" t="n"/>
-      <c r="F212" s="6" t="n"/>
-      <c r="G212" s="6" t="n"/>
-      <c r="H212" s="6" t="n"/>
-      <c r="I212" s="6" t="n"/>
-      <c r="J212" s="6" t="n"/>
-      <c r="K212" s="6" t="n"/>
-      <c r="L212" s="6" t="n"/>
-      <c r="M212" s="6" t="n"/>
-      <c r="N212" s="6" t="n"/>
-      <c r="O212" s="6" t="n"/>
-      <c r="P212" s="6" t="n"/>
-      <c r="Q212" s="6" t="n"/>
-      <c r="R212" s="6" t="n"/>
-      <c r="S212" s="6" t="n"/>
-      <c r="T212" s="6" t="n"/>
-      <c r="U212" s="6" t="n"/>
-      <c r="V212" s="6" t="n"/>
-      <c r="W212" s="6" t="n"/>
-      <c r="X212" s="6" t="n"/>
-      <c r="Y212" s="6" t="n"/>
-      <c r="Z212" s="6" t="n"/>
-      <c r="AA212" s="6" t="n"/>
-      <c r="AB212" s="6" t="n"/>
-      <c r="AC212" s="6" t="n"/>
-      <c r="AD212" s="6" t="n"/>
+      <c r="A212" s="10" t="inlineStr">
+        <is>
+          <t>acknowledgements</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n"/>
+      <c r="C212" s="2" t="n"/>
+      <c r="D212" s="2" t="n"/>
+      <c r="E212" s="2" t="n"/>
+      <c r="F212" s="2" t="n"/>
+      <c r="G212" s="2" t="n"/>
+      <c r="H212" s="2" t="n"/>
+      <c r="I212" s="2" t="n"/>
+      <c r="J212" s="2" t="n"/>
+      <c r="K212" s="2" t="n"/>
+      <c r="L212" s="2" t="n"/>
+      <c r="M212" s="2" t="n"/>
+      <c r="N212" s="2" t="n"/>
+      <c r="O212" s="2" t="n"/>
+      <c r="P212" s="2" t="n"/>
+      <c r="Q212" s="2" t="n"/>
+      <c r="R212" s="2" t="n"/>
+      <c r="S212" s="2" t="n"/>
+      <c r="T212" s="2" t="n"/>
+      <c r="U212" s="2" t="n"/>
+      <c r="V212" s="2" t="n"/>
+      <c r="W212" s="2" t="n"/>
+      <c r="X212" s="2" t="n"/>
+      <c r="Y212" s="2" t="n"/>
+      <c r="Z212" s="2" t="n"/>
+      <c r="AA212" s="2" t="n"/>
+      <c r="AB212" s="2" t="n"/>
+      <c r="AC212" s="2" t="n"/>
+      <c r="AD212" s="2" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="4" t="inlineStr"/>
       <c r="B213" s="5" t="inlineStr">
         <is>
-          <t>affiliation</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C213" s="6" t="n"/>
@@ -10877,7 +10881,7 @@
       <c r="A214" s="4" t="inlineStr"/>
       <c r="B214" s="5" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>affiliation</t>
         </is>
       </c>
       <c r="C214" s="6" t="n"/>
@@ -10910,44 +10914,44 @@
       <c r="AD214" s="6" t="n"/>
     </row>
     <row r="215">
-      <c r="A215" s="4" t="n"/>
-      <c r="B215" s="8" t="n"/>
-      <c r="C215" s="2" t="n"/>
-      <c r="D215" s="2" t="n"/>
-      <c r="E215" s="2" t="n"/>
-      <c r="F215" s="2" t="n"/>
-      <c r="G215" s="2" t="n"/>
-      <c r="H215" s="2" t="n"/>
-      <c r="I215" s="2" t="n"/>
-      <c r="J215" s="2" t="n"/>
-      <c r="K215" s="2" t="n"/>
-      <c r="L215" s="2" t="n"/>
-      <c r="M215" s="2" t="n"/>
-      <c r="N215" s="2" t="n"/>
-      <c r="O215" s="2" t="n"/>
-      <c r="P215" s="2" t="n"/>
-      <c r="Q215" s="2" t="n"/>
-      <c r="R215" s="2" t="n"/>
-      <c r="S215" s="2" t="n"/>
-      <c r="T215" s="2" t="n"/>
-      <c r="U215" s="2" t="n"/>
-      <c r="V215" s="2" t="n"/>
-      <c r="W215" s="2" t="n"/>
-      <c r="X215" s="2" t="n"/>
-      <c r="Y215" s="2" t="n"/>
-      <c r="Z215" s="2" t="n"/>
-      <c r="AA215" s="2" t="n"/>
-      <c r="AB215" s="2" t="n"/>
-      <c r="AC215" s="2" t="n"/>
-      <c r="AD215" s="2" t="n"/>
+      <c r="A215" s="4" t="inlineStr"/>
+      <c r="B215" s="5" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="C215" s="6" t="n"/>
+      <c r="D215" s="6" t="n"/>
+      <c r="E215" s="6" t="n"/>
+      <c r="F215" s="6" t="n"/>
+      <c r="G215" s="6" t="n"/>
+      <c r="H215" s="6" t="n"/>
+      <c r="I215" s="6" t="n"/>
+      <c r="J215" s="6" t="n"/>
+      <c r="K215" s="6" t="n"/>
+      <c r="L215" s="6" t="n"/>
+      <c r="M215" s="6" t="n"/>
+      <c r="N215" s="6" t="n"/>
+      <c r="O215" s="6" t="n"/>
+      <c r="P215" s="6" t="n"/>
+      <c r="Q215" s="6" t="n"/>
+      <c r="R215" s="6" t="n"/>
+      <c r="S215" s="6" t="n"/>
+      <c r="T215" s="6" t="n"/>
+      <c r="U215" s="6" t="n"/>
+      <c r="V215" s="6" t="n"/>
+      <c r="W215" s="6" t="n"/>
+      <c r="X215" s="6" t="n"/>
+      <c r="Y215" s="6" t="n"/>
+      <c r="Z215" s="6" t="n"/>
+      <c r="AA215" s="6" t="n"/>
+      <c r="AB215" s="6" t="n"/>
+      <c r="AC215" s="6" t="n"/>
+      <c r="AD215" s="6" t="n"/>
     </row>
     <row r="216">
-      <c r="A216" s="10" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="B216" s="2" t="n"/>
+      <c r="A216" s="4" t="n"/>
+      <c r="B216" s="8" t="n"/>
       <c r="C216" s="2" t="n"/>
       <c r="D216" s="2" t="n"/>
       <c r="E216" s="2" t="n"/>
@@ -10978,46 +10982,46 @@
       <c r="AD216" s="2" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="4" t="inlineStr"/>
-      <c r="B217" s="5" t="inlineStr">
-        <is>
-          <t>note</t>
-        </is>
-      </c>
-      <c r="C217" s="6" t="n"/>
-      <c r="D217" s="6" t="n"/>
-      <c r="E217" s="6" t="n"/>
-      <c r="F217" s="6" t="n"/>
-      <c r="G217" s="6" t="n"/>
-      <c r="H217" s="6" t="n"/>
-      <c r="I217" s="6" t="n"/>
-      <c r="J217" s="6" t="n"/>
-      <c r="K217" s="6" t="n"/>
-      <c r="L217" s="6" t="n"/>
-      <c r="M217" s="6" t="n"/>
-      <c r="N217" s="6" t="n"/>
-      <c r="O217" s="6" t="n"/>
-      <c r="P217" s="6" t="n"/>
-      <c r="Q217" s="6" t="n"/>
-      <c r="R217" s="6" t="n"/>
-      <c r="S217" s="6" t="n"/>
-      <c r="T217" s="6" t="n"/>
-      <c r="U217" s="6" t="n"/>
-      <c r="V217" s="6" t="n"/>
-      <c r="W217" s="6" t="n"/>
-      <c r="X217" s="6" t="n"/>
-      <c r="Y217" s="6" t="n"/>
-      <c r="Z217" s="6" t="n"/>
-      <c r="AA217" s="6" t="n"/>
-      <c r="AB217" s="6" t="n"/>
-      <c r="AC217" s="6" t="n"/>
-      <c r="AD217" s="6" t="n"/>
+      <c r="A217" s="10" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n"/>
+      <c r="C217" s="2" t="n"/>
+      <c r="D217" s="2" t="n"/>
+      <c r="E217" s="2" t="n"/>
+      <c r="F217" s="2" t="n"/>
+      <c r="G217" s="2" t="n"/>
+      <c r="H217" s="2" t="n"/>
+      <c r="I217" s="2" t="n"/>
+      <c r="J217" s="2" t="n"/>
+      <c r="K217" s="2" t="n"/>
+      <c r="L217" s="2" t="n"/>
+      <c r="M217" s="2" t="n"/>
+      <c r="N217" s="2" t="n"/>
+      <c r="O217" s="2" t="n"/>
+      <c r="P217" s="2" t="n"/>
+      <c r="Q217" s="2" t="n"/>
+      <c r="R217" s="2" t="n"/>
+      <c r="S217" s="2" t="n"/>
+      <c r="T217" s="2" t="n"/>
+      <c r="U217" s="2" t="n"/>
+      <c r="V217" s="2" t="n"/>
+      <c r="W217" s="2" t="n"/>
+      <c r="X217" s="2" t="n"/>
+      <c r="Y217" s="2" t="n"/>
+      <c r="Z217" s="2" t="n"/>
+      <c r="AA217" s="2" t="n"/>
+      <c r="AB217" s="2" t="n"/>
+      <c r="AC217" s="2" t="n"/>
+      <c r="AD217" s="2" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="4" t="inlineStr"/>
       <c r="B218" s="5" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>note</t>
         </is>
       </c>
       <c r="C218" s="6" t="n"/>
@@ -11053,7 +11057,7 @@
       <c r="A219" s="4" t="inlineStr"/>
       <c r="B219" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>type</t>
         </is>
       </c>
       <c r="C219" s="6" t="n"/>
@@ -11086,44 +11090,44 @@
       <c r="AD219" s="6" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="4" t="n"/>
-      <c r="B220" s="8" t="n"/>
-      <c r="C220" s="2" t="n"/>
-      <c r="D220" s="2" t="n"/>
-      <c r="E220" s="2" t="n"/>
-      <c r="F220" s="2" t="n"/>
-      <c r="G220" s="2" t="n"/>
-      <c r="H220" s="2" t="n"/>
-      <c r="I220" s="2" t="n"/>
-      <c r="J220" s="2" t="n"/>
-      <c r="K220" s="2" t="n"/>
-      <c r="L220" s="2" t="n"/>
-      <c r="M220" s="2" t="n"/>
-      <c r="N220" s="2" t="n"/>
-      <c r="O220" s="2" t="n"/>
-      <c r="P220" s="2" t="n"/>
-      <c r="Q220" s="2" t="n"/>
-      <c r="R220" s="2" t="n"/>
-      <c r="S220" s="2" t="n"/>
-      <c r="T220" s="2" t="n"/>
-      <c r="U220" s="2" t="n"/>
-      <c r="V220" s="2" t="n"/>
-      <c r="W220" s="2" t="n"/>
-      <c r="X220" s="2" t="n"/>
-      <c r="Y220" s="2" t="n"/>
-      <c r="Z220" s="2" t="n"/>
-      <c r="AA220" s="2" t="n"/>
-      <c r="AB220" s="2" t="n"/>
-      <c r="AC220" s="2" t="n"/>
-      <c r="AD220" s="2" t="n"/>
+      <c r="A220" s="4" t="inlineStr"/>
+      <c r="B220" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C220" s="6" t="n"/>
+      <c r="D220" s="6" t="n"/>
+      <c r="E220" s="6" t="n"/>
+      <c r="F220" s="6" t="n"/>
+      <c r="G220" s="6" t="n"/>
+      <c r="H220" s="6" t="n"/>
+      <c r="I220" s="6" t="n"/>
+      <c r="J220" s="6" t="n"/>
+      <c r="K220" s="6" t="n"/>
+      <c r="L220" s="6" t="n"/>
+      <c r="M220" s="6" t="n"/>
+      <c r="N220" s="6" t="n"/>
+      <c r="O220" s="6" t="n"/>
+      <c r="P220" s="6" t="n"/>
+      <c r="Q220" s="6" t="n"/>
+      <c r="R220" s="6" t="n"/>
+      <c r="S220" s="6" t="n"/>
+      <c r="T220" s="6" t="n"/>
+      <c r="U220" s="6" t="n"/>
+      <c r="V220" s="6" t="n"/>
+      <c r="W220" s="6" t="n"/>
+      <c r="X220" s="6" t="n"/>
+      <c r="Y220" s="6" t="n"/>
+      <c r="Z220" s="6" t="n"/>
+      <c r="AA220" s="6" t="n"/>
+      <c r="AB220" s="6" t="n"/>
+      <c r="AC220" s="6" t="n"/>
+      <c r="AD220" s="6" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="10" t="inlineStr">
-        <is>
-          <t>related_indicators</t>
-        </is>
-      </c>
-      <c r="B221" s="2" t="n"/>
+      <c r="A221" s="4" t="n"/>
+      <c r="B221" s="8" t="n"/>
       <c r="C221" s="2" t="n"/>
       <c r="D221" s="2" t="n"/>
       <c r="E221" s="2" t="n"/>
@@ -11154,46 +11158,46 @@
       <c r="AD221" s="2" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="4" t="inlineStr"/>
-      <c r="B222" s="5" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C222" s="6" t="n"/>
-      <c r="D222" s="6" t="n"/>
-      <c r="E222" s="6" t="n"/>
-      <c r="F222" s="6" t="n"/>
-      <c r="G222" s="6" t="n"/>
-      <c r="H222" s="6" t="n"/>
-      <c r="I222" s="6" t="n"/>
-      <c r="J222" s="6" t="n"/>
-      <c r="K222" s="6" t="n"/>
-      <c r="L222" s="6" t="n"/>
-      <c r="M222" s="6" t="n"/>
-      <c r="N222" s="6" t="n"/>
-      <c r="O222" s="6" t="n"/>
-      <c r="P222" s="6" t="n"/>
-      <c r="Q222" s="6" t="n"/>
-      <c r="R222" s="6" t="n"/>
-      <c r="S222" s="6" t="n"/>
-      <c r="T222" s="6" t="n"/>
-      <c r="U222" s="6" t="n"/>
-      <c r="V222" s="6" t="n"/>
-      <c r="W222" s="6" t="n"/>
-      <c r="X222" s="6" t="n"/>
-      <c r="Y222" s="6" t="n"/>
-      <c r="Z222" s="6" t="n"/>
-      <c r="AA222" s="6" t="n"/>
-      <c r="AB222" s="6" t="n"/>
-      <c r="AC222" s="6" t="n"/>
-      <c r="AD222" s="6" t="n"/>
+      <c r="A222" s="10" t="inlineStr">
+        <is>
+          <t>related_indicators</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n"/>
+      <c r="C222" s="2" t="n"/>
+      <c r="D222" s="2" t="n"/>
+      <c r="E222" s="2" t="n"/>
+      <c r="F222" s="2" t="n"/>
+      <c r="G222" s="2" t="n"/>
+      <c r="H222" s="2" t="n"/>
+      <c r="I222" s="2" t="n"/>
+      <c r="J222" s="2" t="n"/>
+      <c r="K222" s="2" t="n"/>
+      <c r="L222" s="2" t="n"/>
+      <c r="M222" s="2" t="n"/>
+      <c r="N222" s="2" t="n"/>
+      <c r="O222" s="2" t="n"/>
+      <c r="P222" s="2" t="n"/>
+      <c r="Q222" s="2" t="n"/>
+      <c r="R222" s="2" t="n"/>
+      <c r="S222" s="2" t="n"/>
+      <c r="T222" s="2" t="n"/>
+      <c r="U222" s="2" t="n"/>
+      <c r="V222" s="2" t="n"/>
+      <c r="W222" s="2" t="n"/>
+      <c r="X222" s="2" t="n"/>
+      <c r="Y222" s="2" t="n"/>
+      <c r="Z222" s="2" t="n"/>
+      <c r="AA222" s="2" t="n"/>
+      <c r="AB222" s="2" t="n"/>
+      <c r="AC222" s="2" t="n"/>
+      <c r="AD222" s="2" t="n"/>
     </row>
     <row r="223">
       <c r="A223" s="4" t="inlineStr"/>
       <c r="B223" s="5" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C223" s="6" t="n"/>
@@ -11229,7 +11233,7 @@
       <c r="A224" s="4" t="inlineStr"/>
       <c r="B224" s="5" t="inlineStr">
         <is>
-          <t>label</t>
+          <t>code</t>
         </is>
       </c>
       <c r="C224" s="6" t="n"/>
@@ -11265,7 +11269,7 @@
       <c r="A225" s="4" t="inlineStr"/>
       <c r="B225" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>label</t>
         </is>
       </c>
       <c r="C225" s="6" t="n"/>
@@ -11301,7 +11305,7 @@
       <c r="A226" s="4" t="inlineStr"/>
       <c r="B226" s="5" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>uri</t>
         </is>
       </c>
       <c r="C226" s="6" t="n"/>
@@ -11337,7 +11341,7 @@
       <c r="A227" s="4" t="inlineStr"/>
       <c r="B227" s="5" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="C227" s="6" t="n"/>
@@ -11370,44 +11374,44 @@
       <c r="AD227" s="6" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="4" t="n"/>
-      <c r="B228" s="8" t="n"/>
-      <c r="C228" s="2" t="n"/>
-      <c r="D228" s="2" t="n"/>
-      <c r="E228" s="2" t="n"/>
-      <c r="F228" s="2" t="n"/>
-      <c r="G228" s="2" t="n"/>
-      <c r="H228" s="2" t="n"/>
-      <c r="I228" s="2" t="n"/>
-      <c r="J228" s="2" t="n"/>
-      <c r="K228" s="2" t="n"/>
-      <c r="L228" s="2" t="n"/>
-      <c r="M228" s="2" t="n"/>
-      <c r="N228" s="2" t="n"/>
-      <c r="O228" s="2" t="n"/>
-      <c r="P228" s="2" t="n"/>
-      <c r="Q228" s="2" t="n"/>
-      <c r="R228" s="2" t="n"/>
-      <c r="S228" s="2" t="n"/>
-      <c r="T228" s="2" t="n"/>
-      <c r="U228" s="2" t="n"/>
-      <c r="V228" s="2" t="n"/>
-      <c r="W228" s="2" t="n"/>
-      <c r="X228" s="2" t="n"/>
-      <c r="Y228" s="2" t="n"/>
-      <c r="Z228" s="2" t="n"/>
-      <c r="AA228" s="2" t="n"/>
-      <c r="AB228" s="2" t="n"/>
-      <c r="AC228" s="2" t="n"/>
-      <c r="AD228" s="2" t="n"/>
+      <c r="A228" s="4" t="inlineStr"/>
+      <c r="B228" s="5" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C228" s="6" t="n"/>
+      <c r="D228" s="6" t="n"/>
+      <c r="E228" s="6" t="n"/>
+      <c r="F228" s="6" t="n"/>
+      <c r="G228" s="6" t="n"/>
+      <c r="H228" s="6" t="n"/>
+      <c r="I228" s="6" t="n"/>
+      <c r="J228" s="6" t="n"/>
+      <c r="K228" s="6" t="n"/>
+      <c r="L228" s="6" t="n"/>
+      <c r="M228" s="6" t="n"/>
+      <c r="N228" s="6" t="n"/>
+      <c r="O228" s="6" t="n"/>
+      <c r="P228" s="6" t="n"/>
+      <c r="Q228" s="6" t="n"/>
+      <c r="R228" s="6" t="n"/>
+      <c r="S228" s="6" t="n"/>
+      <c r="T228" s="6" t="n"/>
+      <c r="U228" s="6" t="n"/>
+      <c r="V228" s="6" t="n"/>
+      <c r="W228" s="6" t="n"/>
+      <c r="X228" s="6" t="n"/>
+      <c r="Y228" s="6" t="n"/>
+      <c r="Z228" s="6" t="n"/>
+      <c r="AA228" s="6" t="n"/>
+      <c r="AB228" s="6" t="n"/>
+      <c r="AC228" s="6" t="n"/>
+      <c r="AD228" s="6" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="10" t="inlineStr">
-        <is>
-          <t>compliance</t>
-        </is>
-      </c>
-      <c r="B229" s="2" t="n"/>
+      <c r="A229" s="4" t="n"/>
+      <c r="B229" s="8" t="n"/>
       <c r="C229" s="2" t="n"/>
       <c r="D229" s="2" t="n"/>
       <c r="E229" s="2" t="n"/>
@@ -11438,49 +11442,49 @@
       <c r="AD229" s="2" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" s="4" t="inlineStr"/>
-      <c r="B230" s="5" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="C230" s="6" t="inlineStr"/>
-      <c r="D230" s="6" t="n"/>
-      <c r="E230" s="6" t="n"/>
-      <c r="F230" s="6" t="n"/>
-      <c r="G230" s="6" t="n"/>
-      <c r="H230" s="6" t="n"/>
-      <c r="I230" s="6" t="n"/>
-      <c r="J230" s="6" t="n"/>
-      <c r="K230" s="6" t="n"/>
-      <c r="L230" s="6" t="n"/>
-      <c r="M230" s="6" t="n"/>
-      <c r="N230" s="6" t="n"/>
-      <c r="O230" s="6" t="n"/>
-      <c r="P230" s="6" t="n"/>
-      <c r="Q230" s="6" t="n"/>
-      <c r="R230" s="6" t="n"/>
-      <c r="S230" s="6" t="n"/>
-      <c r="T230" s="6" t="n"/>
-      <c r="U230" s="6" t="n"/>
-      <c r="V230" s="6" t="n"/>
-      <c r="W230" s="6" t="n"/>
-      <c r="X230" s="6" t="n"/>
-      <c r="Y230" s="6" t="n"/>
-      <c r="Z230" s="6" t="n"/>
-      <c r="AA230" s="6" t="n"/>
-      <c r="AB230" s="6" t="n"/>
-      <c r="AC230" s="6" t="n"/>
-      <c r="AD230" s="6" t="n"/>
+      <c r="A230" s="10" t="inlineStr">
+        <is>
+          <t>compliance</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n"/>
+      <c r="C230" s="2" t="n"/>
+      <c r="D230" s="2" t="n"/>
+      <c r="E230" s="2" t="n"/>
+      <c r="F230" s="2" t="n"/>
+      <c r="G230" s="2" t="n"/>
+      <c r="H230" s="2" t="n"/>
+      <c r="I230" s="2" t="n"/>
+      <c r="J230" s="2" t="n"/>
+      <c r="K230" s="2" t="n"/>
+      <c r="L230" s="2" t="n"/>
+      <c r="M230" s="2" t="n"/>
+      <c r="N230" s="2" t="n"/>
+      <c r="O230" s="2" t="n"/>
+      <c r="P230" s="2" t="n"/>
+      <c r="Q230" s="2" t="n"/>
+      <c r="R230" s="2" t="n"/>
+      <c r="S230" s="2" t="n"/>
+      <c r="T230" s="2" t="n"/>
+      <c r="U230" s="2" t="n"/>
+      <c r="V230" s="2" t="n"/>
+      <c r="W230" s="2" t="n"/>
+      <c r="X230" s="2" t="n"/>
+      <c r="Y230" s="2" t="n"/>
+      <c r="Z230" s="2" t="n"/>
+      <c r="AA230" s="2" t="n"/>
+      <c r="AB230" s="2" t="n"/>
+      <c r="AC230" s="2" t="n"/>
+      <c r="AD230" s="2" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="4" t="inlineStr"/>
       <c r="B231" s="5" t="inlineStr">
         <is>
-          <t>abbreviation</t>
-        </is>
-      </c>
-      <c r="C231" s="6" t="n"/>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="C231" s="6" t="inlineStr"/>
       <c r="D231" s="6" t="n"/>
       <c r="E231" s="6" t="n"/>
       <c r="F231" s="6" t="n"/>
@@ -11513,7 +11517,7 @@
       <c r="A232" s="4" t="inlineStr"/>
       <c r="B232" s="5" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>abbreviation</t>
         </is>
       </c>
       <c r="C232" s="6" t="n"/>
@@ -11549,7 +11553,7 @@
       <c r="A233" s="4" t="inlineStr"/>
       <c r="B233" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="C233" s="6" t="n"/>
@@ -11582,44 +11586,44 @@
       <c r="AD233" s="6" t="n"/>
     </row>
     <row r="234">
-      <c r="A234" s="4" t="n"/>
-      <c r="B234" s="8" t="n"/>
-      <c r="C234" s="2" t="n"/>
-      <c r="D234" s="2" t="n"/>
-      <c r="E234" s="2" t="n"/>
-      <c r="F234" s="2" t="n"/>
-      <c r="G234" s="2" t="n"/>
-      <c r="H234" s="2" t="n"/>
-      <c r="I234" s="2" t="n"/>
-      <c r="J234" s="2" t="n"/>
-      <c r="K234" s="2" t="n"/>
-      <c r="L234" s="2" t="n"/>
-      <c r="M234" s="2" t="n"/>
-      <c r="N234" s="2" t="n"/>
-      <c r="O234" s="2" t="n"/>
-      <c r="P234" s="2" t="n"/>
-      <c r="Q234" s="2" t="n"/>
-      <c r="R234" s="2" t="n"/>
-      <c r="S234" s="2" t="n"/>
-      <c r="T234" s="2" t="n"/>
-      <c r="U234" s="2" t="n"/>
-      <c r="V234" s="2" t="n"/>
-      <c r="W234" s="2" t="n"/>
-      <c r="X234" s="2" t="n"/>
-      <c r="Y234" s="2" t="n"/>
-      <c r="Z234" s="2" t="n"/>
-      <c r="AA234" s="2" t="n"/>
-      <c r="AB234" s="2" t="n"/>
-      <c r="AC234" s="2" t="n"/>
-      <c r="AD234" s="2" t="n"/>
+      <c r="A234" s="4" t="inlineStr"/>
+      <c r="B234" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C234" s="6" t="n"/>
+      <c r="D234" s="6" t="n"/>
+      <c r="E234" s="6" t="n"/>
+      <c r="F234" s="6" t="n"/>
+      <c r="G234" s="6" t="n"/>
+      <c r="H234" s="6" t="n"/>
+      <c r="I234" s="6" t="n"/>
+      <c r="J234" s="6" t="n"/>
+      <c r="K234" s="6" t="n"/>
+      <c r="L234" s="6" t="n"/>
+      <c r="M234" s="6" t="n"/>
+      <c r="N234" s="6" t="n"/>
+      <c r="O234" s="6" t="n"/>
+      <c r="P234" s="6" t="n"/>
+      <c r="Q234" s="6" t="n"/>
+      <c r="R234" s="6" t="n"/>
+      <c r="S234" s="6" t="n"/>
+      <c r="T234" s="6" t="n"/>
+      <c r="U234" s="6" t="n"/>
+      <c r="V234" s="6" t="n"/>
+      <c r="W234" s="6" t="n"/>
+      <c r="X234" s="6" t="n"/>
+      <c r="Y234" s="6" t="n"/>
+      <c r="Z234" s="6" t="n"/>
+      <c r="AA234" s="6" t="n"/>
+      <c r="AB234" s="6" t="n"/>
+      <c r="AC234" s="6" t="n"/>
+      <c r="AD234" s="6" t="n"/>
     </row>
     <row r="235">
-      <c r="A235" s="10" t="inlineStr">
-        <is>
-          <t>framework</t>
-        </is>
-      </c>
-      <c r="B235" s="2" t="n"/>
+      <c r="A235" s="4" t="n"/>
+      <c r="B235" s="8" t="n"/>
       <c r="C235" s="2" t="n"/>
       <c r="D235" s="2" t="n"/>
       <c r="E235" s="2" t="n"/>
@@ -11650,49 +11654,49 @@
       <c r="AD235" s="2" t="n"/>
     </row>
     <row r="236">
-      <c r="A236" s="4" t="inlineStr"/>
-      <c r="B236" s="5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C236" s="6" t="inlineStr"/>
-      <c r="D236" s="6" t="n"/>
-      <c r="E236" s="6" t="n"/>
-      <c r="F236" s="6" t="n"/>
-      <c r="G236" s="6" t="n"/>
-      <c r="H236" s="6" t="n"/>
-      <c r="I236" s="6" t="n"/>
-      <c r="J236" s="6" t="n"/>
-      <c r="K236" s="6" t="n"/>
-      <c r="L236" s="6" t="n"/>
-      <c r="M236" s="6" t="n"/>
-      <c r="N236" s="6" t="n"/>
-      <c r="O236" s="6" t="n"/>
-      <c r="P236" s="6" t="n"/>
-      <c r="Q236" s="6" t="n"/>
-      <c r="R236" s="6" t="n"/>
-      <c r="S236" s="6" t="n"/>
-      <c r="T236" s="6" t="n"/>
-      <c r="U236" s="6" t="n"/>
-      <c r="V236" s="6" t="n"/>
-      <c r="W236" s="6" t="n"/>
-      <c r="X236" s="6" t="n"/>
-      <c r="Y236" s="6" t="n"/>
-      <c r="Z236" s="6" t="n"/>
-      <c r="AA236" s="6" t="n"/>
-      <c r="AB236" s="6" t="n"/>
-      <c r="AC236" s="6" t="n"/>
-      <c r="AD236" s="6" t="n"/>
+      <c r="A236" s="10" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n"/>
+      <c r="C236" s="2" t="n"/>
+      <c r="D236" s="2" t="n"/>
+      <c r="E236" s="2" t="n"/>
+      <c r="F236" s="2" t="n"/>
+      <c r="G236" s="2" t="n"/>
+      <c r="H236" s="2" t="n"/>
+      <c r="I236" s="2" t="n"/>
+      <c r="J236" s="2" t="n"/>
+      <c r="K236" s="2" t="n"/>
+      <c r="L236" s="2" t="n"/>
+      <c r="M236" s="2" t="n"/>
+      <c r="N236" s="2" t="n"/>
+      <c r="O236" s="2" t="n"/>
+      <c r="P236" s="2" t="n"/>
+      <c r="Q236" s="2" t="n"/>
+      <c r="R236" s="2" t="n"/>
+      <c r="S236" s="2" t="n"/>
+      <c r="T236" s="2" t="n"/>
+      <c r="U236" s="2" t="n"/>
+      <c r="V236" s="2" t="n"/>
+      <c r="W236" s="2" t="n"/>
+      <c r="X236" s="2" t="n"/>
+      <c r="Y236" s="2" t="n"/>
+      <c r="Z236" s="2" t="n"/>
+      <c r="AA236" s="2" t="n"/>
+      <c r="AB236" s="2" t="n"/>
+      <c r="AC236" s="2" t="n"/>
+      <c r="AD236" s="2" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="4" t="inlineStr"/>
       <c r="B237" s="5" t="inlineStr">
         <is>
-          <t>abbreviation</t>
-        </is>
-      </c>
-      <c r="C237" s="6" t="n"/>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C237" s="6" t="inlineStr"/>
       <c r="D237" s="6" t="n"/>
       <c r="E237" s="6" t="n"/>
       <c r="F237" s="6" t="n"/>
@@ -11725,7 +11729,7 @@
       <c r="A238" s="4" t="inlineStr"/>
       <c r="B238" s="5" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>abbreviation</t>
         </is>
       </c>
       <c r="C238" s="6" t="n"/>
@@ -11761,7 +11765,7 @@
       <c r="A239" s="4" t="inlineStr"/>
       <c r="B239" s="5" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="C239" s="6" t="n"/>
@@ -11797,7 +11801,7 @@
       <c r="A240" s="4" t="inlineStr"/>
       <c r="B240" s="5" t="inlineStr">
         <is>
-          <t>goal_id</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C240" s="6" t="n"/>
@@ -11833,7 +11837,7 @@
       <c r="A241" s="4" t="inlineStr"/>
       <c r="B241" s="5" t="inlineStr">
         <is>
-          <t>goal_name</t>
+          <t>goal_id</t>
         </is>
       </c>
       <c r="C241" s="6" t="n"/>
@@ -11869,7 +11873,7 @@
       <c r="A242" s="4" t="inlineStr"/>
       <c r="B242" s="5" t="inlineStr">
         <is>
-          <t>goal_description</t>
+          <t>goal_name</t>
         </is>
       </c>
       <c r="C242" s="6" t="n"/>
@@ -11905,7 +11909,7 @@
       <c r="A243" s="4" t="inlineStr"/>
       <c r="B243" s="5" t="inlineStr">
         <is>
-          <t>target_id</t>
+          <t>goal_description</t>
         </is>
       </c>
       <c r="C243" s="6" t="n"/>
@@ -11941,7 +11945,7 @@
       <c r="A244" s="4" t="inlineStr"/>
       <c r="B244" s="5" t="inlineStr">
         <is>
-          <t>target_name</t>
+          <t>target_id</t>
         </is>
       </c>
       <c r="C244" s="6" t="n"/>
@@ -11977,7 +11981,7 @@
       <c r="A245" s="4" t="inlineStr"/>
       <c r="B245" s="5" t="inlineStr">
         <is>
-          <t>target_description</t>
+          <t>target_name</t>
         </is>
       </c>
       <c r="C245" s="6" t="n"/>
@@ -12013,7 +12017,7 @@
       <c r="A246" s="4" t="inlineStr"/>
       <c r="B246" s="5" t="inlineStr">
         <is>
-          <t>indicator_id</t>
+          <t>target_description</t>
         </is>
       </c>
       <c r="C246" s="6" t="n"/>
@@ -12049,7 +12053,7 @@
       <c r="A247" s="4" t="inlineStr"/>
       <c r="B247" s="5" t="inlineStr">
         <is>
-          <t>indicator_name</t>
+          <t>indicator_id</t>
         </is>
       </c>
       <c r="C247" s="6" t="n"/>
@@ -12085,7 +12089,7 @@
       <c r="A248" s="4" t="inlineStr"/>
       <c r="B248" s="5" t="inlineStr">
         <is>
-          <t>indicator_description</t>
+          <t>indicator_name</t>
         </is>
       </c>
       <c r="C248" s="6" t="n"/>
@@ -12121,7 +12125,7 @@
       <c r="A249" s="4" t="inlineStr"/>
       <c r="B249" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>indicator_description</t>
         </is>
       </c>
       <c r="C249" s="6" t="n"/>
@@ -12157,7 +12161,7 @@
       <c r="A250" s="4" t="inlineStr"/>
       <c r="B250" s="5" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>uri</t>
         </is>
       </c>
       <c r="C250" s="6" t="n"/>
@@ -12190,44 +12194,44 @@
       <c r="AD250" s="6" t="n"/>
     </row>
     <row r="251">
-      <c r="A251" s="4" t="n"/>
-      <c r="B251" s="8" t="n"/>
-      <c r="C251" s="2" t="n"/>
-      <c r="D251" s="2" t="n"/>
-      <c r="E251" s="2" t="n"/>
-      <c r="F251" s="2" t="n"/>
-      <c r="G251" s="2" t="n"/>
-      <c r="H251" s="2" t="n"/>
-      <c r="I251" s="2" t="n"/>
-      <c r="J251" s="2" t="n"/>
-      <c r="K251" s="2" t="n"/>
-      <c r="L251" s="2" t="n"/>
-      <c r="M251" s="2" t="n"/>
-      <c r="N251" s="2" t="n"/>
-      <c r="O251" s="2" t="n"/>
-      <c r="P251" s="2" t="n"/>
-      <c r="Q251" s="2" t="n"/>
-      <c r="R251" s="2" t="n"/>
-      <c r="S251" s="2" t="n"/>
-      <c r="T251" s="2" t="n"/>
-      <c r="U251" s="2" t="n"/>
-      <c r="V251" s="2" t="n"/>
-      <c r="W251" s="2" t="n"/>
-      <c r="X251" s="2" t="n"/>
-      <c r="Y251" s="2" t="n"/>
-      <c r="Z251" s="2" t="n"/>
-      <c r="AA251" s="2" t="n"/>
-      <c r="AB251" s="2" t="n"/>
-      <c r="AC251" s="2" t="n"/>
-      <c r="AD251" s="2" t="n"/>
+      <c r="A251" s="4" t="inlineStr"/>
+      <c r="B251" s="5" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="C251" s="6" t="n"/>
+      <c r="D251" s="6" t="n"/>
+      <c r="E251" s="6" t="n"/>
+      <c r="F251" s="6" t="n"/>
+      <c r="G251" s="6" t="n"/>
+      <c r="H251" s="6" t="n"/>
+      <c r="I251" s="6" t="n"/>
+      <c r="J251" s="6" t="n"/>
+      <c r="K251" s="6" t="n"/>
+      <c r="L251" s="6" t="n"/>
+      <c r="M251" s="6" t="n"/>
+      <c r="N251" s="6" t="n"/>
+      <c r="O251" s="6" t="n"/>
+      <c r="P251" s="6" t="n"/>
+      <c r="Q251" s="6" t="n"/>
+      <c r="R251" s="6" t="n"/>
+      <c r="S251" s="6" t="n"/>
+      <c r="T251" s="6" t="n"/>
+      <c r="U251" s="6" t="n"/>
+      <c r="V251" s="6" t="n"/>
+      <c r="W251" s="6" t="n"/>
+      <c r="X251" s="6" t="n"/>
+      <c r="Y251" s="6" t="n"/>
+      <c r="Z251" s="6" t="n"/>
+      <c r="AA251" s="6" t="n"/>
+      <c r="AB251" s="6" t="n"/>
+      <c r="AC251" s="6" t="n"/>
+      <c r="AD251" s="6" t="n"/>
     </row>
     <row r="252">
-      <c r="A252" s="10" t="inlineStr">
-        <is>
-          <t>series_groups</t>
-        </is>
-      </c>
-      <c r="B252" s="2" t="n"/>
+      <c r="A252" s="4" t="n"/>
+      <c r="B252" s="8" t="n"/>
       <c r="C252" s="2" t="n"/>
       <c r="D252" s="2" t="n"/>
       <c r="E252" s="2" t="n"/>
@@ -12258,46 +12262,46 @@
       <c r="AD252" s="2" t="n"/>
     </row>
     <row r="253">
-      <c r="A253" s="4" t="inlineStr"/>
-      <c r="B253" s="5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C253" s="6" t="n"/>
-      <c r="D253" s="6" t="n"/>
-      <c r="E253" s="6" t="n"/>
-      <c r="F253" s="6" t="n"/>
-      <c r="G253" s="6" t="n"/>
-      <c r="H253" s="6" t="n"/>
-      <c r="I253" s="6" t="n"/>
-      <c r="J253" s="6" t="n"/>
-      <c r="K253" s="6" t="n"/>
-      <c r="L253" s="6" t="n"/>
-      <c r="M253" s="6" t="n"/>
-      <c r="N253" s="6" t="n"/>
-      <c r="O253" s="6" t="n"/>
-      <c r="P253" s="6" t="n"/>
-      <c r="Q253" s="6" t="n"/>
-      <c r="R253" s="6" t="n"/>
-      <c r="S253" s="6" t="n"/>
-      <c r="T253" s="6" t="n"/>
-      <c r="U253" s="6" t="n"/>
-      <c r="V253" s="6" t="n"/>
-      <c r="W253" s="6" t="n"/>
-      <c r="X253" s="6" t="n"/>
-      <c r="Y253" s="6" t="n"/>
-      <c r="Z253" s="6" t="n"/>
-      <c r="AA253" s="6" t="n"/>
-      <c r="AB253" s="6" t="n"/>
-      <c r="AC253" s="6" t="n"/>
-      <c r="AD253" s="6" t="n"/>
+      <c r="A253" s="10" t="inlineStr">
+        <is>
+          <t>series_groups</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n"/>
+      <c r="C253" s="2" t="n"/>
+      <c r="D253" s="2" t="n"/>
+      <c r="E253" s="2" t="n"/>
+      <c r="F253" s="2" t="n"/>
+      <c r="G253" s="2" t="n"/>
+      <c r="H253" s="2" t="n"/>
+      <c r="I253" s="2" t="n"/>
+      <c r="J253" s="2" t="n"/>
+      <c r="K253" s="2" t="n"/>
+      <c r="L253" s="2" t="n"/>
+      <c r="M253" s="2" t="n"/>
+      <c r="N253" s="2" t="n"/>
+      <c r="O253" s="2" t="n"/>
+      <c r="P253" s="2" t="n"/>
+      <c r="Q253" s="2" t="n"/>
+      <c r="R253" s="2" t="n"/>
+      <c r="S253" s="2" t="n"/>
+      <c r="T253" s="2" t="n"/>
+      <c r="U253" s="2" t="n"/>
+      <c r="V253" s="2" t="n"/>
+      <c r="W253" s="2" t="n"/>
+      <c r="X253" s="2" t="n"/>
+      <c r="Y253" s="2" t="n"/>
+      <c r="Z253" s="2" t="n"/>
+      <c r="AA253" s="2" t="n"/>
+      <c r="AB253" s="2" t="n"/>
+      <c r="AC253" s="2" t="n"/>
+      <c r="AD253" s="2" t="n"/>
     </row>
     <row r="254">
       <c r="A254" s="4" t="inlineStr"/>
       <c r="B254" s="5" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C254" s="6" t="n"/>
@@ -12333,7 +12337,7 @@
       <c r="A255" s="4" t="inlineStr"/>
       <c r="B255" s="5" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C255" s="6" t="n"/>
@@ -12369,7 +12373,7 @@
       <c r="A256" s="4" t="inlineStr"/>
       <c r="B256" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>version</t>
         </is>
       </c>
       <c r="C256" s="6" t="n"/>
@@ -12402,44 +12406,44 @@
       <c r="AD256" s="6" t="n"/>
     </row>
     <row r="257">
-      <c r="A257" s="4" t="n"/>
-      <c r="B257" s="8" t="n"/>
-      <c r="C257" s="2" t="n"/>
-      <c r="D257" s="2" t="n"/>
-      <c r="E257" s="2" t="n"/>
-      <c r="F257" s="2" t="n"/>
-      <c r="G257" s="2" t="n"/>
-      <c r="H257" s="2" t="n"/>
-      <c r="I257" s="2" t="n"/>
-      <c r="J257" s="2" t="n"/>
-      <c r="K257" s="2" t="n"/>
-      <c r="L257" s="2" t="n"/>
-      <c r="M257" s="2" t="n"/>
-      <c r="N257" s="2" t="n"/>
-      <c r="O257" s="2" t="n"/>
-      <c r="P257" s="2" t="n"/>
-      <c r="Q257" s="2" t="n"/>
-      <c r="R257" s="2" t="n"/>
-      <c r="S257" s="2" t="n"/>
-      <c r="T257" s="2" t="n"/>
-      <c r="U257" s="2" t="n"/>
-      <c r="V257" s="2" t="n"/>
-      <c r="W257" s="2" t="n"/>
-      <c r="X257" s="2" t="n"/>
-      <c r="Y257" s="2" t="n"/>
-      <c r="Z257" s="2" t="n"/>
-      <c r="AA257" s="2" t="n"/>
-      <c r="AB257" s="2" t="n"/>
-      <c r="AC257" s="2" t="n"/>
-      <c r="AD257" s="2" t="n"/>
+      <c r="A257" s="4" t="inlineStr"/>
+      <c r="B257" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C257" s="6" t="n"/>
+      <c r="D257" s="6" t="n"/>
+      <c r="E257" s="6" t="n"/>
+      <c r="F257" s="6" t="n"/>
+      <c r="G257" s="6" t="n"/>
+      <c r="H257" s="6" t="n"/>
+      <c r="I257" s="6" t="n"/>
+      <c r="J257" s="6" t="n"/>
+      <c r="K257" s="6" t="n"/>
+      <c r="L257" s="6" t="n"/>
+      <c r="M257" s="6" t="n"/>
+      <c r="N257" s="6" t="n"/>
+      <c r="O257" s="6" t="n"/>
+      <c r="P257" s="6" t="n"/>
+      <c r="Q257" s="6" t="n"/>
+      <c r="R257" s="6" t="n"/>
+      <c r="S257" s="6" t="n"/>
+      <c r="T257" s="6" t="n"/>
+      <c r="U257" s="6" t="n"/>
+      <c r="V257" s="6" t="n"/>
+      <c r="W257" s="6" t="n"/>
+      <c r="X257" s="6" t="n"/>
+      <c r="Y257" s="6" t="n"/>
+      <c r="Z257" s="6" t="n"/>
+      <c r="AA257" s="6" t="n"/>
+      <c r="AB257" s="6" t="n"/>
+      <c r="AC257" s="6" t="n"/>
+      <c r="AD257" s="6" t="n"/>
     </row>
     <row r="258">
-      <c r="A258" s="10" t="inlineStr">
-        <is>
-          <t>contacts</t>
-        </is>
-      </c>
-      <c r="B258" s="2" t="n"/>
+      <c r="A258" s="4" t="n"/>
+      <c r="B258" s="8" t="n"/>
       <c r="C258" s="2" t="n"/>
       <c r="D258" s="2" t="n"/>
       <c r="E258" s="2" t="n"/>
@@ -12470,46 +12474,46 @@
       <c r="AD258" s="2" t="n"/>
     </row>
     <row r="259">
-      <c r="A259" s="4" t="inlineStr"/>
-      <c r="B259" s="5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C259" s="6" t="n"/>
-      <c r="D259" s="6" t="n"/>
-      <c r="E259" s="6" t="n"/>
-      <c r="F259" s="6" t="n"/>
-      <c r="G259" s="6" t="n"/>
-      <c r="H259" s="6" t="n"/>
-      <c r="I259" s="6" t="n"/>
-      <c r="J259" s="6" t="n"/>
-      <c r="K259" s="6" t="n"/>
-      <c r="L259" s="6" t="n"/>
-      <c r="M259" s="6" t="n"/>
-      <c r="N259" s="6" t="n"/>
-      <c r="O259" s="6" t="n"/>
-      <c r="P259" s="6" t="n"/>
-      <c r="Q259" s="6" t="n"/>
-      <c r="R259" s="6" t="n"/>
-      <c r="S259" s="6" t="n"/>
-      <c r="T259" s="6" t="n"/>
-      <c r="U259" s="6" t="n"/>
-      <c r="V259" s="6" t="n"/>
-      <c r="W259" s="6" t="n"/>
-      <c r="X259" s="6" t="n"/>
-      <c r="Y259" s="6" t="n"/>
-      <c r="Z259" s="6" t="n"/>
-      <c r="AA259" s="6" t="n"/>
-      <c r="AB259" s="6" t="n"/>
-      <c r="AC259" s="6" t="n"/>
-      <c r="AD259" s="6" t="n"/>
+      <c r="A259" s="10" t="inlineStr">
+        <is>
+          <t>contacts</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="n"/>
+      <c r="C259" s="2" t="n"/>
+      <c r="D259" s="2" t="n"/>
+      <c r="E259" s="2" t="n"/>
+      <c r="F259" s="2" t="n"/>
+      <c r="G259" s="2" t="n"/>
+      <c r="H259" s="2" t="n"/>
+      <c r="I259" s="2" t="n"/>
+      <c r="J259" s="2" t="n"/>
+      <c r="K259" s="2" t="n"/>
+      <c r="L259" s="2" t="n"/>
+      <c r="M259" s="2" t="n"/>
+      <c r="N259" s="2" t="n"/>
+      <c r="O259" s="2" t="n"/>
+      <c r="P259" s="2" t="n"/>
+      <c r="Q259" s="2" t="n"/>
+      <c r="R259" s="2" t="n"/>
+      <c r="S259" s="2" t="n"/>
+      <c r="T259" s="2" t="n"/>
+      <c r="U259" s="2" t="n"/>
+      <c r="V259" s="2" t="n"/>
+      <c r="W259" s="2" t="n"/>
+      <c r="X259" s="2" t="n"/>
+      <c r="Y259" s="2" t="n"/>
+      <c r="Z259" s="2" t="n"/>
+      <c r="AA259" s="2" t="n"/>
+      <c r="AB259" s="2" t="n"/>
+      <c r="AC259" s="2" t="n"/>
+      <c r="AD259" s="2" t="n"/>
     </row>
     <row r="260">
       <c r="A260" s="4" t="inlineStr"/>
       <c r="B260" s="5" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C260" s="6" t="n"/>
@@ -12545,7 +12549,7 @@
       <c r="A261" s="4" t="inlineStr"/>
       <c r="B261" s="5" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>role</t>
         </is>
       </c>
       <c r="C261" s="6" t="n"/>
@@ -12581,7 +12585,7 @@
       <c r="A262" s="4" t="inlineStr"/>
       <c r="B262" s="5" t="inlineStr">
         <is>
-          <t>affiliation</t>
+          <t>position</t>
         </is>
       </c>
       <c r="C262" s="6" t="n"/>
@@ -12617,7 +12621,7 @@
       <c r="A263" s="4" t="inlineStr"/>
       <c r="B263" s="5" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>affiliation</t>
         </is>
       </c>
       <c r="C263" s="6" t="n"/>
@@ -12653,7 +12657,7 @@
       <c r="A264" s="4" t="inlineStr"/>
       <c r="B264" s="5" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>email</t>
         </is>
       </c>
       <c r="C264" s="6" t="n"/>
@@ -12689,7 +12693,7 @@
       <c r="A265" s="4" t="inlineStr"/>
       <c r="B265" s="5" t="inlineStr">
         <is>
-          <t>uri</t>
+          <t>telephone</t>
         </is>
       </c>
       <c r="C265" s="6" t="n"/>
@@ -12722,68 +12726,72 @@
       <c r="AD265" s="6" t="n"/>
     </row>
     <row r="266">
-      <c r="A266" s="4" t="n"/>
-      <c r="B266" s="8" t="n"/>
-      <c r="C266" s="2" t="n"/>
-      <c r="D266" s="2" t="n"/>
-      <c r="E266" s="2" t="n"/>
-      <c r="F266" s="2" t="n"/>
-      <c r="G266" s="2" t="n"/>
-      <c r="H266" s="2" t="n"/>
-      <c r="I266" s="2" t="n"/>
-      <c r="J266" s="2" t="n"/>
-      <c r="K266" s="2" t="n"/>
-      <c r="L266" s="2" t="n"/>
-      <c r="M266" s="2" t="n"/>
-      <c r="N266" s="2" t="n"/>
-      <c r="O266" s="2" t="n"/>
-      <c r="P266" s="2" t="n"/>
-      <c r="Q266" s="2" t="n"/>
-      <c r="R266" s="2" t="n"/>
-      <c r="S266" s="2" t="n"/>
-      <c r="T266" s="2" t="n"/>
-      <c r="U266" s="2" t="n"/>
-      <c r="V266" s="2" t="n"/>
-      <c r="W266" s="2" t="n"/>
-      <c r="X266" s="2" t="n"/>
-      <c r="Y266" s="2" t="n"/>
-      <c r="Z266" s="2" t="n"/>
-      <c r="AA266" s="2" t="n"/>
-      <c r="AB266" s="2" t="n"/>
-      <c r="AC266" s="2" t="n"/>
-      <c r="AD266" s="2" t="n"/>
+      <c r="A266" s="4" t="inlineStr"/>
+      <c r="B266" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="C266" s="6" t="n"/>
+      <c r="D266" s="6" t="n"/>
+      <c r="E266" s="6" t="n"/>
+      <c r="F266" s="6" t="n"/>
+      <c r="G266" s="6" t="n"/>
+      <c r="H266" s="6" t="n"/>
+      <c r="I266" s="6" t="n"/>
+      <c r="J266" s="6" t="n"/>
+      <c r="K266" s="6" t="n"/>
+      <c r="L266" s="6" t="n"/>
+      <c r="M266" s="6" t="n"/>
+      <c r="N266" s="6" t="n"/>
+      <c r="O266" s="6" t="n"/>
+      <c r="P266" s="6" t="n"/>
+      <c r="Q266" s="6" t="n"/>
+      <c r="R266" s="6" t="n"/>
+      <c r="S266" s="6" t="n"/>
+      <c r="T266" s="6" t="n"/>
+      <c r="U266" s="6" t="n"/>
+      <c r="V266" s="6" t="n"/>
+      <c r="W266" s="6" t="n"/>
+      <c r="X266" s="6" t="n"/>
+      <c r="Y266" s="6" t="n"/>
+      <c r="Z266" s="6" t="n"/>
+      <c r="AA266" s="6" t="n"/>
+      <c r="AB266" s="6" t="n"/>
+      <c r="AC266" s="6" t="n"/>
+      <c r="AD266" s="6" t="n"/>
     </row>
     <row r="267">
       <c r="A267" s="4" t="n"/>
-      <c r="B267" s="4" t="n"/>
-      <c r="C267" s="4" t="n"/>
-      <c r="D267" s="4" t="n"/>
-      <c r="E267" s="4" t="n"/>
-      <c r="F267" s="4" t="n"/>
-      <c r="G267" s="4" t="n"/>
-      <c r="H267" s="4" t="n"/>
-      <c r="I267" s="4" t="n"/>
-      <c r="J267" s="4" t="n"/>
-      <c r="K267" s="4" t="n"/>
-      <c r="L267" s="4" t="n"/>
-      <c r="M267" s="4" t="n"/>
-      <c r="N267" s="4" t="n"/>
-      <c r="O267" s="4" t="n"/>
-      <c r="P267" s="4" t="n"/>
-      <c r="Q267" s="4" t="n"/>
-      <c r="R267" s="4" t="n"/>
-      <c r="S267" s="4" t="n"/>
-      <c r="T267" s="4" t="n"/>
-      <c r="U267" s="4" t="n"/>
-      <c r="V267" s="4" t="n"/>
-      <c r="W267" s="4" t="n"/>
-      <c r="X267" s="4" t="n"/>
-      <c r="Y267" s="4" t="n"/>
-      <c r="Z267" s="4" t="n"/>
-      <c r="AA267" s="4" t="n"/>
-      <c r="AB267" s="4" t="n"/>
-      <c r="AC267" s="4" t="n"/>
-      <c r="AD267" s="4" t="n"/>
+      <c r="B267" s="8" t="n"/>
+      <c r="C267" s="2" t="n"/>
+      <c r="D267" s="2" t="n"/>
+      <c r="E267" s="2" t="n"/>
+      <c r="F267" s="2" t="n"/>
+      <c r="G267" s="2" t="n"/>
+      <c r="H267" s="2" t="n"/>
+      <c r="I267" s="2" t="n"/>
+      <c r="J267" s="2" t="n"/>
+      <c r="K267" s="2" t="n"/>
+      <c r="L267" s="2" t="n"/>
+      <c r="M267" s="2" t="n"/>
+      <c r="N267" s="2" t="n"/>
+      <c r="O267" s="2" t="n"/>
+      <c r="P267" s="2" t="n"/>
+      <c r="Q267" s="2" t="n"/>
+      <c r="R267" s="2" t="n"/>
+      <c r="S267" s="2" t="n"/>
+      <c r="T267" s="2" t="n"/>
+      <c r="U267" s="2" t="n"/>
+      <c r="V267" s="2" t="n"/>
+      <c r="W267" s="2" t="n"/>
+      <c r="X267" s="2" t="n"/>
+      <c r="Y267" s="2" t="n"/>
+      <c r="Z267" s="2" t="n"/>
+      <c r="AA267" s="2" t="n"/>
+      <c r="AB267" s="2" t="n"/>
+      <c r="AC267" s="2" t="n"/>
+      <c r="AD267" s="2" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="4" t="n"/>
@@ -13713,6 +13721,38 @@
       <c r="AC296" s="4" t="n"/>
       <c r="AD296" s="4" t="n"/>
     </row>
+    <row r="297">
+      <c r="A297" s="4" t="n"/>
+      <c r="B297" s="4" t="n"/>
+      <c r="C297" s="4" t="n"/>
+      <c r="D297" s="4" t="n"/>
+      <c r="E297" s="4" t="n"/>
+      <c r="F297" s="4" t="n"/>
+      <c r="G297" s="4" t="n"/>
+      <c r="H297" s="4" t="n"/>
+      <c r="I297" s="4" t="n"/>
+      <c r="J297" s="4" t="n"/>
+      <c r="K297" s="4" t="n"/>
+      <c r="L297" s="4" t="n"/>
+      <c r="M297" s="4" t="n"/>
+      <c r="N297" s="4" t="n"/>
+      <c r="O297" s="4" t="n"/>
+      <c r="P297" s="4" t="n"/>
+      <c r="Q297" s="4" t="n"/>
+      <c r="R297" s="4" t="n"/>
+      <c r="S297" s="4" t="n"/>
+      <c r="T297" s="4" t="n"/>
+      <c r="U297" s="4" t="n"/>
+      <c r="V297" s="4" t="n"/>
+      <c r="W297" s="4" t="n"/>
+      <c r="X297" s="4" t="n"/>
+      <c r="Y297" s="4" t="n"/>
+      <c r="Z297" s="4" t="n"/>
+      <c r="AA297" s="4" t="n"/>
+      <c r="AB297" s="4" t="n"/>
+      <c r="AC297" s="4" t="n"/>
+      <c r="AD297" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_sheets/Indicator_metadata.xlsx
+++ b/excel_sheets/Indicator_metadata.xlsx
@@ -507,7 +507,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>indicator type metadata version 20240905.1</t>
+          <t>indicator type metadata version 0.1.0</t>
         </is>
       </c>
       <c r="D1" s="2" t="n"/>

--- a/excel_sheets/Indicator_metadata.xlsx
+++ b/excel_sheets/Indicator_metadata.xlsx
@@ -507,7 +507,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>indicator type metadata version 0.1.0</t>
+          <t>metadata_type: indicator, metadata_type_version: 0.1.0</t>
         </is>
       </c>
       <c r="D1" s="2" t="n"/>
@@ -4148,9 +4148,7 @@
           <t>adjustments</t>
         </is>
       </c>
-      <c r="C24" s="6" t="n">
-        <v/>
-      </c>
+      <c r="C24" s="6" t="n"/>
       <c r="D24" s="6" t="n"/>
       <c r="E24" s="6" t="n"/>
       <c r="F24" s="6" t="n"/>
@@ -4222,9 +4220,7 @@
           <t>validation_rules</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n">
-        <v/>
-      </c>
+      <c r="C26" s="6" t="n"/>
       <c r="D26" s="6" t="n"/>
       <c r="E26" s="6" t="n"/>
       <c r="F26" s="6" t="n"/>
